--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>592400</v>
+        <v>948600</v>
       </c>
       <c r="E8" s="3">
-        <v>354200</v>
+        <v>577900</v>
       </c>
       <c r="F8" s="3">
-        <v>75100</v>
+        <v>345500</v>
       </c>
       <c r="G8" s="3">
-        <v>18800</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>73200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>18300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>469700</v>
+        <v>782100</v>
       </c>
       <c r="E9" s="3">
-        <v>275400</v>
+        <v>458200</v>
       </c>
       <c r="F9" s="3">
-        <v>110900</v>
+        <v>268600</v>
       </c>
       <c r="G9" s="3">
-        <v>43600</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>108200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>42500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,26 +774,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>122700</v>
+        <v>166600</v>
       </c>
       <c r="E10" s="3">
-        <v>78800</v>
+        <v>119700</v>
       </c>
       <c r="F10" s="3">
-        <v>-35800</v>
+        <v>76900</v>
       </c>
       <c r="G10" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>-34900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-24200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,25 +825,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>77100</v>
+        <v>125200</v>
       </c>
       <c r="E12" s="3">
-        <v>40200</v>
+        <v>75200</v>
       </c>
       <c r="F12" s="3">
-        <v>13100</v>
+        <v>39200</v>
       </c>
       <c r="G12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>697000</v>
+        <v>1157900</v>
       </c>
       <c r="E17" s="3">
-        <v>386400</v>
+        <v>679900</v>
       </c>
       <c r="F17" s="3">
-        <v>203500</v>
+        <v>376900</v>
       </c>
       <c r="G17" s="3">
-        <v>71700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>198500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>70000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-104600</v>
+        <v>-209300</v>
       </c>
       <c r="E18" s="3">
-        <v>-32200</v>
+        <v>-102000</v>
       </c>
       <c r="F18" s="3">
-        <v>-128400</v>
+        <v>-31400</v>
       </c>
       <c r="G18" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-125200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-51600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,26 +1050,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27300</v>
+        <v>38400</v>
       </c>
       <c r="E20" s="3">
-        <v>7100</v>
+        <v>26600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2000</v>
+        <v>6900</v>
       </c>
       <c r="G20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14800</v>
+        <v>-17800</v>
       </c>
       <c r="E21" s="3">
-        <v>18600</v>
+        <v>14200</v>
       </c>
       <c r="F21" s="3">
-        <v>-107200</v>
+        <v>18000</v>
       </c>
       <c r="G21" s="3">
-        <v>-47200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-104600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-46000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,56 +1113,62 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>6500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77300</v>
+        <v>-177400</v>
       </c>
       <c r="E23" s="3">
-        <v>-25100</v>
+        <v>-75400</v>
       </c>
       <c r="F23" s="3">
-        <v>-130300</v>
+        <v>-24500</v>
       </c>
       <c r="G23" s="3">
-        <v>-53200</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-127100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-51900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,27 +1179,30 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="3">
-        <v>1300</v>
+        <v>3600</v>
       </c>
       <c r="F24" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
+        <v>400</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-81100</v>
+        <v>-182400</v>
       </c>
       <c r="E26" s="3">
-        <v>-26400</v>
+        <v>-79100</v>
       </c>
       <c r="F26" s="3">
-        <v>-130800</v>
+        <v>-25700</v>
       </c>
       <c r="G26" s="3">
-        <v>-53600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-127600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-52300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-88400</v>
+        <v>-180400</v>
       </c>
       <c r="E27" s="3">
-        <v>-82000</v>
+        <v>-86300</v>
       </c>
       <c r="F27" s="3">
-        <v>-170000</v>
+        <v>-80000</v>
       </c>
       <c r="G27" s="3">
-        <v>-81600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-165900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-79600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,27 +1443,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27300</v>
+        <v>-38400</v>
       </c>
       <c r="E32" s="3">
-        <v>-7100</v>
+        <v>-26600</v>
       </c>
       <c r="F32" s="3">
-        <v>2000</v>
+        <v>-6900</v>
       </c>
       <c r="G32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-88400</v>
+        <v>-180400</v>
       </c>
       <c r="E33" s="3">
-        <v>-82000</v>
+        <v>-86300</v>
       </c>
       <c r="F33" s="3">
-        <v>-170000</v>
+        <v>-80000</v>
       </c>
       <c r="G33" s="3">
-        <v>-81600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-165900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-79600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-88400</v>
+        <v>-180400</v>
       </c>
       <c r="E35" s="3">
-        <v>-82000</v>
+        <v>-86300</v>
       </c>
       <c r="F35" s="3">
-        <v>-170000</v>
+        <v>-80000</v>
       </c>
       <c r="G35" s="3">
-        <v>-81600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-165900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-79600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>507900</v>
+        <v>695600</v>
       </c>
       <c r="E41" s="3">
-        <v>109500</v>
+        <v>496200</v>
       </c>
       <c r="F41" s="3">
-        <v>55600</v>
+        <v>106900</v>
       </c>
       <c r="G41" s="3">
-        <v>99000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>54300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>96700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,26 +1676,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>246100</v>
+        <v>438900</v>
       </c>
       <c r="E42" s="3">
-        <v>72500</v>
+        <v>240400</v>
       </c>
       <c r="F42" s="3">
-        <v>103600</v>
+        <v>70800</v>
       </c>
       <c r="G42" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>101200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>7800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62500</v>
+        <v>153900</v>
       </c>
       <c r="E43" s="3">
-        <v>65300</v>
+        <v>61000</v>
       </c>
       <c r="F43" s="3">
-        <v>18500</v>
+        <v>63800</v>
       </c>
       <c r="G43" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>18000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,27 +1742,30 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7900</v>
+        <v>9800</v>
       </c>
       <c r="E44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
-        <v>1000</v>
-      </c>
       <c r="G44" s="3">
+        <v>900</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,26 +1775,29 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>115400</v>
+        <v>148800</v>
       </c>
       <c r="E45" s="3">
-        <v>60300</v>
+        <v>112800</v>
       </c>
       <c r="F45" s="3">
-        <v>22400</v>
+        <v>58900</v>
       </c>
       <c r="G45" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>21900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>939800</v>
+        <v>1447000</v>
       </c>
       <c r="E46" s="3">
-        <v>308900</v>
+        <v>918000</v>
       </c>
       <c r="F46" s="3">
-        <v>201000</v>
+        <v>301800</v>
       </c>
       <c r="G46" s="3">
-        <v>122300</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>196300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>119500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>140600</v>
+        <v>175400</v>
       </c>
       <c r="E47" s="3">
-        <v>91200</v>
+        <v>137400</v>
       </c>
       <c r="F47" s="3">
-        <v>54100</v>
+        <v>89100</v>
       </c>
       <c r="G47" s="3">
-        <v>23000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>52800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>22500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,26 +1874,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56700</v>
+        <v>105400</v>
       </c>
       <c r="E48" s="3">
-        <v>26700</v>
+        <v>55300</v>
       </c>
       <c r="F48" s="3">
-        <v>7300</v>
+        <v>26100</v>
       </c>
       <c r="G48" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1800,26 +1907,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>338700</v>
+        <v>374100</v>
       </c>
       <c r="E49" s="3">
-        <v>68500</v>
+        <v>330900</v>
       </c>
       <c r="F49" s="3">
-        <v>47800</v>
+        <v>66900</v>
       </c>
       <c r="G49" s="3">
-        <v>15700</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>46700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>15300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29300</v>
+        <v>72900</v>
       </c>
       <c r="E52" s="3">
-        <v>3000</v>
+        <v>28600</v>
       </c>
       <c r="F52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1505100</v>
+        <v>2174800</v>
       </c>
       <c r="E54" s="3">
-        <v>498400</v>
+        <v>1470300</v>
       </c>
       <c r="F54" s="3">
-        <v>310900</v>
+        <v>486800</v>
       </c>
       <c r="G54" s="3">
-        <v>166000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>303700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>162200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>187600</v>
+        <v>266900</v>
       </c>
       <c r="E57" s="3">
-        <v>85600</v>
+        <v>183300</v>
       </c>
       <c r="F57" s="3">
-        <v>45500</v>
+        <v>83600</v>
       </c>
       <c r="G57" s="3">
-        <v>17600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>44400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>17200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,27 +2168,30 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>285700</v>
+        <v>332000</v>
       </c>
       <c r="E59" s="3">
-        <v>115000</v>
+        <v>279100</v>
       </c>
       <c r="F59" s="3">
-        <v>44700</v>
+        <v>112300</v>
       </c>
       <c r="G59" s="3">
-        <v>25200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>43600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>24600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>473300</v>
+        <v>598800</v>
       </c>
       <c r="E60" s="3">
-        <v>200600</v>
+        <v>462400</v>
       </c>
       <c r="F60" s="3">
-        <v>90100</v>
+        <v>195900</v>
       </c>
       <c r="G60" s="3">
-        <v>44200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>88000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>43200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,14 +2267,17 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>478600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2158,39 +2300,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>27000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>507800</v>
+        <v>1186300</v>
       </c>
       <c r="E66" s="3">
-        <v>200600</v>
+        <v>496100</v>
       </c>
       <c r="F66" s="3">
-        <v>90200</v>
+        <v>195900</v>
       </c>
       <c r="G66" s="3">
-        <v>44000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>88100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>43000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>576100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>410600</v>
+        <v>562700</v>
       </c>
       <c r="G70" s="3">
-        <v>200100</v>
+        <v>401100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>195400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-406800</v>
+        <v>-579200</v>
       </c>
       <c r="E72" s="3">
-        <v>-318300</v>
+        <v>-397400</v>
       </c>
       <c r="F72" s="3">
-        <v>-254900</v>
+        <v>-311000</v>
       </c>
       <c r="G72" s="3">
-        <v>-94000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-249000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-91800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>997300</v>
+        <v>988500</v>
       </c>
       <c r="E76" s="3">
-        <v>-278300</v>
+        <v>974200</v>
       </c>
       <c r="F76" s="3">
-        <v>-189900</v>
+        <v>-271800</v>
       </c>
       <c r="G76" s="3">
-        <v>-78100</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-185500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-76200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-88400</v>
+        <v>-180400</v>
       </c>
       <c r="E81" s="3">
-        <v>-82000</v>
+        <v>-86300</v>
       </c>
       <c r="F81" s="3">
-        <v>-170000</v>
+        <v>-80000</v>
       </c>
       <c r="G81" s="3">
-        <v>-81600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-165900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-79600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>92200</v>
+        <v>153600</v>
       </c>
       <c r="E83" s="3">
-        <v>43700</v>
+        <v>89900</v>
       </c>
       <c r="F83" s="3">
-        <v>23200</v>
+        <v>42600</v>
       </c>
       <c r="G83" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>22600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>105800</v>
+        <v>27200</v>
       </c>
       <c r="E89" s="3">
-        <v>66700</v>
+        <v>103200</v>
       </c>
       <c r="F89" s="3">
-        <v>-28500</v>
+        <v>65000</v>
       </c>
       <c r="G89" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-27800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-26900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42100</v>
+        <v>-41400</v>
       </c>
       <c r="E91" s="3">
-        <v>-20800</v>
+        <v>-41100</v>
       </c>
       <c r="F91" s="3">
-        <v>-6100</v>
+        <v>-20300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-5900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3600</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-458600</v>
+        <v>-554000</v>
       </c>
       <c r="E94" s="3">
-        <v>-102800</v>
+        <v>-447400</v>
       </c>
       <c r="F94" s="3">
-        <v>-170400</v>
+        <v>-100200</v>
       </c>
       <c r="G94" s="3">
-        <v>-52500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-166200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-51200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>713800</v>
+        <v>710800</v>
       </c>
       <c r="E100" s="3">
-        <v>96900</v>
+        <v>696300</v>
       </c>
       <c r="F100" s="3">
-        <v>146900</v>
+        <v>94500</v>
       </c>
       <c r="G100" s="3">
-        <v>157700</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>143300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>153800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,26 +3454,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37500</v>
+        <v>15000</v>
       </c>
       <c r="E101" s="3">
-        <v>-6900</v>
+        <v>36600</v>
       </c>
       <c r="F101" s="3">
-        <v>7100</v>
+        <v>-6700</v>
       </c>
       <c r="G101" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>6900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6000</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>398500</v>
+        <v>199100</v>
       </c>
       <c r="E102" s="3">
-        <v>53900</v>
+        <v>388700</v>
       </c>
       <c r="F102" s="3">
-        <v>-44800</v>
+        <v>52600</v>
       </c>
       <c r="G102" s="3">
-        <v>83900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-43700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>81800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>948600</v>
+        <v>984400</v>
       </c>
       <c r="E8" s="3">
-        <v>577900</v>
+        <v>599600</v>
       </c>
       <c r="F8" s="3">
-        <v>345500</v>
+        <v>358500</v>
       </c>
       <c r="G8" s="3">
-        <v>73200</v>
+        <v>76000</v>
       </c>
       <c r="H8" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>782100</v>
+        <v>811500</v>
       </c>
       <c r="E9" s="3">
-        <v>458200</v>
+        <v>475400</v>
       </c>
       <c r="F9" s="3">
-        <v>268600</v>
+        <v>278700</v>
       </c>
       <c r="G9" s="3">
-        <v>108200</v>
+        <v>112200</v>
       </c>
       <c r="H9" s="3">
-        <v>42500</v>
+        <v>44100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>166600</v>
+        <v>172900</v>
       </c>
       <c r="E10" s="3">
-        <v>119700</v>
+        <v>124200</v>
       </c>
       <c r="F10" s="3">
-        <v>76900</v>
+        <v>79800</v>
       </c>
       <c r="G10" s="3">
-        <v>-34900</v>
+        <v>-36200</v>
       </c>
       <c r="H10" s="3">
-        <v>-24200</v>
+        <v>-25100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>125200</v>
+        <v>129900</v>
       </c>
       <c r="E12" s="3">
-        <v>75200</v>
+        <v>78100</v>
       </c>
       <c r="F12" s="3">
-        <v>39200</v>
+        <v>40700</v>
       </c>
       <c r="G12" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="H12" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1157900</v>
+        <v>1201500</v>
       </c>
       <c r="E17" s="3">
-        <v>679900</v>
+        <v>705500</v>
       </c>
       <c r="F17" s="3">
-        <v>376900</v>
+        <v>391100</v>
       </c>
       <c r="G17" s="3">
-        <v>198500</v>
+        <v>205900</v>
       </c>
       <c r="H17" s="3">
-        <v>70000</v>
+        <v>72600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-209300</v>
+        <v>-217100</v>
       </c>
       <c r="E18" s="3">
-        <v>-102000</v>
+        <v>-105900</v>
       </c>
       <c r="F18" s="3">
-        <v>-31400</v>
+        <v>-32600</v>
       </c>
       <c r="G18" s="3">
-        <v>-125200</v>
+        <v>-129900</v>
       </c>
       <c r="H18" s="3">
-        <v>-51600</v>
+        <v>-53600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38400</v>
+        <v>39800</v>
       </c>
       <c r="E20" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="F20" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-17800</v>
+        <v>-18600</v>
       </c>
       <c r="E21" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="F21" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="G21" s="3">
-        <v>-104600</v>
+        <v>-108600</v>
       </c>
       <c r="H21" s="3">
-        <v>-46000</v>
+        <v>-47800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-177400</v>
+        <v>-184100</v>
       </c>
       <c r="E23" s="3">
-        <v>-75400</v>
+        <v>-78300</v>
       </c>
       <c r="F23" s="3">
-        <v>-24500</v>
+        <v>-25400</v>
       </c>
       <c r="G23" s="3">
-        <v>-127100</v>
+        <v>-131900</v>
       </c>
       <c r="H23" s="3">
-        <v>-51900</v>
+        <v>-53900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E24" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="F24" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G24" s="3">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-182400</v>
+        <v>-189300</v>
       </c>
       <c r="E26" s="3">
-        <v>-79100</v>
+        <v>-82100</v>
       </c>
       <c r="F26" s="3">
-        <v>-25700</v>
+        <v>-26700</v>
       </c>
       <c r="G26" s="3">
-        <v>-127600</v>
+        <v>-132400</v>
       </c>
       <c r="H26" s="3">
-        <v>-52300</v>
+        <v>-54200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-180400</v>
+        <v>-187200</v>
       </c>
       <c r="E27" s="3">
-        <v>-86300</v>
+        <v>-89500</v>
       </c>
       <c r="F27" s="3">
-        <v>-80000</v>
+        <v>-83000</v>
       </c>
       <c r="G27" s="3">
-        <v>-165900</v>
+        <v>-172100</v>
       </c>
       <c r="H27" s="3">
-        <v>-79600</v>
+        <v>-82600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38400</v>
+        <v>-39800</v>
       </c>
       <c r="E32" s="3">
-        <v>-26600</v>
+        <v>-27600</v>
       </c>
       <c r="F32" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="G32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-180400</v>
+        <v>-187200</v>
       </c>
       <c r="E33" s="3">
-        <v>-86300</v>
+        <v>-89500</v>
       </c>
       <c r="F33" s="3">
-        <v>-80000</v>
+        <v>-83000</v>
       </c>
       <c r="G33" s="3">
-        <v>-165900</v>
+        <v>-172100</v>
       </c>
       <c r="H33" s="3">
-        <v>-79600</v>
+        <v>-82600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-180400</v>
+        <v>-187200</v>
       </c>
       <c r="E35" s="3">
-        <v>-86300</v>
+        <v>-89500</v>
       </c>
       <c r="F35" s="3">
-        <v>-80000</v>
+        <v>-83000</v>
       </c>
       <c r="G35" s="3">
-        <v>-165900</v>
+        <v>-172100</v>
       </c>
       <c r="H35" s="3">
-        <v>-79600</v>
+        <v>-82600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>695600</v>
+        <v>720700</v>
       </c>
       <c r="E41" s="3">
-        <v>496200</v>
+        <v>514100</v>
       </c>
       <c r="F41" s="3">
-        <v>106900</v>
+        <v>110800</v>
       </c>
       <c r="G41" s="3">
-        <v>54300</v>
+        <v>56200</v>
       </c>
       <c r="H41" s="3">
-        <v>96700</v>
+        <v>100200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>438900</v>
+        <v>454800</v>
       </c>
       <c r="E42" s="3">
-        <v>240400</v>
+        <v>249100</v>
       </c>
       <c r="F42" s="3">
-        <v>70800</v>
+        <v>73400</v>
       </c>
       <c r="G42" s="3">
-        <v>101200</v>
+        <v>104900</v>
       </c>
       <c r="H42" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>153900</v>
+        <v>159500</v>
       </c>
       <c r="E43" s="3">
-        <v>61000</v>
+        <v>63200</v>
       </c>
       <c r="F43" s="3">
-        <v>63800</v>
+        <v>66100</v>
       </c>
       <c r="G43" s="3">
-        <v>18000</v>
+        <v>18700</v>
       </c>
       <c r="H43" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="E44" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="F44" s="3">
         <v>1400</v>
       </c>
       <c r="G44" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>148800</v>
+        <v>154200</v>
       </c>
       <c r="E45" s="3">
-        <v>112800</v>
+        <v>116800</v>
       </c>
       <c r="F45" s="3">
-        <v>58900</v>
+        <v>61000</v>
       </c>
       <c r="G45" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="H45" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1447000</v>
+        <v>1499400</v>
       </c>
       <c r="E46" s="3">
-        <v>918000</v>
+        <v>951300</v>
       </c>
       <c r="F46" s="3">
-        <v>301800</v>
+        <v>312700</v>
       </c>
       <c r="G46" s="3">
-        <v>196300</v>
+        <v>203400</v>
       </c>
       <c r="H46" s="3">
-        <v>119500</v>
+        <v>123800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>175400</v>
+        <v>181700</v>
       </c>
       <c r="E47" s="3">
-        <v>137400</v>
+        <v>142300</v>
       </c>
       <c r="F47" s="3">
-        <v>89100</v>
+        <v>92400</v>
       </c>
       <c r="G47" s="3">
-        <v>52800</v>
+        <v>54800</v>
       </c>
       <c r="H47" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105400</v>
+        <v>109200</v>
       </c>
       <c r="E48" s="3">
-        <v>55300</v>
+        <v>57400</v>
       </c>
       <c r="F48" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="G48" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H48" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>374100</v>
+        <v>387700</v>
       </c>
       <c r="E49" s="3">
-        <v>330900</v>
+        <v>342900</v>
       </c>
       <c r="F49" s="3">
-        <v>66900</v>
+        <v>69300</v>
       </c>
       <c r="G49" s="3">
-        <v>46700</v>
+        <v>48400</v>
       </c>
       <c r="H49" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>72900</v>
+        <v>75600</v>
       </c>
       <c r="E52" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="F52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2174800</v>
+        <v>2253500</v>
       </c>
       <c r="E54" s="3">
-        <v>1470300</v>
+        <v>1523500</v>
       </c>
       <c r="F54" s="3">
-        <v>486800</v>
+        <v>504500</v>
       </c>
       <c r="G54" s="3">
-        <v>303700</v>
+        <v>314700</v>
       </c>
       <c r="H54" s="3">
-        <v>162200</v>
+        <v>168000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>266900</v>
+        <v>276500</v>
       </c>
       <c r="E57" s="3">
-        <v>183300</v>
+        <v>189900</v>
       </c>
       <c r="F57" s="3">
-        <v>83600</v>
+        <v>86600</v>
       </c>
       <c r="G57" s="3">
-        <v>44400</v>
+        <v>46000</v>
       </c>
       <c r="H57" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>332000</v>
+        <v>344000</v>
       </c>
       <c r="E59" s="3">
-        <v>279100</v>
+        <v>289200</v>
       </c>
       <c r="F59" s="3">
-        <v>112300</v>
+        <v>116400</v>
       </c>
       <c r="G59" s="3">
-        <v>43600</v>
+        <v>45200</v>
       </c>
       <c r="H59" s="3">
-        <v>24600</v>
+        <v>25500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>598800</v>
+        <v>620500</v>
       </c>
       <c r="E60" s="3">
-        <v>462400</v>
+        <v>479100</v>
       </c>
       <c r="F60" s="3">
-        <v>195900</v>
+        <v>203000</v>
       </c>
       <c r="G60" s="3">
-        <v>88000</v>
+        <v>91200</v>
       </c>
       <c r="H60" s="3">
-        <v>43200</v>
+        <v>44800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>478600</v>
+        <v>495900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1186300</v>
+        <v>1229200</v>
       </c>
       <c r="E66" s="3">
-        <v>496100</v>
+        <v>514000</v>
       </c>
       <c r="F66" s="3">
-        <v>195900</v>
+        <v>203000</v>
       </c>
       <c r="G66" s="3">
-        <v>88100</v>
+        <v>91300</v>
       </c>
       <c r="H66" s="3">
-        <v>43000</v>
+        <v>44500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>562700</v>
+        <v>583100</v>
       </c>
       <c r="G70" s="3">
-        <v>401100</v>
+        <v>415600</v>
       </c>
       <c r="H70" s="3">
-        <v>195400</v>
+        <v>202500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-579200</v>
+        <v>-600100</v>
       </c>
       <c r="E72" s="3">
-        <v>-397400</v>
+        <v>-411700</v>
       </c>
       <c r="F72" s="3">
-        <v>-311000</v>
+        <v>-322200</v>
       </c>
       <c r="G72" s="3">
-        <v>-249000</v>
+        <v>-258000</v>
       </c>
       <c r="H72" s="3">
-        <v>-91800</v>
+        <v>-95200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>988500</v>
+        <v>1024200</v>
       </c>
       <c r="E76" s="3">
-        <v>974200</v>
+        <v>1009500</v>
       </c>
       <c r="F76" s="3">
-        <v>-271800</v>
+        <v>-281700</v>
       </c>
       <c r="G76" s="3">
-        <v>-185500</v>
+        <v>-192200</v>
       </c>
       <c r="H76" s="3">
-        <v>-76200</v>
+        <v>-79000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-180400</v>
+        <v>-187200</v>
       </c>
       <c r="E81" s="3">
-        <v>-86300</v>
+        <v>-89500</v>
       </c>
       <c r="F81" s="3">
-        <v>-80000</v>
+        <v>-83000</v>
       </c>
       <c r="G81" s="3">
-        <v>-165900</v>
+        <v>-172100</v>
       </c>
       <c r="H81" s="3">
-        <v>-79600</v>
+        <v>-82600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>153600</v>
+        <v>159400</v>
       </c>
       <c r="E83" s="3">
-        <v>89900</v>
+        <v>93300</v>
       </c>
       <c r="F83" s="3">
-        <v>42600</v>
+        <v>44200</v>
       </c>
       <c r="G83" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="H83" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27200</v>
+        <v>28300</v>
       </c>
       <c r="E89" s="3">
-        <v>103200</v>
+        <v>107100</v>
       </c>
       <c r="F89" s="3">
-        <v>65000</v>
+        <v>67500</v>
       </c>
       <c r="G89" s="3">
-        <v>-27800</v>
+        <v>-28900</v>
       </c>
       <c r="H89" s="3">
-        <v>-26900</v>
+        <v>-27900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41400</v>
+        <v>-43000</v>
       </c>
       <c r="E91" s="3">
-        <v>-41100</v>
+        <v>-42600</v>
       </c>
       <c r="F91" s="3">
-        <v>-20300</v>
+        <v>-21000</v>
       </c>
       <c r="G91" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-554000</v>
+        <v>-574900</v>
       </c>
       <c r="E94" s="3">
-        <v>-447400</v>
+        <v>-464200</v>
       </c>
       <c r="F94" s="3">
-        <v>-100200</v>
+        <v>-104000</v>
       </c>
       <c r="G94" s="3">
-        <v>-166200</v>
+        <v>-172400</v>
       </c>
       <c r="H94" s="3">
-        <v>-51200</v>
+        <v>-53100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>710800</v>
+        <v>737600</v>
       </c>
       <c r="E100" s="3">
-        <v>696300</v>
+        <v>722500</v>
       </c>
       <c r="F100" s="3">
-        <v>94500</v>
+        <v>98100</v>
       </c>
       <c r="G100" s="3">
-        <v>143300</v>
+        <v>148700</v>
       </c>
       <c r="H100" s="3">
-        <v>153800</v>
+        <v>159600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="E101" s="3">
-        <v>36600</v>
+        <v>38000</v>
       </c>
       <c r="F101" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="G101" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="H101" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>199100</v>
+        <v>206600</v>
       </c>
       <c r="E102" s="3">
-        <v>388700</v>
+        <v>403300</v>
       </c>
       <c r="F102" s="3">
-        <v>52600</v>
+        <v>54600</v>
       </c>
       <c r="G102" s="3">
-        <v>-43700</v>
+        <v>-45400</v>
       </c>
       <c r="H102" s="3">
-        <v>81800</v>
+        <v>84900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>984400</v>
+        <v>1031100</v>
       </c>
       <c r="E8" s="3">
-        <v>599600</v>
+        <v>628100</v>
       </c>
       <c r="F8" s="3">
-        <v>358500</v>
+        <v>375500</v>
       </c>
       <c r="G8" s="3">
-        <v>76000</v>
+        <v>79600</v>
       </c>
       <c r="H8" s="3">
-        <v>19000</v>
+        <v>19900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>811500</v>
+        <v>850000</v>
       </c>
       <c r="E9" s="3">
-        <v>475400</v>
+        <v>498000</v>
       </c>
       <c r="F9" s="3">
-        <v>278700</v>
+        <v>292000</v>
       </c>
       <c r="G9" s="3">
-        <v>112200</v>
+        <v>117600</v>
       </c>
       <c r="H9" s="3">
-        <v>44100</v>
+        <v>46200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>172900</v>
+        <v>181100</v>
       </c>
       <c r="E10" s="3">
-        <v>124200</v>
+        <v>130100</v>
       </c>
       <c r="F10" s="3">
-        <v>79800</v>
+        <v>83500</v>
       </c>
       <c r="G10" s="3">
-        <v>-36200</v>
+        <v>-38000</v>
       </c>
       <c r="H10" s="3">
-        <v>-25100</v>
+        <v>-26300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>129900</v>
+        <v>136100</v>
       </c>
       <c r="E12" s="3">
-        <v>78100</v>
+        <v>81800</v>
       </c>
       <c r="F12" s="3">
-        <v>40700</v>
+        <v>42600</v>
       </c>
       <c r="G12" s="3">
-        <v>13200</v>
+        <v>13900</v>
       </c>
       <c r="H12" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1201500</v>
+        <v>1258500</v>
       </c>
       <c r="E17" s="3">
-        <v>705500</v>
+        <v>739000</v>
       </c>
       <c r="F17" s="3">
-        <v>391100</v>
+        <v>409600</v>
       </c>
       <c r="G17" s="3">
-        <v>205900</v>
+        <v>215700</v>
       </c>
       <c r="H17" s="3">
-        <v>72600</v>
+        <v>76000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-217100</v>
+        <v>-227400</v>
       </c>
       <c r="E18" s="3">
-        <v>-105900</v>
+        <v>-110900</v>
       </c>
       <c r="F18" s="3">
-        <v>-32600</v>
+        <v>-34100</v>
       </c>
       <c r="G18" s="3">
-        <v>-129900</v>
+        <v>-136100</v>
       </c>
       <c r="H18" s="3">
-        <v>-53600</v>
+        <v>-56100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39800</v>
+        <v>41700</v>
       </c>
       <c r="E20" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="F20" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-18600</v>
+        <v>-18800</v>
       </c>
       <c r="E21" s="3">
-        <v>14700</v>
+        <v>15700</v>
       </c>
       <c r="F21" s="3">
-        <v>18600</v>
+        <v>19700</v>
       </c>
       <c r="G21" s="3">
-        <v>-108600</v>
+        <v>-113600</v>
       </c>
       <c r="H21" s="3">
-        <v>-47800</v>
+        <v>-50000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-184100</v>
+        <v>-192800</v>
       </c>
       <c r="E23" s="3">
-        <v>-78300</v>
+        <v>-82000</v>
       </c>
       <c r="F23" s="3">
-        <v>-25400</v>
+        <v>-26600</v>
       </c>
       <c r="G23" s="3">
-        <v>-131900</v>
+        <v>-138200</v>
       </c>
       <c r="H23" s="3">
-        <v>-53900</v>
+        <v>-56400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,13 +1189,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="E24" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="F24" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G24" s="3">
         <v>500</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-189300</v>
+        <v>-198300</v>
       </c>
       <c r="E26" s="3">
-        <v>-82100</v>
+        <v>-86000</v>
       </c>
       <c r="F26" s="3">
-        <v>-26700</v>
+        <v>-28000</v>
       </c>
       <c r="G26" s="3">
-        <v>-132400</v>
+        <v>-138700</v>
       </c>
       <c r="H26" s="3">
-        <v>-54200</v>
+        <v>-56800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-187200</v>
+        <v>-196100</v>
       </c>
       <c r="E27" s="3">
-        <v>-89500</v>
+        <v>-93800</v>
       </c>
       <c r="F27" s="3">
-        <v>-83000</v>
+        <v>-86900</v>
       </c>
       <c r="G27" s="3">
-        <v>-172100</v>
+        <v>-180300</v>
       </c>
       <c r="H27" s="3">
-        <v>-82600</v>
+        <v>-86600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39800</v>
+        <v>-41700</v>
       </c>
       <c r="E32" s="3">
-        <v>-27600</v>
+        <v>-28900</v>
       </c>
       <c r="F32" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="G32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-187200</v>
+        <v>-196100</v>
       </c>
       <c r="E33" s="3">
-        <v>-89500</v>
+        <v>-93800</v>
       </c>
       <c r="F33" s="3">
-        <v>-83000</v>
+        <v>-86900</v>
       </c>
       <c r="G33" s="3">
-        <v>-172100</v>
+        <v>-180300</v>
       </c>
       <c r="H33" s="3">
-        <v>-82600</v>
+        <v>-86600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-187200</v>
+        <v>-196100</v>
       </c>
       <c r="E35" s="3">
-        <v>-89500</v>
+        <v>-93800</v>
       </c>
       <c r="F35" s="3">
-        <v>-83000</v>
+        <v>-86900</v>
       </c>
       <c r="G35" s="3">
-        <v>-172100</v>
+        <v>-180300</v>
       </c>
       <c r="H35" s="3">
-        <v>-82600</v>
+        <v>-86600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>720700</v>
+        <v>754900</v>
       </c>
       <c r="E41" s="3">
-        <v>514100</v>
+        <v>538500</v>
       </c>
       <c r="F41" s="3">
-        <v>110800</v>
+        <v>116000</v>
       </c>
       <c r="G41" s="3">
-        <v>56200</v>
+        <v>58900</v>
       </c>
       <c r="H41" s="3">
-        <v>100200</v>
+        <v>104900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>454800</v>
+        <v>476400</v>
       </c>
       <c r="E42" s="3">
-        <v>249100</v>
+        <v>260900</v>
       </c>
       <c r="F42" s="3">
-        <v>73400</v>
+        <v>76900</v>
       </c>
       <c r="G42" s="3">
-        <v>104900</v>
+        <v>109800</v>
       </c>
       <c r="H42" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>159500</v>
+        <v>167100</v>
       </c>
       <c r="E43" s="3">
-        <v>63200</v>
+        <v>66200</v>
       </c>
       <c r="F43" s="3">
-        <v>66100</v>
+        <v>69200</v>
       </c>
       <c r="G43" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="H43" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="E44" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="F44" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G44" s="3">
         <v>1000</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>154200</v>
+        <v>161500</v>
       </c>
       <c r="E45" s="3">
-        <v>116800</v>
+        <v>122400</v>
       </c>
       <c r="F45" s="3">
-        <v>61000</v>
+        <v>63900</v>
       </c>
       <c r="G45" s="3">
-        <v>22700</v>
+        <v>23800</v>
       </c>
       <c r="H45" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1499400</v>
+        <v>1570500</v>
       </c>
       <c r="E46" s="3">
-        <v>951300</v>
+        <v>996400</v>
       </c>
       <c r="F46" s="3">
-        <v>312700</v>
+        <v>327500</v>
       </c>
       <c r="G46" s="3">
-        <v>203400</v>
+        <v>213100</v>
       </c>
       <c r="H46" s="3">
-        <v>123800</v>
+        <v>129700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>181700</v>
+        <v>190300</v>
       </c>
       <c r="E47" s="3">
-        <v>142300</v>
+        <v>149100</v>
       </c>
       <c r="F47" s="3">
-        <v>92400</v>
+        <v>96700</v>
       </c>
       <c r="G47" s="3">
-        <v>54800</v>
+        <v>57400</v>
       </c>
       <c r="H47" s="3">
-        <v>23300</v>
+        <v>24400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>109200</v>
+        <v>114400</v>
       </c>
       <c r="E48" s="3">
-        <v>57400</v>
+        <v>60100</v>
       </c>
       <c r="F48" s="3">
-        <v>27100</v>
+        <v>28400</v>
       </c>
       <c r="G48" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="H48" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>387700</v>
+        <v>406100</v>
       </c>
       <c r="E49" s="3">
-        <v>342900</v>
+        <v>359100</v>
       </c>
       <c r="F49" s="3">
-        <v>69300</v>
+        <v>72600</v>
       </c>
       <c r="G49" s="3">
-        <v>48400</v>
+        <v>50700</v>
       </c>
       <c r="H49" s="3">
-        <v>15900</v>
+        <v>16700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>75600</v>
+        <v>79100</v>
       </c>
       <c r="E52" s="3">
-        <v>29700</v>
+        <v>31100</v>
       </c>
       <c r="F52" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2253500</v>
+        <v>2360400</v>
       </c>
       <c r="E54" s="3">
-        <v>1523500</v>
+        <v>1595700</v>
       </c>
       <c r="F54" s="3">
-        <v>504500</v>
+        <v>528400</v>
       </c>
       <c r="G54" s="3">
-        <v>314700</v>
+        <v>329600</v>
       </c>
       <c r="H54" s="3">
-        <v>168000</v>
+        <v>176000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>276500</v>
+        <v>289600</v>
       </c>
       <c r="E57" s="3">
-        <v>189900</v>
+        <v>198900</v>
       </c>
       <c r="F57" s="3">
-        <v>86600</v>
+        <v>90700</v>
       </c>
       <c r="G57" s="3">
-        <v>46000</v>
+        <v>48200</v>
       </c>
       <c r="H57" s="3">
-        <v>17800</v>
+        <v>18700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>344000</v>
+        <v>360300</v>
       </c>
       <c r="E59" s="3">
-        <v>289200</v>
+        <v>302900</v>
       </c>
       <c r="F59" s="3">
-        <v>116400</v>
+        <v>121900</v>
       </c>
       <c r="G59" s="3">
-        <v>45200</v>
+        <v>47300</v>
       </c>
       <c r="H59" s="3">
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>620500</v>
+        <v>649900</v>
       </c>
       <c r="E60" s="3">
-        <v>479100</v>
+        <v>501800</v>
       </c>
       <c r="F60" s="3">
-        <v>203000</v>
+        <v>212700</v>
       </c>
       <c r="G60" s="3">
-        <v>91200</v>
+        <v>95500</v>
       </c>
       <c r="H60" s="3">
-        <v>44800</v>
+        <v>46900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>495900</v>
+        <v>519400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28000</v>
+        <v>29300</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1229200</v>
+        <v>1287600</v>
       </c>
       <c r="E66" s="3">
-        <v>514000</v>
+        <v>538400</v>
       </c>
       <c r="F66" s="3">
-        <v>203000</v>
+        <v>212700</v>
       </c>
       <c r="G66" s="3">
-        <v>91300</v>
+        <v>95600</v>
       </c>
       <c r="H66" s="3">
-        <v>44500</v>
+        <v>46600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>583100</v>
+        <v>610800</v>
       </c>
       <c r="G70" s="3">
-        <v>415600</v>
+        <v>435300</v>
       </c>
       <c r="H70" s="3">
-        <v>202500</v>
+        <v>212100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-600100</v>
+        <v>-628600</v>
       </c>
       <c r="E72" s="3">
-        <v>-411700</v>
+        <v>-431300</v>
       </c>
       <c r="F72" s="3">
-        <v>-322200</v>
+        <v>-337500</v>
       </c>
       <c r="G72" s="3">
-        <v>-258000</v>
+        <v>-270200</v>
       </c>
       <c r="H72" s="3">
-        <v>-95200</v>
+        <v>-99700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1024200</v>
+        <v>1072800</v>
       </c>
       <c r="E76" s="3">
-        <v>1009500</v>
+        <v>1057400</v>
       </c>
       <c r="F76" s="3">
-        <v>-281700</v>
+        <v>-295100</v>
       </c>
       <c r="G76" s="3">
-        <v>-192200</v>
+        <v>-201300</v>
       </c>
       <c r="H76" s="3">
-        <v>-79000</v>
+        <v>-82700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-187200</v>
+        <v>-196100</v>
       </c>
       <c r="E81" s="3">
-        <v>-89500</v>
+        <v>-93800</v>
       </c>
       <c r="F81" s="3">
-        <v>-83000</v>
+        <v>-86900</v>
       </c>
       <c r="G81" s="3">
-        <v>-172100</v>
+        <v>-180300</v>
       </c>
       <c r="H81" s="3">
-        <v>-82600</v>
+        <v>-86600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>159400</v>
+        <v>166900</v>
       </c>
       <c r="E83" s="3">
-        <v>93300</v>
+        <v>97700</v>
       </c>
       <c r="F83" s="3">
-        <v>44200</v>
+        <v>46300</v>
       </c>
       <c r="G83" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="H83" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28300</v>
+        <v>29600</v>
       </c>
       <c r="E89" s="3">
-        <v>107100</v>
+        <v>112200</v>
       </c>
       <c r="F89" s="3">
-        <v>67500</v>
+        <v>70700</v>
       </c>
       <c r="G89" s="3">
-        <v>-28900</v>
+        <v>-30300</v>
       </c>
       <c r="H89" s="3">
-        <v>-27900</v>
+        <v>-29200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43000</v>
+        <v>-45000</v>
       </c>
       <c r="E91" s="3">
-        <v>-42600</v>
+        <v>-44700</v>
       </c>
       <c r="F91" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="G91" s="3">
-        <v>-6100</v>
+        <v>-6400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-574900</v>
+        <v>-602100</v>
       </c>
       <c r="E94" s="3">
-        <v>-464200</v>
+        <v>-486200</v>
       </c>
       <c r="F94" s="3">
-        <v>-104000</v>
+        <v>-109000</v>
       </c>
       <c r="G94" s="3">
-        <v>-172400</v>
+        <v>-180600</v>
       </c>
       <c r="H94" s="3">
-        <v>-53100</v>
+        <v>-55600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>737600</v>
+        <v>772600</v>
       </c>
       <c r="E100" s="3">
-        <v>722500</v>
+        <v>756800</v>
       </c>
       <c r="F100" s="3">
-        <v>98100</v>
+        <v>102800</v>
       </c>
       <c r="G100" s="3">
-        <v>148700</v>
+        <v>155800</v>
       </c>
       <c r="H100" s="3">
-        <v>159600</v>
+        <v>167200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15600</v>
+        <v>16400</v>
       </c>
       <c r="E101" s="3">
-        <v>38000</v>
+        <v>39800</v>
       </c>
       <c r="F101" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="G101" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="H101" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>206600</v>
+        <v>216400</v>
       </c>
       <c r="E102" s="3">
-        <v>403300</v>
+        <v>422500</v>
       </c>
       <c r="F102" s="3">
-        <v>54600</v>
+        <v>57100</v>
       </c>
       <c r="G102" s="3">
-        <v>-45400</v>
+        <v>-47500</v>
       </c>
       <c r="H102" s="3">
-        <v>84900</v>
+        <v>88900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1031100</v>
+        <v>1833200</v>
       </c>
       <c r="E8" s="3">
-        <v>628100</v>
+        <v>1035500</v>
       </c>
       <c r="F8" s="3">
-        <v>375500</v>
+        <v>630800</v>
       </c>
       <c r="G8" s="3">
-        <v>79600</v>
+        <v>377100</v>
       </c>
       <c r="H8" s="3">
-        <v>19900</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>80000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>20000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>850000</v>
+        <v>1399300</v>
       </c>
       <c r="E9" s="3">
-        <v>498000</v>
+        <v>853700</v>
       </c>
       <c r="F9" s="3">
-        <v>292000</v>
+        <v>500100</v>
       </c>
       <c r="G9" s="3">
-        <v>117600</v>
+        <v>293200</v>
       </c>
       <c r="H9" s="3">
-        <v>46200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>118100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>46400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>181100</v>
+        <v>433900</v>
       </c>
       <c r="E10" s="3">
-        <v>130100</v>
+        <v>181800</v>
       </c>
       <c r="F10" s="3">
-        <v>83500</v>
+        <v>130700</v>
       </c>
       <c r="G10" s="3">
-        <v>-38000</v>
+        <v>83900</v>
       </c>
       <c r="H10" s="3">
-        <v>-26300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>-38100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-26400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,29 +838,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>136100</v>
+        <v>231200</v>
       </c>
       <c r="E12" s="3">
-        <v>81800</v>
+        <v>136600</v>
       </c>
       <c r="F12" s="3">
-        <v>42600</v>
+        <v>82100</v>
       </c>
       <c r="G12" s="3">
+        <v>42800</v>
+      </c>
+      <c r="H12" s="3">
         <v>13900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3800</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1258500</v>
+        <v>2313100</v>
       </c>
       <c r="E17" s="3">
-        <v>739000</v>
+        <v>1264000</v>
       </c>
       <c r="F17" s="3">
-        <v>409600</v>
+        <v>742200</v>
       </c>
       <c r="G17" s="3">
-        <v>215700</v>
+        <v>411400</v>
       </c>
       <c r="H17" s="3">
-        <v>76000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>216600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>76400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-227400</v>
+        <v>-479900</v>
       </c>
       <c r="E18" s="3">
-        <v>-110900</v>
+        <v>-228400</v>
       </c>
       <c r="F18" s="3">
-        <v>-34100</v>
+        <v>-111400</v>
       </c>
       <c r="G18" s="3">
-        <v>-136100</v>
+        <v>-34300</v>
       </c>
       <c r="H18" s="3">
-        <v>-56100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-136700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-56400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,29 +1083,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>41700</v>
+        <v>38000</v>
       </c>
       <c r="E20" s="3">
-        <v>28900</v>
+        <v>41900</v>
       </c>
       <c r="F20" s="3">
+        <v>29000</v>
+      </c>
+      <c r="G20" s="3">
         <v>7500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-18800</v>
+        <v>-177900</v>
       </c>
       <c r="E21" s="3">
-        <v>15700</v>
+        <v>-18300</v>
       </c>
       <c r="F21" s="3">
-        <v>19700</v>
+        <v>16100</v>
       </c>
       <c r="G21" s="3">
-        <v>-113600</v>
+        <v>19900</v>
       </c>
       <c r="H21" s="3">
-        <v>-50000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-114000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-50200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,18 +1152,21 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E22" s="3">
         <v>7100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,35 +1182,38 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-192800</v>
+        <v>-458400</v>
       </c>
       <c r="E23" s="3">
-        <v>-82000</v>
+        <v>-193700</v>
       </c>
       <c r="F23" s="3">
-        <v>-26600</v>
+        <v>-82400</v>
       </c>
       <c r="G23" s="3">
-        <v>-138200</v>
+        <v>-26700</v>
       </c>
       <c r="H23" s="3">
-        <v>-56400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-138800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-56700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,30 +1224,33 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-198300</v>
+        <v>-466600</v>
       </c>
       <c r="E26" s="3">
-        <v>-86000</v>
+        <v>-199200</v>
       </c>
       <c r="F26" s="3">
-        <v>-28000</v>
+        <v>-86300</v>
       </c>
       <c r="G26" s="3">
-        <v>-138700</v>
+        <v>-28100</v>
       </c>
       <c r="H26" s="3">
-        <v>-56800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-139300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-57100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,30 +1332,33 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-196100</v>
+        <v>-460100</v>
       </c>
       <c r="E27" s="3">
-        <v>-93800</v>
+        <v>-196900</v>
       </c>
       <c r="F27" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-181100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-86900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-180300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-86600</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,30 +1512,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41700</v>
+        <v>-38000</v>
       </c>
       <c r="E32" s="3">
-        <v>-28900</v>
+        <v>-41900</v>
       </c>
       <c r="F32" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-7500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,30 +1548,33 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-196100</v>
+        <v>-460100</v>
       </c>
       <c r="E33" s="3">
-        <v>-93800</v>
+        <v>-196900</v>
       </c>
       <c r="F33" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-181100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-86900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-180300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-86600</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,30 +1620,33 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-196100</v>
+        <v>-460100</v>
       </c>
       <c r="E35" s="3">
-        <v>-93800</v>
+        <v>-196900</v>
       </c>
       <c r="F35" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-181100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-86900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-180300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-86600</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>754900</v>
+        <v>714700</v>
       </c>
       <c r="E41" s="3">
-        <v>538500</v>
+        <v>758200</v>
       </c>
       <c r="F41" s="3">
-        <v>116000</v>
+        <v>540800</v>
       </c>
       <c r="G41" s="3">
-        <v>58900</v>
+        <v>116600</v>
       </c>
       <c r="H41" s="3">
-        <v>104900</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>59200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>105400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,29 +1765,32 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>476400</v>
+        <v>1241900</v>
       </c>
       <c r="E42" s="3">
-        <v>260900</v>
+        <v>478500</v>
       </c>
       <c r="F42" s="3">
-        <v>76900</v>
+        <v>262000</v>
       </c>
       <c r="G42" s="3">
-        <v>109800</v>
+        <v>77200</v>
       </c>
       <c r="H42" s="3">
-        <v>8500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>110300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>8600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1712,30 +1801,33 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>167100</v>
+        <v>215800</v>
       </c>
       <c r="E43" s="3">
-        <v>66200</v>
+        <v>167800</v>
       </c>
       <c r="F43" s="3">
-        <v>69200</v>
+        <v>66500</v>
       </c>
       <c r="G43" s="3">
-        <v>19600</v>
+        <v>69500</v>
       </c>
       <c r="H43" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I43" s="3">
         <v>4400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,30 +1837,33 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10600</v>
+        <v>24400</v>
       </c>
       <c r="E44" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F44" s="3">
         <v>8400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,29 +1873,32 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>161500</v>
+        <v>207800</v>
       </c>
       <c r="E45" s="3">
-        <v>122400</v>
+        <v>162200</v>
       </c>
       <c r="F45" s="3">
-        <v>63900</v>
+        <v>122900</v>
       </c>
       <c r="G45" s="3">
-        <v>23800</v>
+        <v>64200</v>
       </c>
       <c r="H45" s="3">
-        <v>11700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>23900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1570500</v>
+        <v>2404700</v>
       </c>
       <c r="E46" s="3">
-        <v>996400</v>
+        <v>1577300</v>
       </c>
       <c r="F46" s="3">
-        <v>327500</v>
+        <v>1000700</v>
       </c>
       <c r="G46" s="3">
-        <v>213100</v>
+        <v>329000</v>
       </c>
       <c r="H46" s="3">
-        <v>129700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>214000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>130300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>190300</v>
+        <v>341100</v>
       </c>
       <c r="E47" s="3">
-        <v>149100</v>
+        <v>191100</v>
       </c>
       <c r="F47" s="3">
-        <v>96700</v>
+        <v>149700</v>
       </c>
       <c r="G47" s="3">
-        <v>57400</v>
+        <v>97200</v>
       </c>
       <c r="H47" s="3">
-        <v>24400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>57600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>24500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1877,30 +1981,33 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>114400</v>
+        <v>116400</v>
       </c>
       <c r="E48" s="3">
-        <v>60100</v>
+        <v>114900</v>
       </c>
       <c r="F48" s="3">
-        <v>28400</v>
+        <v>60300</v>
       </c>
       <c r="G48" s="3">
+        <v>28500</v>
+      </c>
+      <c r="H48" s="3">
         <v>7800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,30 +2017,33 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>406100</v>
+        <v>558100</v>
       </c>
       <c r="E49" s="3">
-        <v>359100</v>
+        <v>407800</v>
       </c>
       <c r="F49" s="3">
-        <v>72600</v>
+        <v>360700</v>
       </c>
       <c r="G49" s="3">
-        <v>50700</v>
+        <v>72900</v>
       </c>
       <c r="H49" s="3">
+        <v>50900</v>
+      </c>
+      <c r="I49" s="3">
         <v>16700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79100</v>
+        <v>225900</v>
       </c>
       <c r="E52" s="3">
-        <v>31100</v>
+        <v>79500</v>
       </c>
       <c r="F52" s="3">
+        <v>31200</v>
+      </c>
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2360400</v>
+        <v>3646200</v>
       </c>
       <c r="E54" s="3">
-        <v>1595700</v>
+        <v>2370600</v>
       </c>
       <c r="F54" s="3">
-        <v>528400</v>
+        <v>1602700</v>
       </c>
       <c r="G54" s="3">
-        <v>329600</v>
+        <v>530700</v>
       </c>
       <c r="H54" s="3">
-        <v>176000</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>331000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>176800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>289600</v>
+        <v>469700</v>
       </c>
       <c r="E57" s="3">
-        <v>198900</v>
+        <v>290900</v>
       </c>
       <c r="F57" s="3">
-        <v>90700</v>
+        <v>199800</v>
       </c>
       <c r="G57" s="3">
-        <v>48200</v>
+        <v>91100</v>
       </c>
       <c r="H57" s="3">
-        <v>18700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>48400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>18800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2171,30 +2301,33 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>15300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,29 +2337,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>360300</v>
+        <v>644300</v>
       </c>
       <c r="E59" s="3">
-        <v>302900</v>
+        <v>361900</v>
       </c>
       <c r="F59" s="3">
-        <v>121900</v>
+        <v>304200</v>
       </c>
       <c r="G59" s="3">
-        <v>47300</v>
+        <v>122500</v>
       </c>
       <c r="H59" s="3">
-        <v>26700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>47600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>26800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>649900</v>
+        <v>1129300</v>
       </c>
       <c r="E60" s="3">
-        <v>501800</v>
+        <v>652800</v>
       </c>
       <c r="F60" s="3">
-        <v>212700</v>
+        <v>504000</v>
       </c>
       <c r="G60" s="3">
-        <v>95500</v>
+        <v>213600</v>
       </c>
       <c r="H60" s="3">
-        <v>46900</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>96000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>47100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,17 +2409,20 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>519400</v>
+        <v>1274300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>521700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2303,17 +2445,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29300</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>53600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>29500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2330,15 +2475,18 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1287600</v>
+        <v>2485000</v>
       </c>
       <c r="E66" s="3">
-        <v>538400</v>
+        <v>1293100</v>
       </c>
       <c r="F66" s="3">
-        <v>212700</v>
+        <v>540700</v>
       </c>
       <c r="G66" s="3">
-        <v>95600</v>
+        <v>213600</v>
       </c>
       <c r="H66" s="3">
-        <v>46600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>96000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>46800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>610800</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>435300</v>
+        <v>613400</v>
       </c>
       <c r="H70" s="3">
-        <v>212100</v>
+        <v>437200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>213000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-628600</v>
+        <v>-1093500</v>
       </c>
       <c r="E72" s="3">
-        <v>-431300</v>
+        <v>-631300</v>
       </c>
       <c r="F72" s="3">
-        <v>-337500</v>
+        <v>-433100</v>
       </c>
       <c r="G72" s="3">
-        <v>-270200</v>
+        <v>-339000</v>
       </c>
       <c r="H72" s="3">
-        <v>-99700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-271400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-100100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1072800</v>
+        <v>1161200</v>
       </c>
       <c r="E76" s="3">
-        <v>1057400</v>
+        <v>1077500</v>
       </c>
       <c r="F76" s="3">
-        <v>-295100</v>
+        <v>1061900</v>
       </c>
       <c r="G76" s="3">
-        <v>-201300</v>
+        <v>-296300</v>
       </c>
       <c r="H76" s="3">
-        <v>-82700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-202200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-83100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,30 +3042,33 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-196100</v>
+        <v>-460100</v>
       </c>
       <c r="E81" s="3">
-        <v>-93800</v>
+        <v>-196900</v>
       </c>
       <c r="F81" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-181100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-86900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-180300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-86600</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>166900</v>
+        <v>263000</v>
       </c>
       <c r="E83" s="3">
-        <v>97700</v>
+        <v>167700</v>
       </c>
       <c r="F83" s="3">
-        <v>46300</v>
+        <v>98200</v>
       </c>
       <c r="G83" s="3">
-        <v>24600</v>
+        <v>46500</v>
       </c>
       <c r="H83" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>24700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>6500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29600</v>
+        <v>115100</v>
       </c>
       <c r="E89" s="3">
-        <v>112200</v>
+        <v>29700</v>
       </c>
       <c r="F89" s="3">
-        <v>70700</v>
+        <v>112600</v>
       </c>
       <c r="G89" s="3">
-        <v>-30300</v>
+        <v>71000</v>
       </c>
       <c r="H89" s="3">
-        <v>-29200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-30400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-29300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,29 +3365,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-45000</v>
+        <v>-92000</v>
       </c>
       <c r="E91" s="3">
-        <v>-44700</v>
+        <v>-45200</v>
       </c>
       <c r="F91" s="3">
-        <v>-22000</v>
+        <v>-44900</v>
       </c>
       <c r="G91" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-602100</v>
+        <v>-1360800</v>
       </c>
       <c r="E94" s="3">
-        <v>-486200</v>
+        <v>-604700</v>
       </c>
       <c r="F94" s="3">
-        <v>-109000</v>
+        <v>-488300</v>
       </c>
       <c r="G94" s="3">
-        <v>-180600</v>
+        <v>-109400</v>
       </c>
       <c r="H94" s="3">
-        <v>-55600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-181400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-55800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>772600</v>
+        <v>1273500</v>
       </c>
       <c r="E100" s="3">
-        <v>756800</v>
+        <v>775900</v>
       </c>
       <c r="F100" s="3">
-        <v>102800</v>
+        <v>760100</v>
       </c>
       <c r="G100" s="3">
-        <v>155800</v>
+        <v>103200</v>
       </c>
       <c r="H100" s="3">
-        <v>167200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>156500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>167900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,29 +3702,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="E101" s="3">
         <v>16400</v>
       </c>
-      <c r="E101" s="3">
-        <v>39800</v>
-      </c>
       <c r="F101" s="3">
-        <v>-7300</v>
+        <v>39900</v>
       </c>
       <c r="G101" s="3">
-        <v>7500</v>
+        <v>-7400</v>
       </c>
       <c r="H101" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>6600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>216400</v>
+        <v>-43500</v>
       </c>
       <c r="E102" s="3">
-        <v>422500</v>
+        <v>217300</v>
       </c>
       <c r="F102" s="3">
-        <v>57100</v>
+        <v>424300</v>
       </c>
       <c r="G102" s="3">
-        <v>-47500</v>
+        <v>57400</v>
       </c>
       <c r="H102" s="3">
-        <v>88900</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>-47800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>89300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1833200</v>
+        <v>1872000</v>
       </c>
       <c r="E8" s="3">
-        <v>1035500</v>
+        <v>1057400</v>
       </c>
       <c r="F8" s="3">
-        <v>630800</v>
+        <v>644200</v>
       </c>
       <c r="G8" s="3">
-        <v>377100</v>
+        <v>385100</v>
       </c>
       <c r="H8" s="3">
-        <v>80000</v>
+        <v>81600</v>
       </c>
       <c r="I8" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1399300</v>
+        <v>1428900</v>
       </c>
       <c r="E9" s="3">
-        <v>853700</v>
+        <v>871700</v>
       </c>
       <c r="F9" s="3">
-        <v>500100</v>
+        <v>510700</v>
       </c>
       <c r="G9" s="3">
-        <v>293200</v>
+        <v>299400</v>
       </c>
       <c r="H9" s="3">
-        <v>118100</v>
+        <v>120600</v>
       </c>
       <c r="I9" s="3">
-        <v>46400</v>
+        <v>47400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>433900</v>
+        <v>443100</v>
       </c>
       <c r="E10" s="3">
-        <v>181800</v>
+        <v>185700</v>
       </c>
       <c r="F10" s="3">
-        <v>130700</v>
+        <v>133500</v>
       </c>
       <c r="G10" s="3">
-        <v>83900</v>
+        <v>85700</v>
       </c>
       <c r="H10" s="3">
-        <v>-38100</v>
+        <v>-38900</v>
       </c>
       <c r="I10" s="3">
-        <v>-26400</v>
+        <v>-26900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>231200</v>
+        <v>236000</v>
       </c>
       <c r="E12" s="3">
-        <v>136600</v>
+        <v>139500</v>
       </c>
       <c r="F12" s="3">
-        <v>82100</v>
+        <v>83900</v>
       </c>
       <c r="G12" s="3">
-        <v>42800</v>
+        <v>43700</v>
       </c>
       <c r="H12" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="I12" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2313100</v>
+        <v>2362000</v>
       </c>
       <c r="E17" s="3">
-        <v>1264000</v>
+        <v>1290700</v>
       </c>
       <c r="F17" s="3">
-        <v>742200</v>
+        <v>757900</v>
       </c>
       <c r="G17" s="3">
-        <v>411400</v>
+        <v>420100</v>
       </c>
       <c r="H17" s="3">
-        <v>216600</v>
+        <v>221200</v>
       </c>
       <c r="I17" s="3">
-        <v>76400</v>
+        <v>78000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-479900</v>
+        <v>-490000</v>
       </c>
       <c r="E18" s="3">
-        <v>-228400</v>
+        <v>-233300</v>
       </c>
       <c r="F18" s="3">
-        <v>-111400</v>
+        <v>-113700</v>
       </c>
       <c r="G18" s="3">
-        <v>-34300</v>
+        <v>-35000</v>
       </c>
       <c r="H18" s="3">
-        <v>-136700</v>
+        <v>-139600</v>
       </c>
       <c r="I18" s="3">
-        <v>-56400</v>
+        <v>-57500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38000</v>
+        <v>38800</v>
       </c>
       <c r="E20" s="3">
-        <v>41900</v>
+        <v>42700</v>
       </c>
       <c r="F20" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="G20" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="H20" s="3">
         <v>-2100</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-177900</v>
+        <v>-182900</v>
       </c>
       <c r="E21" s="3">
-        <v>-18300</v>
+        <v>-19500</v>
       </c>
       <c r="F21" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="G21" s="3">
-        <v>19900</v>
+        <v>20100</v>
       </c>
       <c r="H21" s="3">
-        <v>-114000</v>
+        <v>-116500</v>
       </c>
       <c r="I21" s="3">
-        <v>-50200</v>
+        <v>-51300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="E22" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-458400</v>
+        <v>-468100</v>
       </c>
       <c r="E23" s="3">
-        <v>-193700</v>
+        <v>-197800</v>
       </c>
       <c r="F23" s="3">
-        <v>-82400</v>
+        <v>-84100</v>
       </c>
       <c r="G23" s="3">
-        <v>-26700</v>
+        <v>-27300</v>
       </c>
       <c r="H23" s="3">
-        <v>-138800</v>
+        <v>-141700</v>
       </c>
       <c r="I23" s="3">
-        <v>-56700</v>
+        <v>-57900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="E24" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F24" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G24" s="3">
         <v>1400</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-466600</v>
+        <v>-476500</v>
       </c>
       <c r="E26" s="3">
-        <v>-199200</v>
+        <v>-203400</v>
       </c>
       <c r="F26" s="3">
-        <v>-86300</v>
+        <v>-88100</v>
       </c>
       <c r="G26" s="3">
-        <v>-28100</v>
+        <v>-28700</v>
       </c>
       <c r="H26" s="3">
-        <v>-139300</v>
+        <v>-142200</v>
       </c>
       <c r="I26" s="3">
-        <v>-57100</v>
+        <v>-58300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-460100</v>
+        <v>-469900</v>
       </c>
       <c r="E27" s="3">
-        <v>-196900</v>
+        <v>-201100</v>
       </c>
       <c r="F27" s="3">
-        <v>-94200</v>
+        <v>-96200</v>
       </c>
       <c r="G27" s="3">
-        <v>-87300</v>
+        <v>-89200</v>
       </c>
       <c r="H27" s="3">
-        <v>-181100</v>
+        <v>-184900</v>
       </c>
       <c r="I27" s="3">
-        <v>-86900</v>
+        <v>-88800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38000</v>
+        <v>-38800</v>
       </c>
       <c r="E32" s="3">
-        <v>-41900</v>
+        <v>-42700</v>
       </c>
       <c r="F32" s="3">
-        <v>-29000</v>
+        <v>-29600</v>
       </c>
       <c r="G32" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="H32" s="3">
         <v>2100</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-460100</v>
+        <v>-469900</v>
       </c>
       <c r="E33" s="3">
-        <v>-196900</v>
+        <v>-201100</v>
       </c>
       <c r="F33" s="3">
-        <v>-94200</v>
+        <v>-96200</v>
       </c>
       <c r="G33" s="3">
-        <v>-87300</v>
+        <v>-89200</v>
       </c>
       <c r="H33" s="3">
-        <v>-181100</v>
+        <v>-184900</v>
       </c>
       <c r="I33" s="3">
-        <v>-86900</v>
+        <v>-88800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-460100</v>
+        <v>-469900</v>
       </c>
       <c r="E35" s="3">
-        <v>-196900</v>
+        <v>-201100</v>
       </c>
       <c r="F35" s="3">
-        <v>-94200</v>
+        <v>-96200</v>
       </c>
       <c r="G35" s="3">
-        <v>-87300</v>
+        <v>-89200</v>
       </c>
       <c r="H35" s="3">
-        <v>-181100</v>
+        <v>-184900</v>
       </c>
       <c r="I35" s="3">
-        <v>-86900</v>
+        <v>-88800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>714700</v>
+        <v>729800</v>
       </c>
       <c r="E41" s="3">
-        <v>758200</v>
+        <v>774200</v>
       </c>
       <c r="F41" s="3">
-        <v>540800</v>
+        <v>552300</v>
       </c>
       <c r="G41" s="3">
-        <v>116600</v>
+        <v>119000</v>
       </c>
       <c r="H41" s="3">
-        <v>59200</v>
+        <v>60400</v>
       </c>
       <c r="I41" s="3">
-        <v>105400</v>
+        <v>107600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1241900</v>
+        <v>1268200</v>
       </c>
       <c r="E42" s="3">
-        <v>478500</v>
+        <v>488600</v>
       </c>
       <c r="F42" s="3">
-        <v>262000</v>
+        <v>267600</v>
       </c>
       <c r="G42" s="3">
-        <v>77200</v>
+        <v>78800</v>
       </c>
       <c r="H42" s="3">
-        <v>110300</v>
+        <v>112600</v>
       </c>
       <c r="I42" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>215800</v>
+        <v>220400</v>
       </c>
       <c r="E43" s="3">
-        <v>167800</v>
+        <v>171300</v>
       </c>
       <c r="F43" s="3">
-        <v>66500</v>
+        <v>67900</v>
       </c>
       <c r="G43" s="3">
-        <v>69500</v>
+        <v>71000</v>
       </c>
       <c r="H43" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="I43" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24400</v>
+        <v>25000</v>
       </c>
       <c r="E44" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F44" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="G44" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H44" s="3">
         <v>1000</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>207800</v>
+        <v>212200</v>
       </c>
       <c r="E45" s="3">
-        <v>162200</v>
+        <v>165600</v>
       </c>
       <c r="F45" s="3">
-        <v>122900</v>
+        <v>125500</v>
       </c>
       <c r="G45" s="3">
-        <v>64200</v>
+        <v>65500</v>
       </c>
       <c r="H45" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="I45" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2404700</v>
+        <v>2455500</v>
       </c>
       <c r="E46" s="3">
-        <v>1577300</v>
+        <v>1610700</v>
       </c>
       <c r="F46" s="3">
-        <v>1000700</v>
+        <v>1021900</v>
       </c>
       <c r="G46" s="3">
-        <v>329000</v>
+        <v>335900</v>
       </c>
       <c r="H46" s="3">
-        <v>214000</v>
+        <v>218500</v>
       </c>
       <c r="I46" s="3">
-        <v>130300</v>
+        <v>133000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>341100</v>
+        <v>348400</v>
       </c>
       <c r="E47" s="3">
-        <v>191100</v>
+        <v>195200</v>
       </c>
       <c r="F47" s="3">
-        <v>149700</v>
+        <v>152900</v>
       </c>
       <c r="G47" s="3">
-        <v>97200</v>
+        <v>99200</v>
       </c>
       <c r="H47" s="3">
-        <v>57600</v>
+        <v>58800</v>
       </c>
       <c r="I47" s="3">
-        <v>24500</v>
+        <v>25100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>116400</v>
+        <v>118900</v>
       </c>
       <c r="E48" s="3">
-        <v>114900</v>
+        <v>117300</v>
       </c>
       <c r="F48" s="3">
-        <v>60300</v>
+        <v>61600</v>
       </c>
       <c r="G48" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="H48" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="I48" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>558100</v>
+        <v>569900</v>
       </c>
       <c r="E49" s="3">
-        <v>407800</v>
+        <v>416400</v>
       </c>
       <c r="F49" s="3">
-        <v>360700</v>
+        <v>368300</v>
       </c>
       <c r="G49" s="3">
-        <v>72900</v>
+        <v>74500</v>
       </c>
       <c r="H49" s="3">
-        <v>50900</v>
+        <v>52000</v>
       </c>
       <c r="I49" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>225900</v>
+        <v>230700</v>
       </c>
       <c r="E52" s="3">
-        <v>79500</v>
+        <v>81200</v>
       </c>
       <c r="F52" s="3">
-        <v>31200</v>
+        <v>31900</v>
       </c>
       <c r="G52" s="3">
         <v>3200</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3646200</v>
+        <v>3723300</v>
       </c>
       <c r="E54" s="3">
-        <v>2370600</v>
+        <v>2420700</v>
       </c>
       <c r="F54" s="3">
-        <v>1602700</v>
+        <v>1636600</v>
       </c>
       <c r="G54" s="3">
-        <v>530700</v>
+        <v>541900</v>
       </c>
       <c r="H54" s="3">
-        <v>331000</v>
+        <v>338000</v>
       </c>
       <c r="I54" s="3">
-        <v>176800</v>
+        <v>180500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>469700</v>
+        <v>479600</v>
       </c>
       <c r="E57" s="3">
-        <v>290900</v>
+        <v>297000</v>
       </c>
       <c r="F57" s="3">
-        <v>199800</v>
+        <v>204000</v>
       </c>
       <c r="G57" s="3">
-        <v>91100</v>
+        <v>93100</v>
       </c>
       <c r="H57" s="3">
-        <v>48400</v>
+        <v>49400</v>
       </c>
       <c r="I57" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,7 +2311,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>644300</v>
+        <v>657900</v>
       </c>
       <c r="E59" s="3">
-        <v>361900</v>
+        <v>369500</v>
       </c>
       <c r="F59" s="3">
-        <v>304200</v>
+        <v>310700</v>
       </c>
       <c r="G59" s="3">
-        <v>122500</v>
+        <v>125000</v>
       </c>
       <c r="H59" s="3">
-        <v>47600</v>
+        <v>48600</v>
       </c>
       <c r="I59" s="3">
-        <v>26800</v>
+        <v>27400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1129300</v>
+        <v>1153200</v>
       </c>
       <c r="E60" s="3">
-        <v>652800</v>
+        <v>666600</v>
       </c>
       <c r="F60" s="3">
-        <v>504000</v>
+        <v>514700</v>
       </c>
       <c r="G60" s="3">
-        <v>213600</v>
+        <v>218100</v>
       </c>
       <c r="H60" s="3">
-        <v>96000</v>
+        <v>98000</v>
       </c>
       <c r="I60" s="3">
-        <v>47100</v>
+        <v>48100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1274300</v>
+        <v>1301300</v>
       </c>
       <c r="E61" s="3">
-        <v>521700</v>
+        <v>532700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53600</v>
+        <v>54700</v>
       </c>
       <c r="E62" s="3">
-        <v>29500</v>
+        <v>30100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2485000</v>
+        <v>2537600</v>
       </c>
       <c r="E66" s="3">
-        <v>1293100</v>
+        <v>1320500</v>
       </c>
       <c r="F66" s="3">
-        <v>540700</v>
+        <v>552200</v>
       </c>
       <c r="G66" s="3">
-        <v>213600</v>
+        <v>218100</v>
       </c>
       <c r="H66" s="3">
-        <v>96000</v>
+        <v>98000</v>
       </c>
       <c r="I66" s="3">
-        <v>46800</v>
+        <v>47800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>613400</v>
+        <v>626400</v>
       </c>
       <c r="H70" s="3">
-        <v>437200</v>
+        <v>446400</v>
       </c>
       <c r="I70" s="3">
-        <v>213000</v>
+        <v>217600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1093500</v>
+        <v>-1116600</v>
       </c>
       <c r="E72" s="3">
-        <v>-631300</v>
+        <v>-644700</v>
       </c>
       <c r="F72" s="3">
-        <v>-433100</v>
+        <v>-442300</v>
       </c>
       <c r="G72" s="3">
-        <v>-339000</v>
+        <v>-346100</v>
       </c>
       <c r="H72" s="3">
-        <v>-271400</v>
+        <v>-277100</v>
       </c>
       <c r="I72" s="3">
-        <v>-100100</v>
+        <v>-102200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1161200</v>
+        <v>1185700</v>
       </c>
       <c r="E76" s="3">
-        <v>1077500</v>
+        <v>1100300</v>
       </c>
       <c r="F76" s="3">
-        <v>1061900</v>
+        <v>1084400</v>
       </c>
       <c r="G76" s="3">
-        <v>-296300</v>
+        <v>-302600</v>
       </c>
       <c r="H76" s="3">
-        <v>-202200</v>
+        <v>-206400</v>
       </c>
       <c r="I76" s="3">
-        <v>-83100</v>
+        <v>-84900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-460100</v>
+        <v>-469900</v>
       </c>
       <c r="E81" s="3">
-        <v>-196900</v>
+        <v>-201100</v>
       </c>
       <c r="F81" s="3">
-        <v>-94200</v>
+        <v>-96200</v>
       </c>
       <c r="G81" s="3">
-        <v>-87300</v>
+        <v>-89200</v>
       </c>
       <c r="H81" s="3">
-        <v>-181100</v>
+        <v>-184900</v>
       </c>
       <c r="I81" s="3">
-        <v>-86900</v>
+        <v>-88800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>263000</v>
+        <v>268600</v>
       </c>
       <c r="E83" s="3">
-        <v>167700</v>
+        <v>171200</v>
       </c>
       <c r="F83" s="3">
-        <v>98200</v>
+        <v>100200</v>
       </c>
       <c r="G83" s="3">
-        <v>46500</v>
+        <v>47500</v>
       </c>
       <c r="H83" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="I83" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>115100</v>
+        <v>117500</v>
       </c>
       <c r="E89" s="3">
-        <v>29700</v>
+        <v>30400</v>
       </c>
       <c r="F89" s="3">
-        <v>112600</v>
+        <v>115000</v>
       </c>
       <c r="G89" s="3">
-        <v>71000</v>
+        <v>72500</v>
       </c>
       <c r="H89" s="3">
-        <v>-30400</v>
+        <v>-31000</v>
       </c>
       <c r="I89" s="3">
-        <v>-29300</v>
+        <v>-29900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92000</v>
+        <v>-93900</v>
       </c>
       <c r="E91" s="3">
-        <v>-45200</v>
+        <v>-46200</v>
       </c>
       <c r="F91" s="3">
-        <v>-44900</v>
+        <v>-45800</v>
       </c>
       <c r="G91" s="3">
-        <v>-22100</v>
+        <v>-22600</v>
       </c>
       <c r="H91" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1360800</v>
+        <v>-1389600</v>
       </c>
       <c r="E94" s="3">
-        <v>-604700</v>
+        <v>-617500</v>
       </c>
       <c r="F94" s="3">
-        <v>-488300</v>
+        <v>-498700</v>
       </c>
       <c r="G94" s="3">
-        <v>-109400</v>
+        <v>-111700</v>
       </c>
       <c r="H94" s="3">
-        <v>-181400</v>
+        <v>-185200</v>
       </c>
       <c r="I94" s="3">
-        <v>-55800</v>
+        <v>-57000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1273500</v>
+        <v>1300400</v>
       </c>
       <c r="E100" s="3">
-        <v>775900</v>
+        <v>792400</v>
       </c>
       <c r="F100" s="3">
-        <v>760100</v>
+        <v>776100</v>
       </c>
       <c r="G100" s="3">
-        <v>103200</v>
+        <v>105400</v>
       </c>
       <c r="H100" s="3">
-        <v>156500</v>
+        <v>159800</v>
       </c>
       <c r="I100" s="3">
-        <v>167900</v>
+        <v>171500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-71200</v>
+        <v>-72700</v>
       </c>
       <c r="E101" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="F101" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="G101" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="H101" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I101" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43500</v>
+        <v>-44400</v>
       </c>
       <c r="E102" s="3">
-        <v>217300</v>
+        <v>221900</v>
       </c>
       <c r="F102" s="3">
-        <v>424300</v>
+        <v>433300</v>
       </c>
       <c r="G102" s="3">
-        <v>57400</v>
+        <v>58600</v>
       </c>
       <c r="H102" s="3">
-        <v>-47800</v>
+        <v>-48800</v>
       </c>
       <c r="I102" s="3">
-        <v>89300</v>
+        <v>91200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1872000</v>
+        <v>1847600</v>
       </c>
       <c r="E8" s="3">
-        <v>1057400</v>
+        <v>1043700</v>
       </c>
       <c r="F8" s="3">
-        <v>644200</v>
+        <v>635800</v>
       </c>
       <c r="G8" s="3">
-        <v>385100</v>
+        <v>380100</v>
       </c>
       <c r="H8" s="3">
-        <v>81600</v>
+        <v>80600</v>
       </c>
       <c r="I8" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1428900</v>
+        <v>1410300</v>
       </c>
       <c r="E9" s="3">
-        <v>871700</v>
+        <v>860400</v>
       </c>
       <c r="F9" s="3">
-        <v>510700</v>
+        <v>504100</v>
       </c>
       <c r="G9" s="3">
-        <v>299400</v>
+        <v>295500</v>
       </c>
       <c r="H9" s="3">
-        <v>120600</v>
+        <v>119000</v>
       </c>
       <c r="I9" s="3">
-        <v>47400</v>
+        <v>46700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>443100</v>
+        <v>437300</v>
       </c>
       <c r="E10" s="3">
-        <v>185700</v>
+        <v>183300</v>
       </c>
       <c r="F10" s="3">
-        <v>133500</v>
+        <v>131700</v>
       </c>
       <c r="G10" s="3">
-        <v>85700</v>
+        <v>84600</v>
       </c>
       <c r="H10" s="3">
-        <v>-38900</v>
+        <v>-38400</v>
       </c>
       <c r="I10" s="3">
-        <v>-26900</v>
+        <v>-26600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>236000</v>
+        <v>233000</v>
       </c>
       <c r="E12" s="3">
-        <v>139500</v>
+        <v>137700</v>
       </c>
       <c r="F12" s="3">
-        <v>83900</v>
+        <v>82800</v>
       </c>
       <c r="G12" s="3">
-        <v>43700</v>
+        <v>43100</v>
       </c>
       <c r="H12" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="I12" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2362000</v>
+        <v>2331200</v>
       </c>
       <c r="E17" s="3">
-        <v>1290700</v>
+        <v>1273900</v>
       </c>
       <c r="F17" s="3">
-        <v>757900</v>
+        <v>748000</v>
       </c>
       <c r="G17" s="3">
-        <v>420100</v>
+        <v>414600</v>
       </c>
       <c r="H17" s="3">
-        <v>221200</v>
+        <v>218300</v>
       </c>
       <c r="I17" s="3">
-        <v>78000</v>
+        <v>77000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-490000</v>
+        <v>-483600</v>
       </c>
       <c r="E18" s="3">
-        <v>-233300</v>
+        <v>-230200</v>
       </c>
       <c r="F18" s="3">
-        <v>-113700</v>
+        <v>-112200</v>
       </c>
       <c r="G18" s="3">
-        <v>-35000</v>
+        <v>-34500</v>
       </c>
       <c r="H18" s="3">
-        <v>-139600</v>
+        <v>-137800</v>
       </c>
       <c r="I18" s="3">
-        <v>-57500</v>
+        <v>-56800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38800</v>
+        <v>38300</v>
       </c>
       <c r="E20" s="3">
-        <v>42700</v>
+        <v>42200</v>
       </c>
       <c r="F20" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="G20" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H20" s="3">
         <v>-2100</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-182900</v>
+        <v>-179800</v>
       </c>
       <c r="E21" s="3">
-        <v>-19500</v>
+        <v>-18800</v>
       </c>
       <c r="F21" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="G21" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="H21" s="3">
-        <v>-116500</v>
+        <v>-115000</v>
       </c>
       <c r="I21" s="3">
-        <v>-51300</v>
+        <v>-50600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="E22" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-468100</v>
+        <v>-462000</v>
       </c>
       <c r="E23" s="3">
-        <v>-197800</v>
+        <v>-195200</v>
       </c>
       <c r="F23" s="3">
-        <v>-84100</v>
+        <v>-83000</v>
       </c>
       <c r="G23" s="3">
-        <v>-27300</v>
+        <v>-26900</v>
       </c>
       <c r="H23" s="3">
-        <v>-141700</v>
+        <v>-139900</v>
       </c>
       <c r="I23" s="3">
-        <v>-57900</v>
+        <v>-57100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="E24" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F24" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="3">
         <v>1400</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-476500</v>
+        <v>-470300</v>
       </c>
       <c r="E26" s="3">
-        <v>-203400</v>
+        <v>-200700</v>
       </c>
       <c r="F26" s="3">
-        <v>-88100</v>
+        <v>-87000</v>
       </c>
       <c r="G26" s="3">
-        <v>-28700</v>
+        <v>-28300</v>
       </c>
       <c r="H26" s="3">
-        <v>-142200</v>
+        <v>-140400</v>
       </c>
       <c r="I26" s="3">
-        <v>-58300</v>
+        <v>-57500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-469900</v>
+        <v>-463700</v>
       </c>
       <c r="E27" s="3">
-        <v>-201100</v>
+        <v>-198500</v>
       </c>
       <c r="F27" s="3">
-        <v>-96200</v>
+        <v>-94900</v>
       </c>
       <c r="G27" s="3">
-        <v>-89200</v>
+        <v>-88000</v>
       </c>
       <c r="H27" s="3">
-        <v>-184900</v>
+        <v>-182500</v>
       </c>
       <c r="I27" s="3">
-        <v>-88800</v>
+        <v>-87600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38800</v>
+        <v>-38300</v>
       </c>
       <c r="E32" s="3">
-        <v>-42700</v>
+        <v>-42200</v>
       </c>
       <c r="F32" s="3">
-        <v>-29600</v>
+        <v>-29200</v>
       </c>
       <c r="G32" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="H32" s="3">
         <v>2100</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-469900</v>
+        <v>-463700</v>
       </c>
       <c r="E33" s="3">
-        <v>-201100</v>
+        <v>-198500</v>
       </c>
       <c r="F33" s="3">
-        <v>-96200</v>
+        <v>-94900</v>
       </c>
       <c r="G33" s="3">
-        <v>-89200</v>
+        <v>-88000</v>
       </c>
       <c r="H33" s="3">
-        <v>-184900</v>
+        <v>-182500</v>
       </c>
       <c r="I33" s="3">
-        <v>-88800</v>
+        <v>-87600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-469900</v>
+        <v>-463700</v>
       </c>
       <c r="E35" s="3">
-        <v>-201100</v>
+        <v>-198500</v>
       </c>
       <c r="F35" s="3">
-        <v>-96200</v>
+        <v>-94900</v>
       </c>
       <c r="G35" s="3">
-        <v>-89200</v>
+        <v>-88000</v>
       </c>
       <c r="H35" s="3">
-        <v>-184900</v>
+        <v>-182500</v>
       </c>
       <c r="I35" s="3">
-        <v>-88800</v>
+        <v>-87600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>729800</v>
+        <v>720300</v>
       </c>
       <c r="E41" s="3">
-        <v>774200</v>
+        <v>764200</v>
       </c>
       <c r="F41" s="3">
-        <v>552300</v>
+        <v>545100</v>
       </c>
       <c r="G41" s="3">
-        <v>119000</v>
+        <v>117500</v>
       </c>
       <c r="H41" s="3">
-        <v>60400</v>
+        <v>59600</v>
       </c>
       <c r="I41" s="3">
-        <v>107600</v>
+        <v>106200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1268200</v>
+        <v>1251700</v>
       </c>
       <c r="E42" s="3">
-        <v>488600</v>
+        <v>482200</v>
       </c>
       <c r="F42" s="3">
-        <v>267600</v>
+        <v>264100</v>
       </c>
       <c r="G42" s="3">
-        <v>78800</v>
+        <v>77800</v>
       </c>
       <c r="H42" s="3">
-        <v>112600</v>
+        <v>111200</v>
       </c>
       <c r="I42" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>220400</v>
+        <v>217500</v>
       </c>
       <c r="E43" s="3">
-        <v>171300</v>
+        <v>169100</v>
       </c>
       <c r="F43" s="3">
-        <v>67900</v>
+        <v>67000</v>
       </c>
       <c r="G43" s="3">
-        <v>71000</v>
+        <v>70100</v>
       </c>
       <c r="H43" s="3">
-        <v>20100</v>
+        <v>19800</v>
       </c>
       <c r="I43" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25000</v>
+        <v>24600</v>
       </c>
       <c r="E44" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="F44" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="G44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H44" s="3">
         <v>1000</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>212200</v>
+        <v>209400</v>
       </c>
       <c r="E45" s="3">
-        <v>165600</v>
+        <v>163500</v>
       </c>
       <c r="F45" s="3">
-        <v>125500</v>
+        <v>123900</v>
       </c>
       <c r="G45" s="3">
-        <v>65500</v>
+        <v>64700</v>
       </c>
       <c r="H45" s="3">
-        <v>24400</v>
+        <v>24000</v>
       </c>
       <c r="I45" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2455500</v>
+        <v>2423600</v>
       </c>
       <c r="E46" s="3">
-        <v>1610700</v>
+        <v>1589700</v>
       </c>
       <c r="F46" s="3">
-        <v>1021900</v>
+        <v>1008600</v>
       </c>
       <c r="G46" s="3">
-        <v>335900</v>
+        <v>331500</v>
       </c>
       <c r="H46" s="3">
-        <v>218500</v>
+        <v>215700</v>
       </c>
       <c r="I46" s="3">
-        <v>133000</v>
+        <v>131300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>348400</v>
+        <v>343800</v>
       </c>
       <c r="E47" s="3">
-        <v>195200</v>
+        <v>192600</v>
       </c>
       <c r="F47" s="3">
-        <v>152900</v>
+        <v>150900</v>
       </c>
       <c r="G47" s="3">
-        <v>99200</v>
+        <v>97900</v>
       </c>
       <c r="H47" s="3">
-        <v>58800</v>
+        <v>58100</v>
       </c>
       <c r="I47" s="3">
-        <v>25100</v>
+        <v>24700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>118900</v>
+        <v>117300</v>
       </c>
       <c r="E48" s="3">
-        <v>117300</v>
+        <v>115800</v>
       </c>
       <c r="F48" s="3">
-        <v>61600</v>
+        <v>60800</v>
       </c>
       <c r="G48" s="3">
-        <v>29100</v>
+        <v>28700</v>
       </c>
       <c r="H48" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I48" s="3">
         <v>5300</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>569900</v>
+        <v>562400</v>
       </c>
       <c r="E49" s="3">
-        <v>416400</v>
+        <v>411000</v>
       </c>
       <c r="F49" s="3">
-        <v>368300</v>
+        <v>363500</v>
       </c>
       <c r="G49" s="3">
-        <v>74500</v>
+        <v>73500</v>
       </c>
       <c r="H49" s="3">
-        <v>52000</v>
+        <v>51300</v>
       </c>
       <c r="I49" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>230700</v>
+        <v>227600</v>
       </c>
       <c r="E52" s="3">
-        <v>81200</v>
+        <v>80100</v>
       </c>
       <c r="F52" s="3">
-        <v>31900</v>
+        <v>31400</v>
       </c>
       <c r="G52" s="3">
         <v>3200</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3723300</v>
+        <v>3674800</v>
       </c>
       <c r="E54" s="3">
-        <v>2420700</v>
+        <v>2389200</v>
       </c>
       <c r="F54" s="3">
-        <v>1636600</v>
+        <v>1615300</v>
       </c>
       <c r="G54" s="3">
-        <v>541900</v>
+        <v>534900</v>
       </c>
       <c r="H54" s="3">
-        <v>338000</v>
+        <v>333600</v>
       </c>
       <c r="I54" s="3">
-        <v>180500</v>
+        <v>178100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>479600</v>
+        <v>473400</v>
       </c>
       <c r="E57" s="3">
-        <v>297000</v>
+        <v>293200</v>
       </c>
       <c r="F57" s="3">
-        <v>204000</v>
+        <v>201300</v>
       </c>
       <c r="G57" s="3">
-        <v>93100</v>
+        <v>91900</v>
       </c>
       <c r="H57" s="3">
-        <v>49400</v>
+        <v>48800</v>
       </c>
       <c r="I57" s="3">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,7 +2311,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>657900</v>
+        <v>649400</v>
       </c>
       <c r="E59" s="3">
-        <v>369500</v>
+        <v>364700</v>
       </c>
       <c r="F59" s="3">
-        <v>310700</v>
+        <v>306600</v>
       </c>
       <c r="G59" s="3">
-        <v>125000</v>
+        <v>123400</v>
       </c>
       <c r="H59" s="3">
-        <v>48600</v>
+        <v>47900</v>
       </c>
       <c r="I59" s="3">
-        <v>27400</v>
+        <v>27000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1153200</v>
+        <v>1138200</v>
       </c>
       <c r="E60" s="3">
-        <v>666600</v>
+        <v>657900</v>
       </c>
       <c r="F60" s="3">
-        <v>514700</v>
+        <v>508000</v>
       </c>
       <c r="G60" s="3">
-        <v>218100</v>
+        <v>215300</v>
       </c>
       <c r="H60" s="3">
-        <v>98000</v>
+        <v>96700</v>
       </c>
       <c r="I60" s="3">
-        <v>48100</v>
+        <v>47500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1301300</v>
+        <v>1284300</v>
       </c>
       <c r="E61" s="3">
-        <v>532700</v>
+        <v>525800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54700</v>
+        <v>54000</v>
       </c>
       <c r="E62" s="3">
-        <v>30100</v>
+        <v>29700</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2537600</v>
+        <v>2504500</v>
       </c>
       <c r="E66" s="3">
-        <v>1320500</v>
+        <v>1303300</v>
       </c>
       <c r="F66" s="3">
-        <v>552200</v>
+        <v>545000</v>
       </c>
       <c r="G66" s="3">
-        <v>218100</v>
+        <v>215300</v>
       </c>
       <c r="H66" s="3">
-        <v>98000</v>
+        <v>96800</v>
       </c>
       <c r="I66" s="3">
-        <v>47800</v>
+        <v>47200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>626400</v>
+        <v>618200</v>
       </c>
       <c r="H70" s="3">
-        <v>446400</v>
+        <v>440600</v>
       </c>
       <c r="I70" s="3">
-        <v>217600</v>
+        <v>214700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1116600</v>
+        <v>-1102100</v>
       </c>
       <c r="E72" s="3">
-        <v>-644700</v>
+        <v>-636300</v>
       </c>
       <c r="F72" s="3">
-        <v>-442300</v>
+        <v>-436500</v>
       </c>
       <c r="G72" s="3">
-        <v>-346100</v>
+        <v>-341600</v>
       </c>
       <c r="H72" s="3">
-        <v>-277100</v>
+        <v>-273500</v>
       </c>
       <c r="I72" s="3">
-        <v>-102200</v>
+        <v>-100900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1185700</v>
+        <v>1170300</v>
       </c>
       <c r="E76" s="3">
-        <v>1100300</v>
+        <v>1085900</v>
       </c>
       <c r="F76" s="3">
-        <v>1084400</v>
+        <v>1070300</v>
       </c>
       <c r="G76" s="3">
-        <v>-302600</v>
+        <v>-298600</v>
       </c>
       <c r="H76" s="3">
-        <v>-206400</v>
+        <v>-203700</v>
       </c>
       <c r="I76" s="3">
-        <v>-84900</v>
+        <v>-83800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-469900</v>
+        <v>-463700</v>
       </c>
       <c r="E81" s="3">
-        <v>-201100</v>
+        <v>-198500</v>
       </c>
       <c r="F81" s="3">
-        <v>-96200</v>
+        <v>-94900</v>
       </c>
       <c r="G81" s="3">
-        <v>-89200</v>
+        <v>-88000</v>
       </c>
       <c r="H81" s="3">
-        <v>-184900</v>
+        <v>-182500</v>
       </c>
       <c r="I81" s="3">
-        <v>-88800</v>
+        <v>-87600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>268600</v>
+        <v>265100</v>
       </c>
       <c r="E83" s="3">
-        <v>171200</v>
+        <v>169000</v>
       </c>
       <c r="F83" s="3">
-        <v>100200</v>
+        <v>98900</v>
       </c>
       <c r="G83" s="3">
-        <v>47500</v>
+        <v>46900</v>
       </c>
       <c r="H83" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="I83" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>117500</v>
+        <v>116000</v>
       </c>
       <c r="E89" s="3">
-        <v>30400</v>
+        <v>30000</v>
       </c>
       <c r="F89" s="3">
-        <v>115000</v>
+        <v>113500</v>
       </c>
       <c r="G89" s="3">
-        <v>72500</v>
+        <v>71500</v>
       </c>
       <c r="H89" s="3">
-        <v>-31000</v>
+        <v>-30600</v>
       </c>
       <c r="I89" s="3">
-        <v>-29900</v>
+        <v>-29600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-93900</v>
+        <v>-92700</v>
       </c>
       <c r="E91" s="3">
-        <v>-46200</v>
+        <v>-45600</v>
       </c>
       <c r="F91" s="3">
-        <v>-45800</v>
+        <v>-45200</v>
       </c>
       <c r="G91" s="3">
-        <v>-22600</v>
+        <v>-22300</v>
       </c>
       <c r="H91" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="I91" s="3">
         <v>-4000</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1389600</v>
+        <v>-1371500</v>
       </c>
       <c r="E94" s="3">
-        <v>-617500</v>
+        <v>-609500</v>
       </c>
       <c r="F94" s="3">
-        <v>-498700</v>
+        <v>-492200</v>
       </c>
       <c r="G94" s="3">
-        <v>-111700</v>
+        <v>-110300</v>
       </c>
       <c r="H94" s="3">
-        <v>-185200</v>
+        <v>-182800</v>
       </c>
       <c r="I94" s="3">
-        <v>-57000</v>
+        <v>-56300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1300400</v>
+        <v>1283500</v>
       </c>
       <c r="E100" s="3">
-        <v>792400</v>
+        <v>782000</v>
       </c>
       <c r="F100" s="3">
-        <v>776100</v>
+        <v>766000</v>
       </c>
       <c r="G100" s="3">
-        <v>105400</v>
+        <v>104000</v>
       </c>
       <c r="H100" s="3">
-        <v>159800</v>
+        <v>157700</v>
       </c>
       <c r="I100" s="3">
-        <v>171500</v>
+        <v>169300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-72700</v>
+        <v>-71800</v>
       </c>
       <c r="E101" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="F101" s="3">
-        <v>40800</v>
+        <v>40300</v>
       </c>
       <c r="G101" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="H101" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="I101" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-44400</v>
+        <v>-43800</v>
       </c>
       <c r="E102" s="3">
-        <v>221900</v>
+        <v>219100</v>
       </c>
       <c r="F102" s="3">
-        <v>433300</v>
+        <v>427600</v>
       </c>
       <c r="G102" s="3">
-        <v>58600</v>
+        <v>57800</v>
       </c>
       <c r="H102" s="3">
-        <v>-48800</v>
+        <v>-48100</v>
       </c>
       <c r="I102" s="3">
-        <v>91200</v>
+        <v>90000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1847600</v>
+        <v>1878600</v>
       </c>
       <c r="E8" s="3">
-        <v>1043700</v>
+        <v>1061200</v>
       </c>
       <c r="F8" s="3">
-        <v>635800</v>
+        <v>646400</v>
       </c>
       <c r="G8" s="3">
-        <v>380100</v>
+        <v>386500</v>
       </c>
       <c r="H8" s="3">
-        <v>80600</v>
+        <v>81900</v>
       </c>
       <c r="I8" s="3">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1410300</v>
+        <v>1433900</v>
       </c>
       <c r="E9" s="3">
-        <v>860400</v>
+        <v>874800</v>
       </c>
       <c r="F9" s="3">
-        <v>504100</v>
+        <v>512500</v>
       </c>
       <c r="G9" s="3">
-        <v>295500</v>
+        <v>300500</v>
       </c>
       <c r="H9" s="3">
-        <v>119000</v>
+        <v>121000</v>
       </c>
       <c r="I9" s="3">
-        <v>46700</v>
+        <v>47500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>437300</v>
+        <v>444700</v>
       </c>
       <c r="E10" s="3">
-        <v>183300</v>
+        <v>186300</v>
       </c>
       <c r="F10" s="3">
-        <v>131700</v>
+        <v>133900</v>
       </c>
       <c r="G10" s="3">
-        <v>84600</v>
+        <v>86000</v>
       </c>
       <c r="H10" s="3">
-        <v>-38400</v>
+        <v>-39100</v>
       </c>
       <c r="I10" s="3">
-        <v>-26600</v>
+        <v>-27000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>233000</v>
+        <v>236900</v>
       </c>
       <c r="E12" s="3">
-        <v>137700</v>
+        <v>140000</v>
       </c>
       <c r="F12" s="3">
-        <v>82800</v>
+        <v>84100</v>
       </c>
       <c r="G12" s="3">
-        <v>43100</v>
+        <v>43900</v>
       </c>
       <c r="H12" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="I12" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2331200</v>
+        <v>2370300</v>
       </c>
       <c r="E17" s="3">
-        <v>1273900</v>
+        <v>1295200</v>
       </c>
       <c r="F17" s="3">
-        <v>748000</v>
+        <v>760600</v>
       </c>
       <c r="G17" s="3">
-        <v>414600</v>
+        <v>421600</v>
       </c>
       <c r="H17" s="3">
-        <v>218300</v>
+        <v>222000</v>
       </c>
       <c r="I17" s="3">
-        <v>77000</v>
+        <v>78300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-483600</v>
+        <v>-491700</v>
       </c>
       <c r="E18" s="3">
-        <v>-230200</v>
+        <v>-234100</v>
       </c>
       <c r="F18" s="3">
-        <v>-112200</v>
+        <v>-114100</v>
       </c>
       <c r="G18" s="3">
-        <v>-34500</v>
+        <v>-35100</v>
       </c>
       <c r="H18" s="3">
-        <v>-137800</v>
+        <v>-140100</v>
       </c>
       <c r="I18" s="3">
-        <v>-56800</v>
+        <v>-57800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>38300</v>
+        <v>39000</v>
       </c>
       <c r="E20" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="F20" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="G20" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H20" s="3">
         <v>-2100</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-179800</v>
+        <v>-183500</v>
       </c>
       <c r="E21" s="3">
-        <v>-18800</v>
+        <v>-19500</v>
       </c>
       <c r="F21" s="3">
         <v>16100</v>
       </c>
       <c r="G21" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="H21" s="3">
-        <v>-115000</v>
+        <v>-116900</v>
       </c>
       <c r="I21" s="3">
-        <v>-50600</v>
+        <v>-51500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="E22" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-462000</v>
+        <v>-469800</v>
       </c>
       <c r="E23" s="3">
-        <v>-195200</v>
+        <v>-198500</v>
       </c>
       <c r="F23" s="3">
-        <v>-83000</v>
+        <v>-84400</v>
       </c>
       <c r="G23" s="3">
-        <v>-26900</v>
+        <v>-27400</v>
       </c>
       <c r="H23" s="3">
-        <v>-139900</v>
+        <v>-142200</v>
       </c>
       <c r="I23" s="3">
-        <v>-57100</v>
+        <v>-58100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="E24" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F24" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G24" s="3">
         <v>1400</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-470300</v>
+        <v>-478100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200700</v>
+        <v>-204100</v>
       </c>
       <c r="F26" s="3">
-        <v>-87000</v>
+        <v>-88500</v>
       </c>
       <c r="G26" s="3">
-        <v>-28300</v>
+        <v>-28800</v>
       </c>
       <c r="H26" s="3">
-        <v>-140400</v>
+        <v>-142700</v>
       </c>
       <c r="I26" s="3">
-        <v>-57500</v>
+        <v>-58500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-463700</v>
+        <v>-471500</v>
       </c>
       <c r="E27" s="3">
-        <v>-198500</v>
+        <v>-201800</v>
       </c>
       <c r="F27" s="3">
-        <v>-94900</v>
+        <v>-96500</v>
       </c>
       <c r="G27" s="3">
-        <v>-88000</v>
+        <v>-89500</v>
       </c>
       <c r="H27" s="3">
-        <v>-182500</v>
+        <v>-185500</v>
       </c>
       <c r="I27" s="3">
-        <v>-87600</v>
+        <v>-89100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-38300</v>
+        <v>-39000</v>
       </c>
       <c r="E32" s="3">
-        <v>-42200</v>
+        <v>-42900</v>
       </c>
       <c r="F32" s="3">
-        <v>-29200</v>
+        <v>-29700</v>
       </c>
       <c r="G32" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="H32" s="3">
         <v>2100</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-463700</v>
+        <v>-471500</v>
       </c>
       <c r="E33" s="3">
-        <v>-198500</v>
+        <v>-201800</v>
       </c>
       <c r="F33" s="3">
-        <v>-94900</v>
+        <v>-96500</v>
       </c>
       <c r="G33" s="3">
-        <v>-88000</v>
+        <v>-89500</v>
       </c>
       <c r="H33" s="3">
-        <v>-182500</v>
+        <v>-185500</v>
       </c>
       <c r="I33" s="3">
-        <v>-87600</v>
+        <v>-89100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-463700</v>
+        <v>-471500</v>
       </c>
       <c r="E35" s="3">
-        <v>-198500</v>
+        <v>-201800</v>
       </c>
       <c r="F35" s="3">
-        <v>-94900</v>
+        <v>-96500</v>
       </c>
       <c r="G35" s="3">
-        <v>-88000</v>
+        <v>-89500</v>
       </c>
       <c r="H35" s="3">
-        <v>-182500</v>
+        <v>-185500</v>
       </c>
       <c r="I35" s="3">
-        <v>-87600</v>
+        <v>-89100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>720300</v>
+        <v>732400</v>
       </c>
       <c r="E41" s="3">
-        <v>764200</v>
+        <v>777000</v>
       </c>
       <c r="F41" s="3">
-        <v>545100</v>
+        <v>554200</v>
       </c>
       <c r="G41" s="3">
-        <v>117500</v>
+        <v>119400</v>
       </c>
       <c r="H41" s="3">
-        <v>59600</v>
+        <v>60600</v>
       </c>
       <c r="I41" s="3">
-        <v>106200</v>
+        <v>108000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1251700</v>
+        <v>1272700</v>
       </c>
       <c r="E42" s="3">
-        <v>482200</v>
+        <v>490300</v>
       </c>
       <c r="F42" s="3">
-        <v>264100</v>
+        <v>268500</v>
       </c>
       <c r="G42" s="3">
-        <v>77800</v>
+        <v>79100</v>
       </c>
       <c r="H42" s="3">
-        <v>111200</v>
+        <v>113000</v>
       </c>
       <c r="I42" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>217500</v>
+        <v>221100</v>
       </c>
       <c r="E43" s="3">
-        <v>169100</v>
+        <v>171900</v>
       </c>
       <c r="F43" s="3">
-        <v>67000</v>
+        <v>68100</v>
       </c>
       <c r="G43" s="3">
-        <v>70100</v>
+        <v>71200</v>
       </c>
       <c r="H43" s="3">
-        <v>19800</v>
+        <v>20100</v>
       </c>
       <c r="I43" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="E44" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="F44" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="G44" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H44" s="3">
         <v>1000</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>209400</v>
+        <v>212900</v>
       </c>
       <c r="E45" s="3">
-        <v>163500</v>
+        <v>166200</v>
       </c>
       <c r="F45" s="3">
-        <v>123900</v>
+        <v>126000</v>
       </c>
       <c r="G45" s="3">
-        <v>64700</v>
+        <v>65800</v>
       </c>
       <c r="H45" s="3">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="I45" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2423600</v>
+        <v>2464200</v>
       </c>
       <c r="E46" s="3">
-        <v>1589700</v>
+        <v>1616300</v>
       </c>
       <c r="F46" s="3">
-        <v>1008600</v>
+        <v>1025500</v>
       </c>
       <c r="G46" s="3">
-        <v>331500</v>
+        <v>337100</v>
       </c>
       <c r="H46" s="3">
-        <v>215700</v>
+        <v>219300</v>
       </c>
       <c r="I46" s="3">
-        <v>131300</v>
+        <v>133500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>343800</v>
+        <v>349600</v>
       </c>
       <c r="E47" s="3">
-        <v>192600</v>
+        <v>195900</v>
       </c>
       <c r="F47" s="3">
-        <v>150900</v>
+        <v>153400</v>
       </c>
       <c r="G47" s="3">
-        <v>97900</v>
+        <v>99600</v>
       </c>
       <c r="H47" s="3">
-        <v>58100</v>
+        <v>59000</v>
       </c>
       <c r="I47" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>117300</v>
+        <v>119300</v>
       </c>
       <c r="E48" s="3">
-        <v>115800</v>
+        <v>117700</v>
       </c>
       <c r="F48" s="3">
-        <v>60800</v>
+        <v>61800</v>
       </c>
       <c r="G48" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="H48" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="I48" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>562400</v>
+        <v>571900</v>
       </c>
       <c r="E49" s="3">
-        <v>411000</v>
+        <v>417900</v>
       </c>
       <c r="F49" s="3">
-        <v>363500</v>
+        <v>369600</v>
       </c>
       <c r="G49" s="3">
-        <v>73500</v>
+        <v>74700</v>
       </c>
       <c r="H49" s="3">
-        <v>51300</v>
+        <v>52200</v>
       </c>
       <c r="I49" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>227600</v>
+        <v>231500</v>
       </c>
       <c r="E52" s="3">
-        <v>80100</v>
+        <v>81400</v>
       </c>
       <c r="F52" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="G52" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3674800</v>
+        <v>3736400</v>
       </c>
       <c r="E54" s="3">
-        <v>2389200</v>
+        <v>2429300</v>
       </c>
       <c r="F54" s="3">
-        <v>1615300</v>
+        <v>1642300</v>
       </c>
       <c r="G54" s="3">
-        <v>534900</v>
+        <v>543800</v>
       </c>
       <c r="H54" s="3">
-        <v>333600</v>
+        <v>339200</v>
       </c>
       <c r="I54" s="3">
-        <v>178100</v>
+        <v>181100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>473400</v>
+        <v>481300</v>
       </c>
       <c r="E57" s="3">
-        <v>293200</v>
+        <v>298100</v>
       </c>
       <c r="F57" s="3">
-        <v>201300</v>
+        <v>204700</v>
       </c>
       <c r="G57" s="3">
-        <v>91900</v>
+        <v>93400</v>
       </c>
       <c r="H57" s="3">
-        <v>48800</v>
+        <v>49600</v>
       </c>
       <c r="I57" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,7 +2311,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>649400</v>
+        <v>660300</v>
       </c>
       <c r="E59" s="3">
-        <v>364700</v>
+        <v>370800</v>
       </c>
       <c r="F59" s="3">
-        <v>306600</v>
+        <v>311700</v>
       </c>
       <c r="G59" s="3">
-        <v>123400</v>
+        <v>125500</v>
       </c>
       <c r="H59" s="3">
-        <v>47900</v>
+        <v>48700</v>
       </c>
       <c r="I59" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1138200</v>
+        <v>1157200</v>
       </c>
       <c r="E60" s="3">
-        <v>657900</v>
+        <v>668900</v>
       </c>
       <c r="F60" s="3">
-        <v>508000</v>
+        <v>516500</v>
       </c>
       <c r="G60" s="3">
-        <v>215300</v>
+        <v>218900</v>
       </c>
       <c r="H60" s="3">
-        <v>96700</v>
+        <v>98300</v>
       </c>
       <c r="I60" s="3">
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1284300</v>
+        <v>1305900</v>
       </c>
       <c r="E61" s="3">
-        <v>525800</v>
+        <v>534600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54000</v>
+        <v>54900</v>
       </c>
       <c r="E62" s="3">
-        <v>29700</v>
+        <v>30200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2504500</v>
+        <v>2546500</v>
       </c>
       <c r="E66" s="3">
-        <v>1303300</v>
+        <v>1325100</v>
       </c>
       <c r="F66" s="3">
-        <v>545000</v>
+        <v>554100</v>
       </c>
       <c r="G66" s="3">
-        <v>215300</v>
+        <v>218900</v>
       </c>
       <c r="H66" s="3">
-        <v>96800</v>
+        <v>98400</v>
       </c>
       <c r="I66" s="3">
-        <v>47200</v>
+        <v>48000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>618200</v>
+        <v>628600</v>
       </c>
       <c r="H70" s="3">
-        <v>440600</v>
+        <v>448000</v>
       </c>
       <c r="I70" s="3">
-        <v>214700</v>
+        <v>218300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1102100</v>
+        <v>-1120600</v>
       </c>
       <c r="E72" s="3">
-        <v>-636300</v>
+        <v>-646900</v>
       </c>
       <c r="F72" s="3">
-        <v>-436500</v>
+        <v>-443900</v>
       </c>
       <c r="G72" s="3">
-        <v>-341600</v>
+        <v>-347400</v>
       </c>
       <c r="H72" s="3">
-        <v>-273500</v>
+        <v>-278100</v>
       </c>
       <c r="I72" s="3">
-        <v>-100900</v>
+        <v>-102600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1170300</v>
+        <v>1189900</v>
       </c>
       <c r="E76" s="3">
-        <v>1085900</v>
+        <v>1104100</v>
       </c>
       <c r="F76" s="3">
-        <v>1070300</v>
+        <v>1088200</v>
       </c>
       <c r="G76" s="3">
-        <v>-298600</v>
+        <v>-303700</v>
       </c>
       <c r="H76" s="3">
-        <v>-203700</v>
+        <v>-207200</v>
       </c>
       <c r="I76" s="3">
-        <v>-83800</v>
+        <v>-85200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-463700</v>
+        <v>-471500</v>
       </c>
       <c r="E81" s="3">
-        <v>-198500</v>
+        <v>-201800</v>
       </c>
       <c r="F81" s="3">
-        <v>-94900</v>
+        <v>-96500</v>
       </c>
       <c r="G81" s="3">
-        <v>-88000</v>
+        <v>-89500</v>
       </c>
       <c r="H81" s="3">
-        <v>-182500</v>
+        <v>-185500</v>
       </c>
       <c r="I81" s="3">
-        <v>-87600</v>
+        <v>-89100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>265100</v>
+        <v>269500</v>
       </c>
       <c r="E83" s="3">
-        <v>169000</v>
+        <v>171800</v>
       </c>
       <c r="F83" s="3">
-        <v>98900</v>
+        <v>100600</v>
       </c>
       <c r="G83" s="3">
-        <v>46900</v>
+        <v>47700</v>
       </c>
       <c r="H83" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="I83" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>116000</v>
+        <v>117900</v>
       </c>
       <c r="E89" s="3">
-        <v>30000</v>
+        <v>30500</v>
       </c>
       <c r="F89" s="3">
-        <v>113500</v>
+        <v>115400</v>
       </c>
       <c r="G89" s="3">
-        <v>71500</v>
+        <v>72700</v>
       </c>
       <c r="H89" s="3">
-        <v>-30600</v>
+        <v>-31200</v>
       </c>
       <c r="I89" s="3">
-        <v>-29600</v>
+        <v>-30000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92700</v>
+        <v>-94300</v>
       </c>
       <c r="E91" s="3">
-        <v>-45600</v>
+        <v>-46300</v>
       </c>
       <c r="F91" s="3">
-        <v>-45200</v>
+        <v>-46000</v>
       </c>
       <c r="G91" s="3">
-        <v>-22300</v>
+        <v>-22700</v>
       </c>
       <c r="H91" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="I91" s="3">
         <v>-4000</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1371500</v>
+        <v>-1394500</v>
       </c>
       <c r="E94" s="3">
-        <v>-609500</v>
+        <v>-619700</v>
       </c>
       <c r="F94" s="3">
-        <v>-492200</v>
+        <v>-500400</v>
       </c>
       <c r="G94" s="3">
-        <v>-110300</v>
+        <v>-112100</v>
       </c>
       <c r="H94" s="3">
-        <v>-182800</v>
+        <v>-185900</v>
       </c>
       <c r="I94" s="3">
-        <v>-56300</v>
+        <v>-57200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1283500</v>
+        <v>1305000</v>
       </c>
       <c r="E100" s="3">
-        <v>782000</v>
+        <v>795100</v>
       </c>
       <c r="F100" s="3">
-        <v>766000</v>
+        <v>778900</v>
       </c>
       <c r="G100" s="3">
-        <v>104000</v>
+        <v>105800</v>
       </c>
       <c r="H100" s="3">
-        <v>157700</v>
+        <v>160300</v>
       </c>
       <c r="I100" s="3">
-        <v>169300</v>
+        <v>172100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-71800</v>
+        <v>-73000</v>
       </c>
       <c r="E101" s="3">
-        <v>16600</v>
+        <v>16800</v>
       </c>
       <c r="F101" s="3">
-        <v>40300</v>
+        <v>40900</v>
       </c>
       <c r="G101" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="H101" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="I101" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43800</v>
+        <v>-44500</v>
       </c>
       <c r="E102" s="3">
-        <v>219100</v>
+        <v>222700</v>
       </c>
       <c r="F102" s="3">
-        <v>427600</v>
+        <v>434800</v>
       </c>
       <c r="G102" s="3">
-        <v>57800</v>
+        <v>58800</v>
       </c>
       <c r="H102" s="3">
-        <v>-48100</v>
+        <v>-48900</v>
       </c>
       <c r="I102" s="3">
-        <v>90000</v>
+        <v>91500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1878600</v>
+        <v>3058000</v>
       </c>
       <c r="E8" s="3">
-        <v>1061200</v>
+        <v>1893000</v>
       </c>
       <c r="F8" s="3">
-        <v>646400</v>
+        <v>1069300</v>
       </c>
       <c r="G8" s="3">
-        <v>386500</v>
+        <v>651400</v>
       </c>
       <c r="H8" s="3">
-        <v>81900</v>
+        <v>389400</v>
       </c>
       <c r="I8" s="3">
-        <v>20500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>82600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1433900</v>
+        <v>2420100</v>
       </c>
       <c r="E9" s="3">
-        <v>874800</v>
+        <v>1444900</v>
       </c>
       <c r="F9" s="3">
-        <v>512500</v>
+        <v>881500</v>
       </c>
       <c r="G9" s="3">
-        <v>300500</v>
+        <v>516400</v>
       </c>
       <c r="H9" s="3">
-        <v>121000</v>
+        <v>302800</v>
       </c>
       <c r="I9" s="3">
-        <v>47500</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>121900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>47900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>444700</v>
+        <v>637800</v>
       </c>
       <c r="E10" s="3">
-        <v>186300</v>
+        <v>448100</v>
       </c>
       <c r="F10" s="3">
-        <v>133900</v>
+        <v>187800</v>
       </c>
       <c r="G10" s="3">
-        <v>86000</v>
+        <v>135000</v>
       </c>
       <c r="H10" s="3">
-        <v>-39100</v>
+        <v>86600</v>
       </c>
       <c r="I10" s="3">
-        <v>-27000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>-39400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-27200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,32 +851,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>236900</v>
+        <v>448000</v>
       </c>
       <c r="E12" s="3">
-        <v>140000</v>
+        <v>238700</v>
       </c>
       <c r="F12" s="3">
-        <v>84100</v>
+        <v>141100</v>
       </c>
       <c r="G12" s="3">
-        <v>43900</v>
+        <v>84800</v>
       </c>
       <c r="H12" s="3">
-        <v>14300</v>
+        <v>44200</v>
       </c>
       <c r="I12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,9 +965,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2370300</v>
+        <v>4072200</v>
       </c>
       <c r="E17" s="3">
-        <v>1295200</v>
+        <v>2388500</v>
       </c>
       <c r="F17" s="3">
-        <v>760600</v>
+        <v>1305200</v>
       </c>
       <c r="G17" s="3">
-        <v>421600</v>
+        <v>766400</v>
       </c>
       <c r="H17" s="3">
-        <v>222000</v>
+        <v>424800</v>
       </c>
       <c r="I17" s="3">
-        <v>78300</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>223700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>78900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-491700</v>
+        <v>-1014300</v>
       </c>
       <c r="E18" s="3">
-        <v>-234100</v>
+        <v>-495500</v>
       </c>
       <c r="F18" s="3">
-        <v>-114100</v>
+        <v>-235900</v>
       </c>
       <c r="G18" s="3">
-        <v>-35100</v>
+        <v>-115000</v>
       </c>
       <c r="H18" s="3">
-        <v>-140100</v>
+        <v>-35400</v>
       </c>
       <c r="I18" s="3">
-        <v>-57800</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-141200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-58200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,32 +1116,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>39000</v>
+        <v>-20300</v>
       </c>
       <c r="E20" s="3">
-        <v>42900</v>
+        <v>39300</v>
       </c>
       <c r="F20" s="3">
-        <v>29700</v>
+        <v>43200</v>
       </c>
       <c r="G20" s="3">
-        <v>7700</v>
+        <v>30000</v>
       </c>
       <c r="H20" s="3">
-        <v>-2100</v>
+        <v>7800</v>
       </c>
       <c r="I20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-183500</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-19500</v>
+        <v>-183700</v>
       </c>
       <c r="F21" s="3">
-        <v>16100</v>
+        <v>-18900</v>
       </c>
       <c r="G21" s="3">
-        <v>20200</v>
+        <v>16700</v>
       </c>
       <c r="H21" s="3">
-        <v>-116900</v>
+        <v>20600</v>
       </c>
       <c r="I21" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-117700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-51900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,21 +1191,24 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17000</v>
+        <v>24500</v>
       </c>
       <c r="E22" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,38 +1224,41 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-469800</v>
+        <v>-1059100</v>
       </c>
       <c r="E23" s="3">
-        <v>-198500</v>
+        <v>-473400</v>
       </c>
       <c r="F23" s="3">
-        <v>-84400</v>
+        <v>-200000</v>
       </c>
       <c r="G23" s="3">
-        <v>-27400</v>
+        <v>-85000</v>
       </c>
       <c r="H23" s="3">
-        <v>-142200</v>
+        <v>-27600</v>
       </c>
       <c r="I23" s="3">
-        <v>-58100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-143300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-58500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,33 +1269,36 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8400</v>
       </c>
-      <c r="E24" s="3">
-        <v>5600</v>
-      </c>
       <c r="F24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G24" s="3">
         <v>4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-478100</v>
+        <v>-1074100</v>
       </c>
       <c r="E26" s="3">
-        <v>-204100</v>
+        <v>-481800</v>
       </c>
       <c r="F26" s="3">
-        <v>-88500</v>
+        <v>-205700</v>
       </c>
       <c r="G26" s="3">
-        <v>-28800</v>
+        <v>-89100</v>
       </c>
       <c r="H26" s="3">
-        <v>-142700</v>
+        <v>-29000</v>
       </c>
       <c r="I26" s="3">
-        <v>-58500</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-143800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-58900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-471500</v>
+        <v>-1071100</v>
       </c>
       <c r="E27" s="3">
-        <v>-201800</v>
+        <v>-475100</v>
       </c>
       <c r="F27" s="3">
-        <v>-96500</v>
+        <v>-203300</v>
       </c>
       <c r="G27" s="3">
-        <v>-89500</v>
+        <v>-97200</v>
       </c>
       <c r="H27" s="3">
-        <v>-185500</v>
+        <v>-90200</v>
       </c>
       <c r="I27" s="3">
-        <v>-89100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-187000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-89800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,33 +1581,36 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-39000</v>
+        <v>20300</v>
       </c>
       <c r="E32" s="3">
-        <v>-42900</v>
+        <v>-39300</v>
       </c>
       <c r="F32" s="3">
-        <v>-29700</v>
+        <v>-43200</v>
       </c>
       <c r="G32" s="3">
-        <v>-7700</v>
+        <v>-30000</v>
       </c>
       <c r="H32" s="3">
-        <v>2100</v>
+        <v>-7800</v>
       </c>
       <c r="I32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-471500</v>
+        <v>-1071100</v>
       </c>
       <c r="E33" s="3">
-        <v>-201800</v>
+        <v>-475100</v>
       </c>
       <c r="F33" s="3">
-        <v>-96500</v>
+        <v>-203300</v>
       </c>
       <c r="G33" s="3">
-        <v>-89500</v>
+        <v>-97200</v>
       </c>
       <c r="H33" s="3">
-        <v>-185500</v>
+        <v>-90200</v>
       </c>
       <c r="I33" s="3">
-        <v>-89100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-187000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-89800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-471500</v>
+        <v>-1071100</v>
       </c>
       <c r="E35" s="3">
-        <v>-201800</v>
+        <v>-475100</v>
       </c>
       <c r="F35" s="3">
-        <v>-96500</v>
+        <v>-203300</v>
       </c>
       <c r="G35" s="3">
-        <v>-89500</v>
+        <v>-97200</v>
       </c>
       <c r="H35" s="3">
-        <v>-185500</v>
+        <v>-90200</v>
       </c>
       <c r="I35" s="3">
-        <v>-89100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-187000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-89800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>732400</v>
+        <v>1186800</v>
       </c>
       <c r="E41" s="3">
-        <v>777000</v>
+        <v>738000</v>
       </c>
       <c r="F41" s="3">
-        <v>554200</v>
+        <v>782900</v>
       </c>
       <c r="G41" s="3">
-        <v>119400</v>
+        <v>558500</v>
       </c>
       <c r="H41" s="3">
-        <v>60600</v>
+        <v>120400</v>
       </c>
       <c r="I41" s="3">
-        <v>108000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>61100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>108800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,33 +1854,36 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1272700</v>
+        <v>3580100</v>
       </c>
       <c r="E42" s="3">
-        <v>490300</v>
+        <v>1282400</v>
       </c>
       <c r="F42" s="3">
-        <v>268500</v>
+        <v>494100</v>
       </c>
       <c r="G42" s="3">
-        <v>79100</v>
+        <v>270600</v>
       </c>
       <c r="H42" s="3">
-        <v>113000</v>
+        <v>79700</v>
       </c>
       <c r="I42" s="3">
+        <v>113900</v>
+      </c>
+      <c r="J42" s="3">
         <v>8800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1804,33 +1893,36 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>221100</v>
+        <v>218100</v>
       </c>
       <c r="E43" s="3">
-        <v>171900</v>
+        <v>222800</v>
       </c>
       <c r="F43" s="3">
-        <v>68100</v>
+        <v>173300</v>
       </c>
       <c r="G43" s="3">
-        <v>71200</v>
+        <v>68700</v>
       </c>
       <c r="H43" s="3">
-        <v>20100</v>
+        <v>71800</v>
       </c>
       <c r="I43" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J43" s="3">
         <v>4500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,33 +1932,36 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>25100</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>10900</v>
+        <v>25200</v>
       </c>
       <c r="F44" s="3">
-        <v>8600</v>
+        <v>11000</v>
       </c>
       <c r="G44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3">
-        <v>1000</v>
-      </c>
       <c r="I44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,32 +1971,35 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>212900</v>
+        <v>764900</v>
       </c>
       <c r="E45" s="3">
-        <v>166200</v>
+        <v>214600</v>
       </c>
       <c r="F45" s="3">
-        <v>126000</v>
+        <v>167500</v>
       </c>
       <c r="G45" s="3">
-        <v>65800</v>
+        <v>126900</v>
       </c>
       <c r="H45" s="3">
-        <v>24500</v>
+        <v>66300</v>
       </c>
       <c r="I45" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>24600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>12200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2464200</v>
+        <v>5749900</v>
       </c>
       <c r="E46" s="3">
-        <v>1616300</v>
+        <v>2483100</v>
       </c>
       <c r="F46" s="3">
-        <v>1025500</v>
+        <v>1628700</v>
       </c>
       <c r="G46" s="3">
-        <v>337100</v>
+        <v>1033300</v>
       </c>
       <c r="H46" s="3">
-        <v>219300</v>
+        <v>339700</v>
       </c>
       <c r="I46" s="3">
-        <v>133500</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>221000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>134500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,32 +2049,35 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>349600</v>
+        <v>868100</v>
       </c>
       <c r="E47" s="3">
-        <v>195900</v>
+        <v>352300</v>
       </c>
       <c r="F47" s="3">
-        <v>153400</v>
+        <v>197400</v>
       </c>
       <c r="G47" s="3">
-        <v>99600</v>
+        <v>154600</v>
       </c>
       <c r="H47" s="3">
-        <v>59000</v>
+        <v>100300</v>
       </c>
       <c r="I47" s="3">
-        <v>25200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>59500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>25300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1984,33 +2088,36 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>119300</v>
+        <v>213000</v>
       </c>
       <c r="E48" s="3">
-        <v>117700</v>
+        <v>120200</v>
       </c>
       <c r="F48" s="3">
-        <v>61800</v>
+        <v>118600</v>
       </c>
       <c r="G48" s="3">
-        <v>29200</v>
+        <v>62300</v>
       </c>
       <c r="H48" s="3">
+        <v>29400</v>
+      </c>
+      <c r="I48" s="3">
         <v>8000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,32 +2127,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>571900</v>
+        <v>974000</v>
       </c>
       <c r="E49" s="3">
-        <v>417900</v>
+        <v>576300</v>
       </c>
       <c r="F49" s="3">
-        <v>369600</v>
+        <v>421100</v>
       </c>
       <c r="G49" s="3">
-        <v>74700</v>
+        <v>372500</v>
       </c>
       <c r="H49" s="3">
-        <v>52200</v>
+        <v>75300</v>
       </c>
       <c r="I49" s="3">
-        <v>17100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>52600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>17300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,32 +2244,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>231500</v>
+        <v>407000</v>
       </c>
       <c r="E52" s="3">
-        <v>81400</v>
+        <v>233200</v>
       </c>
       <c r="F52" s="3">
-        <v>32000</v>
+        <v>82100</v>
       </c>
       <c r="G52" s="3">
+        <v>32200</v>
+      </c>
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3736400</v>
+        <v>8211900</v>
       </c>
       <c r="E54" s="3">
-        <v>2429300</v>
+        <v>3765000</v>
       </c>
       <c r="F54" s="3">
-        <v>1642300</v>
+        <v>2447900</v>
       </c>
       <c r="G54" s="3">
-        <v>543800</v>
+        <v>1654900</v>
       </c>
       <c r="H54" s="3">
-        <v>339200</v>
+        <v>548000</v>
       </c>
       <c r="I54" s="3">
-        <v>181100</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>341800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>182500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,31 +2398,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>481300</v>
+        <v>688000</v>
       </c>
       <c r="E57" s="3">
-        <v>298100</v>
+        <v>485000</v>
       </c>
       <c r="F57" s="3">
-        <v>204700</v>
+        <v>300400</v>
       </c>
       <c r="G57" s="3">
-        <v>93400</v>
+        <v>206300</v>
       </c>
       <c r="H57" s="3">
-        <v>49600</v>
+        <v>94100</v>
       </c>
       <c r="I57" s="3">
-        <v>19200</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>50000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>19400</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,33 +2434,36 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15700</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>194400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>660300</v>
+        <v>1022000</v>
       </c>
       <c r="E59" s="3">
-        <v>370800</v>
+        <v>665300</v>
       </c>
       <c r="F59" s="3">
-        <v>311700</v>
+        <v>373700</v>
       </c>
       <c r="G59" s="3">
-        <v>125500</v>
+        <v>314100</v>
       </c>
       <c r="H59" s="3">
-        <v>48700</v>
+        <v>126400</v>
       </c>
       <c r="I59" s="3">
-        <v>27500</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>49100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>27700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1157200</v>
+        <v>1904300</v>
       </c>
       <c r="E60" s="3">
-        <v>668900</v>
+        <v>1166100</v>
       </c>
       <c r="F60" s="3">
-        <v>516500</v>
+        <v>674000</v>
       </c>
       <c r="G60" s="3">
-        <v>218900</v>
+        <v>520400</v>
       </c>
       <c r="H60" s="3">
-        <v>98300</v>
+        <v>220500</v>
       </c>
       <c r="I60" s="3">
-        <v>48300</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>99100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>48600</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,20 +2551,23 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1305900</v>
+        <v>2805600</v>
       </c>
       <c r="E61" s="3">
-        <v>534600</v>
+        <v>1315900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>538700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2448,20 +2590,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54900</v>
+        <v>76000</v>
       </c>
       <c r="E62" s="3">
-        <v>30200</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>55400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>30400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2478,15 +2623,18 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2546500</v>
+        <v>4787900</v>
       </c>
       <c r="E66" s="3">
-        <v>1325100</v>
+        <v>2566000</v>
       </c>
       <c r="F66" s="3">
-        <v>554100</v>
+        <v>1335300</v>
       </c>
       <c r="G66" s="3">
-        <v>218900</v>
+        <v>558400</v>
       </c>
       <c r="H66" s="3">
-        <v>98400</v>
+        <v>220500</v>
       </c>
       <c r="I66" s="3">
-        <v>48000</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>99100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>48400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>628600</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>448000</v>
+        <v>633400</v>
       </c>
       <c r="I70" s="3">
-        <v>218300</v>
+        <v>451400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1120600</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-646900</v>
+        <v>-1129200</v>
       </c>
       <c r="F72" s="3">
-        <v>-443900</v>
+        <v>-651900</v>
       </c>
       <c r="G72" s="3">
-        <v>-347400</v>
+        <v>-447300</v>
       </c>
       <c r="H72" s="3">
-        <v>-278100</v>
+        <v>-350000</v>
       </c>
       <c r="I72" s="3">
-        <v>-102600</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-280200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-103400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1189900</v>
+        <v>3424000</v>
       </c>
       <c r="E76" s="3">
-        <v>1104100</v>
+        <v>1199000</v>
       </c>
       <c r="F76" s="3">
-        <v>1088200</v>
+        <v>1112600</v>
       </c>
       <c r="G76" s="3">
-        <v>-303700</v>
+        <v>1096600</v>
       </c>
       <c r="H76" s="3">
-        <v>-207200</v>
+        <v>-306000</v>
       </c>
       <c r="I76" s="3">
-        <v>-85200</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-208700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-85900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-471500</v>
+        <v>-1071100</v>
       </c>
       <c r="E81" s="3">
-        <v>-201800</v>
+        <v>-475100</v>
       </c>
       <c r="F81" s="3">
-        <v>-96500</v>
+        <v>-203300</v>
       </c>
       <c r="G81" s="3">
-        <v>-89500</v>
+        <v>-97200</v>
       </c>
       <c r="H81" s="3">
-        <v>-185500</v>
+        <v>-90200</v>
       </c>
       <c r="I81" s="3">
-        <v>-89100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-187000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-89800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,31 +3295,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>269500</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>171800</v>
+        <v>271600</v>
       </c>
       <c r="F83" s="3">
-        <v>100600</v>
+        <v>173100</v>
       </c>
       <c r="G83" s="3">
-        <v>47700</v>
+        <v>101400</v>
       </c>
       <c r="H83" s="3">
-        <v>25300</v>
+        <v>48000</v>
       </c>
       <c r="I83" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>25500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>117900</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>30500</v>
+        <v>118800</v>
       </c>
       <c r="F89" s="3">
-        <v>115400</v>
+        <v>30700</v>
       </c>
       <c r="G89" s="3">
-        <v>72700</v>
+        <v>116300</v>
       </c>
       <c r="H89" s="3">
-        <v>-31200</v>
+        <v>73300</v>
       </c>
       <c r="I89" s="3">
-        <v>-30000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-31400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-30300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,31 +3585,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-94300</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-46300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-46000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-22700</v>
-      </c>
       <c r="H91" s="3">
-        <v>-6600</v>
+        <v>-22900</v>
       </c>
       <c r="I91" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-6700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1394500</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-619700</v>
+        <v>-1405100</v>
       </c>
       <c r="F94" s="3">
-        <v>-500400</v>
+        <v>-624500</v>
       </c>
       <c r="G94" s="3">
-        <v>-112100</v>
+        <v>-504300</v>
       </c>
       <c r="H94" s="3">
-        <v>-185900</v>
+        <v>-113000</v>
       </c>
       <c r="I94" s="3">
-        <v>-57200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-187300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-57700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>1305000</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>795100</v>
+        <v>1315000</v>
       </c>
       <c r="F100" s="3">
-        <v>778900</v>
+        <v>801200</v>
       </c>
       <c r="G100" s="3">
-        <v>105800</v>
+        <v>784800</v>
       </c>
       <c r="H100" s="3">
-        <v>160300</v>
+        <v>106600</v>
       </c>
       <c r="I100" s="3">
-        <v>172100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>161600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>173400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,32 +3950,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-73000</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>16800</v>
+        <v>-73600</v>
       </c>
       <c r="F101" s="3">
-        <v>40900</v>
+        <v>17000</v>
       </c>
       <c r="G101" s="3">
-        <v>-7500</v>
+        <v>41200</v>
       </c>
       <c r="H101" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I101" s="3">
         <v>7800</v>
       </c>
-      <c r="I101" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>6800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-44500</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>222700</v>
+        <v>-44900</v>
       </c>
       <c r="F102" s="3">
-        <v>434800</v>
+        <v>224400</v>
       </c>
       <c r="G102" s="3">
-        <v>58800</v>
+        <v>438100</v>
       </c>
       <c r="H102" s="3">
-        <v>-48900</v>
+        <v>59300</v>
       </c>
       <c r="I102" s="3">
-        <v>91500</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-49300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>92200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3058000</v>
+        <v>2856400</v>
       </c>
       <c r="E8" s="3">
-        <v>1893000</v>
+        <v>1768200</v>
       </c>
       <c r="F8" s="3">
-        <v>1069300</v>
+        <v>998800</v>
       </c>
       <c r="G8" s="3">
-        <v>651400</v>
+        <v>608400</v>
       </c>
       <c r="H8" s="3">
-        <v>389400</v>
+        <v>363800</v>
       </c>
       <c r="I8" s="3">
-        <v>82600</v>
+        <v>77100</v>
       </c>
       <c r="J8" s="3">
-        <v>20700</v>
+        <v>19300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2420100</v>
+        <v>2260600</v>
       </c>
       <c r="E9" s="3">
-        <v>1444900</v>
+        <v>1349600</v>
       </c>
       <c r="F9" s="3">
-        <v>881500</v>
+        <v>823400</v>
       </c>
       <c r="G9" s="3">
-        <v>516400</v>
+        <v>482400</v>
       </c>
       <c r="H9" s="3">
-        <v>302800</v>
+        <v>282800</v>
       </c>
       <c r="I9" s="3">
-        <v>121900</v>
+        <v>113900</v>
       </c>
       <c r="J9" s="3">
-        <v>47900</v>
+        <v>44700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>637800</v>
+        <v>595800</v>
       </c>
       <c r="E10" s="3">
-        <v>448100</v>
+        <v>418500</v>
       </c>
       <c r="F10" s="3">
-        <v>187800</v>
+        <v>175400</v>
       </c>
       <c r="G10" s="3">
-        <v>135000</v>
+        <v>126100</v>
       </c>
       <c r="H10" s="3">
-        <v>86600</v>
+        <v>80900</v>
       </c>
       <c r="I10" s="3">
-        <v>-39400</v>
+        <v>-36800</v>
       </c>
       <c r="J10" s="3">
-        <v>-27200</v>
+        <v>-25400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>448000</v>
+        <v>418500</v>
       </c>
       <c r="E12" s="3">
-        <v>238700</v>
+        <v>223000</v>
       </c>
       <c r="F12" s="3">
-        <v>141100</v>
+        <v>131800</v>
       </c>
       <c r="G12" s="3">
-        <v>84800</v>
+        <v>79200</v>
       </c>
       <c r="H12" s="3">
-        <v>44200</v>
+        <v>41300</v>
       </c>
       <c r="I12" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="J12" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>5500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4072200</v>
+        <v>3809200</v>
       </c>
       <c r="E17" s="3">
-        <v>2388500</v>
+        <v>2231000</v>
       </c>
       <c r="F17" s="3">
-        <v>1305200</v>
+        <v>1219100</v>
       </c>
       <c r="G17" s="3">
-        <v>766400</v>
+        <v>715900</v>
       </c>
       <c r="H17" s="3">
-        <v>424800</v>
+        <v>396800</v>
       </c>
       <c r="I17" s="3">
-        <v>223700</v>
+        <v>209000</v>
       </c>
       <c r="J17" s="3">
-        <v>78900</v>
+        <v>73700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1014300</v>
+        <v>-952900</v>
       </c>
       <c r="E18" s="3">
-        <v>-495500</v>
+        <v>-462900</v>
       </c>
       <c r="F18" s="3">
-        <v>-235900</v>
+        <v>-220300</v>
       </c>
       <c r="G18" s="3">
-        <v>-115000</v>
+        <v>-107400</v>
       </c>
       <c r="H18" s="3">
-        <v>-35400</v>
+        <v>-33000</v>
       </c>
       <c r="I18" s="3">
-        <v>-141200</v>
+        <v>-131800</v>
       </c>
       <c r="J18" s="3">
-        <v>-58200</v>
+        <v>-54400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20300</v>
+        <v>-13500</v>
       </c>
       <c r="E20" s="3">
-        <v>39300</v>
+        <v>36700</v>
       </c>
       <c r="F20" s="3">
-        <v>43200</v>
+        <v>40400</v>
       </c>
       <c r="G20" s="3">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="H20" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="I20" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
@@ -1161,26 +1161,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-602900</v>
       </c>
       <c r="E21" s="3">
-        <v>-183700</v>
+        <v>-169900</v>
       </c>
       <c r="F21" s="3">
-        <v>-18900</v>
+        <v>-16600</v>
       </c>
       <c r="G21" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="H21" s="3">
-        <v>20600</v>
+        <v>19500</v>
       </c>
       <c r="I21" s="3">
-        <v>-117700</v>
+        <v>-109800</v>
       </c>
       <c r="J21" s="3">
-        <v>-51900</v>
+        <v>-48400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="E22" s="3">
-        <v>17100</v>
+        <v>16000</v>
       </c>
       <c r="F22" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1059100</v>
+        <v>-989300</v>
       </c>
       <c r="E23" s="3">
-        <v>-473400</v>
+        <v>-442200</v>
       </c>
       <c r="F23" s="3">
-        <v>-200000</v>
+        <v>-186800</v>
       </c>
       <c r="G23" s="3">
-        <v>-85000</v>
+        <v>-79400</v>
       </c>
       <c r="H23" s="3">
-        <v>-27600</v>
+        <v>-25800</v>
       </c>
       <c r="I23" s="3">
-        <v>-143300</v>
+        <v>-133900</v>
       </c>
       <c r="J23" s="3">
-        <v>-58500</v>
+        <v>-54700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="E24" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="F24" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="G24" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="H24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1074100</v>
+        <v>-1003300</v>
       </c>
       <c r="E26" s="3">
-        <v>-481800</v>
+        <v>-450000</v>
       </c>
       <c r="F26" s="3">
-        <v>-205700</v>
+        <v>-192100</v>
       </c>
       <c r="G26" s="3">
-        <v>-89100</v>
+        <v>-83300</v>
       </c>
       <c r="H26" s="3">
-        <v>-29000</v>
+        <v>-27100</v>
       </c>
       <c r="I26" s="3">
-        <v>-143800</v>
+        <v>-134300</v>
       </c>
       <c r="J26" s="3">
-        <v>-58900</v>
+        <v>-55000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1071100</v>
+        <v>-1000500</v>
       </c>
       <c r="E27" s="3">
-        <v>-475100</v>
+        <v>-443800</v>
       </c>
       <c r="F27" s="3">
-        <v>-203300</v>
+        <v>-189900</v>
       </c>
       <c r="G27" s="3">
-        <v>-97200</v>
+        <v>-90800</v>
       </c>
       <c r="H27" s="3">
-        <v>-90200</v>
+        <v>-84200</v>
       </c>
       <c r="I27" s="3">
-        <v>-187000</v>
+        <v>-174600</v>
       </c>
       <c r="J27" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20300</v>
+        <v>13500</v>
       </c>
       <c r="E32" s="3">
-        <v>-39300</v>
+        <v>-36700</v>
       </c>
       <c r="F32" s="3">
-        <v>-43200</v>
+        <v>-40400</v>
       </c>
       <c r="G32" s="3">
-        <v>-30000</v>
+        <v>-28000</v>
       </c>
       <c r="H32" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="I32" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1071100</v>
+        <v>-1000500</v>
       </c>
       <c r="E33" s="3">
-        <v>-475100</v>
+        <v>-443800</v>
       </c>
       <c r="F33" s="3">
-        <v>-203300</v>
+        <v>-189900</v>
       </c>
       <c r="G33" s="3">
-        <v>-97200</v>
+        <v>-90800</v>
       </c>
       <c r="H33" s="3">
-        <v>-90200</v>
+        <v>-84200</v>
       </c>
       <c r="I33" s="3">
-        <v>-187000</v>
+        <v>-174600</v>
       </c>
       <c r="J33" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1071100</v>
+        <v>-1000500</v>
       </c>
       <c r="E35" s="3">
-        <v>-475100</v>
+        <v>-443800</v>
       </c>
       <c r="F35" s="3">
-        <v>-203300</v>
+        <v>-189900</v>
       </c>
       <c r="G35" s="3">
-        <v>-97200</v>
+        <v>-90800</v>
       </c>
       <c r="H35" s="3">
-        <v>-90200</v>
+        <v>-84200</v>
       </c>
       <c r="I35" s="3">
-        <v>-187000</v>
+        <v>-174600</v>
       </c>
       <c r="J35" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1186800</v>
+        <v>1108600</v>
       </c>
       <c r="E41" s="3">
-        <v>738000</v>
+        <v>689400</v>
       </c>
       <c r="F41" s="3">
-        <v>782900</v>
+        <v>731300</v>
       </c>
       <c r="G41" s="3">
-        <v>558500</v>
+        <v>521700</v>
       </c>
       <c r="H41" s="3">
-        <v>120400</v>
+        <v>112400</v>
       </c>
       <c r="I41" s="3">
-        <v>61100</v>
+        <v>57100</v>
       </c>
       <c r="J41" s="3">
-        <v>108800</v>
+        <v>101600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3580100</v>
+        <v>3359800</v>
       </c>
       <c r="E42" s="3">
-        <v>1282400</v>
+        <v>1197900</v>
       </c>
       <c r="F42" s="3">
-        <v>494100</v>
+        <v>461500</v>
       </c>
       <c r="G42" s="3">
-        <v>270600</v>
+        <v>252700</v>
       </c>
       <c r="H42" s="3">
-        <v>79700</v>
+        <v>74500</v>
       </c>
       <c r="I42" s="3">
-        <v>113900</v>
+        <v>106400</v>
       </c>
       <c r="J42" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>218100</v>
+        <v>516200</v>
       </c>
       <c r="E43" s="3">
-        <v>222800</v>
+        <v>208100</v>
       </c>
       <c r="F43" s="3">
-        <v>173300</v>
+        <v>161800</v>
       </c>
       <c r="G43" s="3">
-        <v>68700</v>
+        <v>64100</v>
       </c>
       <c r="H43" s="3">
-        <v>71800</v>
+        <v>67100</v>
       </c>
       <c r="I43" s="3">
-        <v>20300</v>
+        <v>19000</v>
       </c>
       <c r="J43" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1941,23 +1941,23 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>67200</v>
       </c>
       <c r="E44" s="3">
-        <v>25200</v>
+        <v>23600</v>
       </c>
       <c r="F44" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="G44" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="H44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I44" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>764900</v>
+        <v>319100</v>
       </c>
       <c r="E45" s="3">
-        <v>214600</v>
+        <v>200400</v>
       </c>
       <c r="F45" s="3">
-        <v>167500</v>
+        <v>156400</v>
       </c>
       <c r="G45" s="3">
-        <v>126900</v>
+        <v>118500</v>
       </c>
       <c r="H45" s="3">
-        <v>66300</v>
+        <v>61900</v>
       </c>
       <c r="I45" s="3">
-        <v>24600</v>
+        <v>23000</v>
       </c>
       <c r="J45" s="3">
-        <v>12200</v>
+        <v>11400</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5749900</v>
+        <v>5370800</v>
       </c>
       <c r="E46" s="3">
-        <v>2483100</v>
+        <v>2319400</v>
       </c>
       <c r="F46" s="3">
-        <v>1628700</v>
+        <v>1521400</v>
       </c>
       <c r="G46" s="3">
-        <v>1033300</v>
+        <v>965200</v>
       </c>
       <c r="H46" s="3">
-        <v>339700</v>
+        <v>317300</v>
       </c>
       <c r="I46" s="3">
-        <v>221000</v>
+        <v>206400</v>
       </c>
       <c r="J46" s="3">
-        <v>134500</v>
+        <v>125600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>868100</v>
+        <v>810900</v>
       </c>
       <c r="E47" s="3">
-        <v>352300</v>
+        <v>329000</v>
       </c>
       <c r="F47" s="3">
-        <v>197400</v>
+        <v>184400</v>
       </c>
       <c r="G47" s="3">
-        <v>154600</v>
+        <v>144400</v>
       </c>
       <c r="H47" s="3">
-        <v>100300</v>
+        <v>93700</v>
       </c>
       <c r="I47" s="3">
-        <v>59500</v>
+        <v>55600</v>
       </c>
       <c r="J47" s="3">
-        <v>25300</v>
+        <v>23700</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>213000</v>
+        <v>199000</v>
       </c>
       <c r="E48" s="3">
-        <v>120200</v>
+        <v>112300</v>
       </c>
       <c r="F48" s="3">
-        <v>118600</v>
+        <v>110800</v>
       </c>
       <c r="G48" s="3">
-        <v>62300</v>
+        <v>58200</v>
       </c>
       <c r="H48" s="3">
-        <v>29400</v>
+        <v>27500</v>
       </c>
       <c r="I48" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="J48" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>974000</v>
+        <v>909800</v>
       </c>
       <c r="E49" s="3">
-        <v>576300</v>
+        <v>538300</v>
       </c>
       <c r="F49" s="3">
-        <v>421100</v>
+        <v>393400</v>
       </c>
       <c r="G49" s="3">
-        <v>372500</v>
+        <v>347900</v>
       </c>
       <c r="H49" s="3">
-        <v>75300</v>
+        <v>70300</v>
       </c>
       <c r="I49" s="3">
-        <v>52600</v>
+        <v>49100</v>
       </c>
       <c r="J49" s="3">
-        <v>17300</v>
+        <v>16100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>407000</v>
+        <v>380100</v>
       </c>
       <c r="E52" s="3">
-        <v>233200</v>
+        <v>217900</v>
       </c>
       <c r="F52" s="3">
-        <v>82100</v>
+        <v>76700</v>
       </c>
       <c r="G52" s="3">
-        <v>32200</v>
+        <v>30100</v>
       </c>
       <c r="H52" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8211900</v>
+        <v>7670600</v>
       </c>
       <c r="E54" s="3">
-        <v>3765000</v>
+        <v>3516800</v>
       </c>
       <c r="F54" s="3">
-        <v>2447900</v>
+        <v>2286500</v>
       </c>
       <c r="G54" s="3">
-        <v>1654900</v>
+        <v>1545800</v>
       </c>
       <c r="H54" s="3">
-        <v>548000</v>
+        <v>511900</v>
       </c>
       <c r="I54" s="3">
-        <v>341800</v>
+        <v>319300</v>
       </c>
       <c r="J54" s="3">
-        <v>182500</v>
+        <v>170500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>688000</v>
+        <v>642600</v>
       </c>
       <c r="E57" s="3">
-        <v>485000</v>
+        <v>453000</v>
       </c>
       <c r="F57" s="3">
-        <v>300400</v>
+        <v>280600</v>
       </c>
       <c r="G57" s="3">
-        <v>206300</v>
+        <v>192700</v>
       </c>
       <c r="H57" s="3">
-        <v>94100</v>
+        <v>87900</v>
       </c>
       <c r="I57" s="3">
-        <v>50000</v>
+        <v>46700</v>
       </c>
       <c r="J57" s="3">
-        <v>19400</v>
+        <v>18100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2444,10 +2444,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>194400</v>
+        <v>181600</v>
       </c>
       <c r="E58" s="3">
-        <v>15800</v>
+        <v>14700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1022000</v>
+        <v>954600</v>
       </c>
       <c r="E59" s="3">
-        <v>665300</v>
+        <v>621500</v>
       </c>
       <c r="F59" s="3">
-        <v>373700</v>
+        <v>349000</v>
       </c>
       <c r="G59" s="3">
-        <v>314100</v>
+        <v>293400</v>
       </c>
       <c r="H59" s="3">
-        <v>126400</v>
+        <v>118100</v>
       </c>
       <c r="I59" s="3">
-        <v>49100</v>
+        <v>45900</v>
       </c>
       <c r="J59" s="3">
-        <v>27700</v>
+        <v>25900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1904300</v>
+        <v>1778800</v>
       </c>
       <c r="E60" s="3">
-        <v>1166100</v>
+        <v>1089200</v>
       </c>
       <c r="F60" s="3">
-        <v>674000</v>
+        <v>629600</v>
       </c>
       <c r="G60" s="3">
-        <v>520400</v>
+        <v>486100</v>
       </c>
       <c r="H60" s="3">
-        <v>220500</v>
+        <v>206000</v>
       </c>
       <c r="I60" s="3">
-        <v>99100</v>
+        <v>92600</v>
       </c>
       <c r="J60" s="3">
-        <v>48600</v>
+        <v>45400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2805600</v>
+        <v>2620700</v>
       </c>
       <c r="E61" s="3">
-        <v>1315900</v>
+        <v>1229100</v>
       </c>
       <c r="F61" s="3">
-        <v>538700</v>
+        <v>503200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76000</v>
+        <v>71000</v>
       </c>
       <c r="E62" s="3">
-        <v>55400</v>
+        <v>51700</v>
       </c>
       <c r="F62" s="3">
-        <v>30400</v>
+        <v>28400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4787900</v>
+        <v>4472300</v>
       </c>
       <c r="E66" s="3">
-        <v>2566000</v>
+        <v>2396900</v>
       </c>
       <c r="F66" s="3">
-        <v>1335300</v>
+        <v>1247300</v>
       </c>
       <c r="G66" s="3">
-        <v>558400</v>
+        <v>521500</v>
       </c>
       <c r="H66" s="3">
-        <v>220500</v>
+        <v>206000</v>
       </c>
       <c r="I66" s="3">
-        <v>99100</v>
+        <v>92600</v>
       </c>
       <c r="J66" s="3">
-        <v>48400</v>
+        <v>45200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>633400</v>
+        <v>591700</v>
       </c>
       <c r="I70" s="3">
-        <v>451400</v>
+        <v>421700</v>
       </c>
       <c r="J70" s="3">
-        <v>220000</v>
+        <v>205500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2967,26 +2967,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-2055200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1129200</v>
+        <v>-1054700</v>
       </c>
       <c r="F72" s="3">
-        <v>-651900</v>
+        <v>-608900</v>
       </c>
       <c r="G72" s="3">
-        <v>-447300</v>
+        <v>-417800</v>
       </c>
       <c r="H72" s="3">
-        <v>-350000</v>
+        <v>-326900</v>
       </c>
       <c r="I72" s="3">
-        <v>-280200</v>
+        <v>-261800</v>
       </c>
       <c r="J72" s="3">
-        <v>-103400</v>
+        <v>-96600</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3424000</v>
+        <v>3198300</v>
       </c>
       <c r="E76" s="3">
-        <v>1199000</v>
+        <v>1120000</v>
       </c>
       <c r="F76" s="3">
-        <v>1112600</v>
+        <v>1039300</v>
       </c>
       <c r="G76" s="3">
-        <v>1096600</v>
+        <v>1024300</v>
       </c>
       <c r="H76" s="3">
-        <v>-306000</v>
+        <v>-285800</v>
       </c>
       <c r="I76" s="3">
-        <v>-208700</v>
+        <v>-195000</v>
       </c>
       <c r="J76" s="3">
-        <v>-85900</v>
+        <v>-80200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1071100</v>
+        <v>-1000500</v>
       </c>
       <c r="E81" s="3">
-        <v>-475100</v>
+        <v>-443800</v>
       </c>
       <c r="F81" s="3">
-        <v>-203300</v>
+        <v>-189900</v>
       </c>
       <c r="G81" s="3">
-        <v>-97200</v>
+        <v>-90800</v>
       </c>
       <c r="H81" s="3">
-        <v>-90200</v>
+        <v>-84200</v>
       </c>
       <c r="I81" s="3">
-        <v>-187000</v>
+        <v>-174600</v>
       </c>
       <c r="J81" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3301,26 +3301,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>359800</v>
       </c>
       <c r="E83" s="3">
-        <v>271600</v>
+        <v>253700</v>
       </c>
       <c r="F83" s="3">
-        <v>173100</v>
+        <v>161700</v>
       </c>
       <c r="G83" s="3">
-        <v>101400</v>
+        <v>94700</v>
       </c>
       <c r="H83" s="3">
-        <v>48000</v>
+        <v>44900</v>
       </c>
       <c r="I83" s="3">
-        <v>25500</v>
+        <v>23800</v>
       </c>
       <c r="J83" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3535,26 +3535,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-390100</v>
       </c>
       <c r="E89" s="3">
-        <v>118800</v>
+        <v>111000</v>
       </c>
       <c r="F89" s="3">
-        <v>30700</v>
+        <v>28700</v>
       </c>
       <c r="G89" s="3">
-        <v>116300</v>
+        <v>108600</v>
       </c>
       <c r="H89" s="3">
-        <v>73300</v>
+        <v>68500</v>
       </c>
       <c r="I89" s="3">
-        <v>-31400</v>
+        <v>-29300</v>
       </c>
       <c r="J89" s="3">
-        <v>-30300</v>
+        <v>-28300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3591,26 +3591,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-142300</v>
       </c>
       <c r="E91" s="3">
-        <v>-95000</v>
+        <v>-88700</v>
       </c>
       <c r="F91" s="3">
-        <v>-46700</v>
+        <v>-43600</v>
       </c>
       <c r="G91" s="3">
-        <v>-46300</v>
+        <v>-43300</v>
       </c>
       <c r="H91" s="3">
-        <v>-22900</v>
+        <v>-21400</v>
       </c>
       <c r="I91" s="3">
-        <v>-6700</v>
+        <v>-6200</v>
       </c>
       <c r="J91" s="3">
-        <v>-4100</v>
+        <v>-3800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3708,26 +3708,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-3621800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1405100</v>
+        <v>-1312500</v>
       </c>
       <c r="F94" s="3">
-        <v>-624500</v>
+        <v>-583300</v>
       </c>
       <c r="G94" s="3">
-        <v>-504300</v>
+        <v>-471000</v>
       </c>
       <c r="H94" s="3">
-        <v>-113000</v>
+        <v>-105500</v>
       </c>
       <c r="I94" s="3">
-        <v>-187300</v>
+        <v>-175000</v>
       </c>
       <c r="J94" s="3">
-        <v>-57700</v>
+        <v>-53900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3920,26 +3920,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>4478100</v>
       </c>
       <c r="E100" s="3">
-        <v>1315000</v>
+        <v>1228300</v>
       </c>
       <c r="F100" s="3">
-        <v>801200</v>
+        <v>748400</v>
       </c>
       <c r="G100" s="3">
-        <v>784800</v>
+        <v>733100</v>
       </c>
       <c r="H100" s="3">
-        <v>106600</v>
+        <v>99500</v>
       </c>
       <c r="I100" s="3">
-        <v>161600</v>
+        <v>150900</v>
       </c>
       <c r="J100" s="3">
-        <v>173400</v>
+        <v>162000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3959,26 +3959,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-47000</v>
       </c>
       <c r="E101" s="3">
-        <v>-73600</v>
+        <v>-68700</v>
       </c>
       <c r="F101" s="3">
-        <v>17000</v>
+        <v>15800</v>
       </c>
       <c r="G101" s="3">
-        <v>41200</v>
+        <v>38500</v>
       </c>
       <c r="H101" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="I101" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="J101" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3998,26 +3998,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>419200</v>
       </c>
       <c r="E102" s="3">
-        <v>-44900</v>
+        <v>-41900</v>
       </c>
       <c r="F102" s="3">
-        <v>224400</v>
+        <v>209600</v>
       </c>
       <c r="G102" s="3">
-        <v>438100</v>
+        <v>409200</v>
       </c>
       <c r="H102" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="I102" s="3">
-        <v>-49300</v>
+        <v>-46100</v>
       </c>
       <c r="J102" s="3">
-        <v>92200</v>
+        <v>86200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2856400</v>
+        <v>2830600</v>
       </c>
       <c r="E8" s="3">
-        <v>1768200</v>
+        <v>1752200</v>
       </c>
       <c r="F8" s="3">
-        <v>998800</v>
+        <v>989800</v>
       </c>
       <c r="G8" s="3">
-        <v>608400</v>
+        <v>602900</v>
       </c>
       <c r="H8" s="3">
-        <v>363800</v>
+        <v>360500</v>
       </c>
       <c r="I8" s="3">
-        <v>77100</v>
+        <v>76400</v>
       </c>
       <c r="J8" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2260600</v>
+        <v>2240200</v>
       </c>
       <c r="E9" s="3">
-        <v>1349600</v>
+        <v>1337500</v>
       </c>
       <c r="F9" s="3">
-        <v>823400</v>
+        <v>816000</v>
       </c>
       <c r="G9" s="3">
-        <v>482400</v>
+        <v>478000</v>
       </c>
       <c r="H9" s="3">
-        <v>282800</v>
+        <v>280300</v>
       </c>
       <c r="I9" s="3">
-        <v>113900</v>
+        <v>112900</v>
       </c>
       <c r="J9" s="3">
-        <v>44700</v>
+        <v>44300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>595800</v>
+        <v>590400</v>
       </c>
       <c r="E10" s="3">
-        <v>418500</v>
+        <v>414800</v>
       </c>
       <c r="F10" s="3">
-        <v>175400</v>
+        <v>173800</v>
       </c>
       <c r="G10" s="3">
-        <v>126100</v>
+        <v>124900</v>
       </c>
       <c r="H10" s="3">
-        <v>80900</v>
+        <v>80200</v>
       </c>
       <c r="I10" s="3">
-        <v>-36800</v>
+        <v>-36400</v>
       </c>
       <c r="J10" s="3">
-        <v>-25400</v>
+        <v>-25200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>418500</v>
+        <v>414700</v>
       </c>
       <c r="E12" s="3">
-        <v>223000</v>
+        <v>220900</v>
       </c>
       <c r="F12" s="3">
-        <v>131800</v>
+        <v>130600</v>
       </c>
       <c r="G12" s="3">
-        <v>79200</v>
+        <v>78500</v>
       </c>
       <c r="H12" s="3">
-        <v>41300</v>
+        <v>40900</v>
       </c>
       <c r="I12" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="J12" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3809200</v>
+        <v>3774900</v>
       </c>
       <c r="E17" s="3">
-        <v>2231000</v>
+        <v>2210900</v>
       </c>
       <c r="F17" s="3">
-        <v>1219100</v>
+        <v>1208100</v>
       </c>
       <c r="G17" s="3">
-        <v>715900</v>
+        <v>709400</v>
       </c>
       <c r="H17" s="3">
-        <v>396800</v>
+        <v>393200</v>
       </c>
       <c r="I17" s="3">
-        <v>209000</v>
+        <v>207100</v>
       </c>
       <c r="J17" s="3">
-        <v>73700</v>
+        <v>73000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-952900</v>
+        <v>-944300</v>
       </c>
       <c r="E18" s="3">
-        <v>-462900</v>
+        <v>-458700</v>
       </c>
       <c r="F18" s="3">
-        <v>-220300</v>
+        <v>-218300</v>
       </c>
       <c r="G18" s="3">
-        <v>-107400</v>
+        <v>-106500</v>
       </c>
       <c r="H18" s="3">
-        <v>-33000</v>
+        <v>-32800</v>
       </c>
       <c r="I18" s="3">
-        <v>-131800</v>
+        <v>-130700</v>
       </c>
       <c r="J18" s="3">
-        <v>-54400</v>
+        <v>-53900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="E20" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="F20" s="3">
-        <v>40400</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="3">
-        <v>28000</v>
+        <v>27700</v>
       </c>
       <c r="H20" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I20" s="3">
         <v>-2000</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-602900</v>
+        <v>-601600</v>
       </c>
       <c r="E21" s="3">
-        <v>-169900</v>
+        <v>-171300</v>
       </c>
       <c r="F21" s="3">
-        <v>-16600</v>
+        <v>-18300</v>
       </c>
       <c r="G21" s="3">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="H21" s="3">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="I21" s="3">
-        <v>-109800</v>
+        <v>-109100</v>
       </c>
       <c r="J21" s="3">
-        <v>-48400</v>
+        <v>-48000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="E22" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="F22" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-989300</v>
+        <v>-980400</v>
       </c>
       <c r="E23" s="3">
-        <v>-442200</v>
+        <v>-438200</v>
       </c>
       <c r="F23" s="3">
-        <v>-186800</v>
+        <v>-185100</v>
       </c>
       <c r="G23" s="3">
-        <v>-79400</v>
+        <v>-78700</v>
       </c>
       <c r="H23" s="3">
-        <v>-25800</v>
+        <v>-25500</v>
       </c>
       <c r="I23" s="3">
-        <v>-133900</v>
+        <v>-132600</v>
       </c>
       <c r="J23" s="3">
-        <v>-54700</v>
+        <v>-54200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,13 +1279,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="E24" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="F24" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G24" s="3">
         <v>3800</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1003300</v>
+        <v>-994300</v>
       </c>
       <c r="E26" s="3">
-        <v>-450000</v>
+        <v>-446000</v>
       </c>
       <c r="F26" s="3">
-        <v>-192100</v>
+        <v>-190400</v>
       </c>
       <c r="G26" s="3">
-        <v>-83300</v>
+        <v>-82500</v>
       </c>
       <c r="H26" s="3">
-        <v>-27100</v>
+        <v>-26800</v>
       </c>
       <c r="I26" s="3">
-        <v>-134300</v>
+        <v>-133100</v>
       </c>
       <c r="J26" s="3">
-        <v>-55000</v>
+        <v>-54500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1000500</v>
+        <v>-991400</v>
       </c>
       <c r="E27" s="3">
-        <v>-443800</v>
+        <v>-439800</v>
       </c>
       <c r="F27" s="3">
-        <v>-189900</v>
+        <v>-188200</v>
       </c>
       <c r="G27" s="3">
-        <v>-90800</v>
+        <v>-90000</v>
       </c>
       <c r="H27" s="3">
-        <v>-84200</v>
+        <v>-83500</v>
       </c>
       <c r="I27" s="3">
-        <v>-174600</v>
+        <v>-173100</v>
       </c>
       <c r="J27" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="E32" s="3">
-        <v>-36700</v>
+        <v>-36300</v>
       </c>
       <c r="F32" s="3">
-        <v>-40400</v>
+        <v>-40000</v>
       </c>
       <c r="G32" s="3">
-        <v>-28000</v>
+        <v>-27700</v>
       </c>
       <c r="H32" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="I32" s="3">
         <v>2000</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000500</v>
+        <v>-991400</v>
       </c>
       <c r="E33" s="3">
-        <v>-443800</v>
+        <v>-439800</v>
       </c>
       <c r="F33" s="3">
-        <v>-189900</v>
+        <v>-188200</v>
       </c>
       <c r="G33" s="3">
-        <v>-90800</v>
+        <v>-90000</v>
       </c>
       <c r="H33" s="3">
-        <v>-84200</v>
+        <v>-83500</v>
       </c>
       <c r="I33" s="3">
-        <v>-174600</v>
+        <v>-173100</v>
       </c>
       <c r="J33" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000500</v>
+        <v>-991400</v>
       </c>
       <c r="E35" s="3">
-        <v>-443800</v>
+        <v>-439800</v>
       </c>
       <c r="F35" s="3">
-        <v>-189900</v>
+        <v>-188200</v>
       </c>
       <c r="G35" s="3">
-        <v>-90800</v>
+        <v>-90000</v>
       </c>
       <c r="H35" s="3">
-        <v>-84200</v>
+        <v>-83500</v>
       </c>
       <c r="I35" s="3">
-        <v>-174600</v>
+        <v>-173100</v>
       </c>
       <c r="J35" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1108600</v>
+        <v>1098600</v>
       </c>
       <c r="E41" s="3">
-        <v>689400</v>
+        <v>683100</v>
       </c>
       <c r="F41" s="3">
-        <v>731300</v>
+        <v>724700</v>
       </c>
       <c r="G41" s="3">
-        <v>521700</v>
+        <v>517000</v>
       </c>
       <c r="H41" s="3">
-        <v>112400</v>
+        <v>111400</v>
       </c>
       <c r="I41" s="3">
-        <v>57100</v>
+        <v>56500</v>
       </c>
       <c r="J41" s="3">
-        <v>101600</v>
+        <v>100700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3359800</v>
+        <v>3329400</v>
       </c>
       <c r="E42" s="3">
-        <v>1197900</v>
+        <v>1187100</v>
       </c>
       <c r="F42" s="3">
-        <v>461500</v>
+        <v>457300</v>
       </c>
       <c r="G42" s="3">
-        <v>252700</v>
+        <v>250500</v>
       </c>
       <c r="H42" s="3">
-        <v>74500</v>
+        <v>73800</v>
       </c>
       <c r="I42" s="3">
-        <v>106400</v>
+        <v>105400</v>
       </c>
       <c r="J42" s="3">
         <v>8200</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>516200</v>
+        <v>511600</v>
       </c>
       <c r="E43" s="3">
-        <v>208100</v>
+        <v>206300</v>
       </c>
       <c r="F43" s="3">
-        <v>161800</v>
+        <v>160400</v>
       </c>
       <c r="G43" s="3">
-        <v>64100</v>
+        <v>63600</v>
       </c>
       <c r="H43" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="I43" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="J43" s="3">
         <v>4200</v>
@@ -1942,16 +1942,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67200</v>
+        <v>66600</v>
       </c>
       <c r="E44" s="3">
-        <v>23600</v>
+        <v>23400</v>
       </c>
       <c r="F44" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="G44" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="H44" s="3">
         <v>1500</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>319100</v>
+        <v>316200</v>
       </c>
       <c r="E45" s="3">
-        <v>200400</v>
+        <v>198600</v>
       </c>
       <c r="F45" s="3">
-        <v>156400</v>
+        <v>155000</v>
       </c>
       <c r="G45" s="3">
-        <v>118500</v>
+        <v>117500</v>
       </c>
       <c r="H45" s="3">
-        <v>61900</v>
+        <v>61300</v>
       </c>
       <c r="I45" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="J45" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5370800</v>
+        <v>5322300</v>
       </c>
       <c r="E46" s="3">
-        <v>2319400</v>
+        <v>2298400</v>
       </c>
       <c r="F46" s="3">
-        <v>1521400</v>
+        <v>1507600</v>
       </c>
       <c r="G46" s="3">
-        <v>965200</v>
+        <v>956500</v>
       </c>
       <c r="H46" s="3">
-        <v>317300</v>
+        <v>314400</v>
       </c>
       <c r="I46" s="3">
-        <v>206400</v>
+        <v>204600</v>
       </c>
       <c r="J46" s="3">
-        <v>125600</v>
+        <v>124500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>810900</v>
+        <v>803500</v>
       </c>
       <c r="E47" s="3">
-        <v>329000</v>
+        <v>326100</v>
       </c>
       <c r="F47" s="3">
-        <v>184400</v>
+        <v>182700</v>
       </c>
       <c r="G47" s="3">
-        <v>144400</v>
+        <v>143100</v>
       </c>
       <c r="H47" s="3">
-        <v>93700</v>
+        <v>92900</v>
       </c>
       <c r="I47" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="J47" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,19 +2098,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>199000</v>
+        <v>197200</v>
       </c>
       <c r="E48" s="3">
-        <v>112300</v>
+        <v>111300</v>
       </c>
       <c r="F48" s="3">
-        <v>110800</v>
+        <v>109800</v>
       </c>
       <c r="G48" s="3">
-        <v>58200</v>
+        <v>57700</v>
       </c>
       <c r="H48" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="I48" s="3">
         <v>7500</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>909800</v>
+        <v>901600</v>
       </c>
       <c r="E49" s="3">
-        <v>538300</v>
+        <v>533400</v>
       </c>
       <c r="F49" s="3">
-        <v>393400</v>
+        <v>389800</v>
       </c>
       <c r="G49" s="3">
-        <v>347900</v>
+        <v>344800</v>
       </c>
       <c r="H49" s="3">
-        <v>70300</v>
+        <v>69700</v>
       </c>
       <c r="I49" s="3">
-        <v>49100</v>
+        <v>48700</v>
       </c>
       <c r="J49" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,19 +2254,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>380100</v>
+        <v>376700</v>
       </c>
       <c r="E52" s="3">
-        <v>217900</v>
+        <v>215900</v>
       </c>
       <c r="F52" s="3">
-        <v>76700</v>
+        <v>76000</v>
       </c>
       <c r="G52" s="3">
-        <v>30100</v>
+        <v>29800</v>
       </c>
       <c r="H52" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7670600</v>
+        <v>7601300</v>
       </c>
       <c r="E54" s="3">
-        <v>3516800</v>
+        <v>3485100</v>
       </c>
       <c r="F54" s="3">
-        <v>2286500</v>
+        <v>2265900</v>
       </c>
       <c r="G54" s="3">
-        <v>1545800</v>
+        <v>1531900</v>
       </c>
       <c r="H54" s="3">
-        <v>511900</v>
+        <v>507200</v>
       </c>
       <c r="I54" s="3">
-        <v>319300</v>
+        <v>316400</v>
       </c>
       <c r="J54" s="3">
-        <v>170500</v>
+        <v>168900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>642600</v>
+        <v>636800</v>
       </c>
       <c r="E57" s="3">
-        <v>453000</v>
+        <v>448900</v>
       </c>
       <c r="F57" s="3">
-        <v>280600</v>
+        <v>278000</v>
       </c>
       <c r="G57" s="3">
-        <v>192700</v>
+        <v>190900</v>
       </c>
       <c r="H57" s="3">
-        <v>87900</v>
+        <v>87100</v>
       </c>
       <c r="I57" s="3">
-        <v>46700</v>
+        <v>46300</v>
       </c>
       <c r="J57" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2444,10 +2444,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>181600</v>
+        <v>179900</v>
       </c>
       <c r="E58" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>954600</v>
+        <v>946000</v>
       </c>
       <c r="E59" s="3">
-        <v>621500</v>
+        <v>615800</v>
       </c>
       <c r="F59" s="3">
-        <v>349000</v>
+        <v>345900</v>
       </c>
       <c r="G59" s="3">
-        <v>293400</v>
+        <v>290800</v>
       </c>
       <c r="H59" s="3">
-        <v>118100</v>
+        <v>117000</v>
       </c>
       <c r="I59" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="J59" s="3">
-        <v>25900</v>
+        <v>25600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1778800</v>
+        <v>1762700</v>
       </c>
       <c r="E60" s="3">
-        <v>1089200</v>
+        <v>1079400</v>
       </c>
       <c r="F60" s="3">
-        <v>629600</v>
+        <v>623900</v>
       </c>
       <c r="G60" s="3">
-        <v>486100</v>
+        <v>481700</v>
       </c>
       <c r="H60" s="3">
-        <v>206000</v>
+        <v>204100</v>
       </c>
       <c r="I60" s="3">
-        <v>92600</v>
+        <v>91700</v>
       </c>
       <c r="J60" s="3">
-        <v>45400</v>
+        <v>45000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2620700</v>
+        <v>2597000</v>
       </c>
       <c r="E61" s="3">
-        <v>1229100</v>
+        <v>1218000</v>
       </c>
       <c r="F61" s="3">
-        <v>503200</v>
+        <v>498600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>71000</v>
+        <v>70400</v>
       </c>
       <c r="E62" s="3">
-        <v>51700</v>
+        <v>51200</v>
       </c>
       <c r="F62" s="3">
-        <v>28400</v>
+        <v>28200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4472300</v>
+        <v>4431900</v>
       </c>
       <c r="E66" s="3">
-        <v>2396900</v>
+        <v>2375200</v>
       </c>
       <c r="F66" s="3">
-        <v>1247300</v>
+        <v>1236000</v>
       </c>
       <c r="G66" s="3">
-        <v>521500</v>
+        <v>516800</v>
       </c>
       <c r="H66" s="3">
-        <v>206000</v>
+        <v>204100</v>
       </c>
       <c r="I66" s="3">
-        <v>92600</v>
+        <v>91800</v>
       </c>
       <c r="J66" s="3">
-        <v>45200</v>
+        <v>44800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>591700</v>
+        <v>586300</v>
       </c>
       <c r="I70" s="3">
-        <v>421700</v>
+        <v>417900</v>
       </c>
       <c r="J70" s="3">
-        <v>205500</v>
+        <v>203600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2055200</v>
+        <v>-2036600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1054700</v>
+        <v>-1045200</v>
       </c>
       <c r="F72" s="3">
-        <v>-608900</v>
+        <v>-603400</v>
       </c>
       <c r="G72" s="3">
-        <v>-417800</v>
+        <v>-414000</v>
       </c>
       <c r="H72" s="3">
-        <v>-326900</v>
+        <v>-324000</v>
       </c>
       <c r="I72" s="3">
-        <v>-261800</v>
+        <v>-259400</v>
       </c>
       <c r="J72" s="3">
-        <v>-96600</v>
+        <v>-95700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3198300</v>
+        <v>3169400</v>
       </c>
       <c r="E76" s="3">
-        <v>1120000</v>
+        <v>1109900</v>
       </c>
       <c r="F76" s="3">
-        <v>1039300</v>
+        <v>1029900</v>
       </c>
       <c r="G76" s="3">
-        <v>1024300</v>
+        <v>1015000</v>
       </c>
       <c r="H76" s="3">
-        <v>-285800</v>
+        <v>-283200</v>
       </c>
       <c r="I76" s="3">
-        <v>-195000</v>
+        <v>-193300</v>
       </c>
       <c r="J76" s="3">
-        <v>-80200</v>
+        <v>-79400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000500</v>
+        <v>-991400</v>
       </c>
       <c r="E81" s="3">
-        <v>-443800</v>
+        <v>-439800</v>
       </c>
       <c r="F81" s="3">
-        <v>-189900</v>
+        <v>-188200</v>
       </c>
       <c r="G81" s="3">
-        <v>-90800</v>
+        <v>-90000</v>
       </c>
       <c r="H81" s="3">
-        <v>-84200</v>
+        <v>-83500</v>
       </c>
       <c r="I81" s="3">
-        <v>-174600</v>
+        <v>-173100</v>
       </c>
       <c r="J81" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>359800</v>
+        <v>356600</v>
       </c>
       <c r="E83" s="3">
-        <v>253700</v>
+        <v>251400</v>
       </c>
       <c r="F83" s="3">
-        <v>161700</v>
+        <v>160300</v>
       </c>
       <c r="G83" s="3">
-        <v>94700</v>
+        <v>93800</v>
       </c>
       <c r="H83" s="3">
-        <v>44900</v>
+        <v>44500</v>
       </c>
       <c r="I83" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="J83" s="3">
         <v>6200</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-390100</v>
+        <v>-386500</v>
       </c>
       <c r="E89" s="3">
-        <v>111000</v>
+        <v>110000</v>
       </c>
       <c r="F89" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="G89" s="3">
-        <v>108600</v>
+        <v>107700</v>
       </c>
       <c r="H89" s="3">
-        <v>68500</v>
+        <v>67800</v>
       </c>
       <c r="I89" s="3">
-        <v>-29300</v>
+        <v>-29100</v>
       </c>
       <c r="J89" s="3">
-        <v>-28300</v>
+        <v>-28000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-142300</v>
+        <v>-141000</v>
       </c>
       <c r="E91" s="3">
-        <v>-88700</v>
+        <v>-87900</v>
       </c>
       <c r="F91" s="3">
-        <v>-43600</v>
+        <v>-43200</v>
       </c>
       <c r="G91" s="3">
-        <v>-43300</v>
+        <v>-42900</v>
       </c>
       <c r="H91" s="3">
-        <v>-21400</v>
+        <v>-21200</v>
       </c>
       <c r="I91" s="3">
         <v>-6200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3621800</v>
+        <v>-3589100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1312500</v>
+        <v>-1300700</v>
       </c>
       <c r="F94" s="3">
-        <v>-583300</v>
+        <v>-578000</v>
       </c>
       <c r="G94" s="3">
-        <v>-471000</v>
+        <v>-466800</v>
       </c>
       <c r="H94" s="3">
-        <v>-105500</v>
+        <v>-104600</v>
       </c>
       <c r="I94" s="3">
-        <v>-175000</v>
+        <v>-173400</v>
       </c>
       <c r="J94" s="3">
-        <v>-53900</v>
+        <v>-53400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4478100</v>
+        <v>4437700</v>
       </c>
       <c r="E100" s="3">
-        <v>1228300</v>
+        <v>1217200</v>
       </c>
       <c r="F100" s="3">
-        <v>748400</v>
+        <v>741700</v>
       </c>
       <c r="G100" s="3">
-        <v>733100</v>
+        <v>726500</v>
       </c>
       <c r="H100" s="3">
-        <v>99500</v>
+        <v>98600</v>
       </c>
       <c r="I100" s="3">
-        <v>150900</v>
+        <v>149500</v>
       </c>
       <c r="J100" s="3">
-        <v>162000</v>
+        <v>160500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-47000</v>
+        <v>-46600</v>
       </c>
       <c r="E101" s="3">
-        <v>-68700</v>
+        <v>-68100</v>
       </c>
       <c r="F101" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="G101" s="3">
-        <v>38500</v>
+        <v>38200</v>
       </c>
       <c r="H101" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="I101" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
         <v>6300</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>419200</v>
+        <v>415500</v>
       </c>
       <c r="E102" s="3">
-        <v>-41900</v>
+        <v>-41600</v>
       </c>
       <c r="F102" s="3">
-        <v>209600</v>
+        <v>207700</v>
       </c>
       <c r="G102" s="3">
-        <v>409200</v>
+        <v>405500</v>
       </c>
       <c r="H102" s="3">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="I102" s="3">
-        <v>-46100</v>
+        <v>-45600</v>
       </c>
       <c r="J102" s="3">
-        <v>86200</v>
+        <v>85400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2830600</v>
+        <v>2698200</v>
       </c>
       <c r="E8" s="3">
-        <v>1752200</v>
+        <v>1670300</v>
       </c>
       <c r="F8" s="3">
-        <v>989800</v>
+        <v>943500</v>
       </c>
       <c r="G8" s="3">
-        <v>602900</v>
+        <v>574700</v>
       </c>
       <c r="H8" s="3">
-        <v>360500</v>
+        <v>343600</v>
       </c>
       <c r="I8" s="3">
-        <v>76400</v>
+        <v>72800</v>
       </c>
       <c r="J8" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2240200</v>
+        <v>2135400</v>
       </c>
       <c r="E9" s="3">
-        <v>1337500</v>
+        <v>1274900</v>
       </c>
       <c r="F9" s="3">
-        <v>816000</v>
+        <v>777800</v>
       </c>
       <c r="G9" s="3">
-        <v>478000</v>
+        <v>455700</v>
       </c>
       <c r="H9" s="3">
-        <v>280300</v>
+        <v>267200</v>
       </c>
       <c r="I9" s="3">
-        <v>112900</v>
+        <v>107600</v>
       </c>
       <c r="J9" s="3">
-        <v>44300</v>
+        <v>42300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>590400</v>
+        <v>562800</v>
       </c>
       <c r="E10" s="3">
-        <v>414800</v>
+        <v>395400</v>
       </c>
       <c r="F10" s="3">
-        <v>173800</v>
+        <v>165700</v>
       </c>
       <c r="G10" s="3">
-        <v>124900</v>
+        <v>119100</v>
       </c>
       <c r="H10" s="3">
-        <v>80200</v>
+        <v>76400</v>
       </c>
       <c r="I10" s="3">
-        <v>-36400</v>
+        <v>-34700</v>
       </c>
       <c r="J10" s="3">
-        <v>-25200</v>
+        <v>-24000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>414700</v>
+        <v>395300</v>
       </c>
       <c r="E12" s="3">
-        <v>220900</v>
+        <v>210600</v>
       </c>
       <c r="F12" s="3">
-        <v>130600</v>
+        <v>124500</v>
       </c>
       <c r="G12" s="3">
-        <v>78500</v>
+        <v>74800</v>
       </c>
       <c r="H12" s="3">
-        <v>40900</v>
+        <v>39000</v>
       </c>
       <c r="I12" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="J12" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3774900</v>
+        <v>3598300</v>
       </c>
       <c r="E17" s="3">
-        <v>2210900</v>
+        <v>2107500</v>
       </c>
       <c r="F17" s="3">
-        <v>1208100</v>
+        <v>1151600</v>
       </c>
       <c r="G17" s="3">
-        <v>709400</v>
+        <v>676200</v>
       </c>
       <c r="H17" s="3">
-        <v>393200</v>
+        <v>374800</v>
       </c>
       <c r="I17" s="3">
-        <v>207100</v>
+        <v>197400</v>
       </c>
       <c r="J17" s="3">
-        <v>73000</v>
+        <v>69600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-944300</v>
+        <v>-900100</v>
       </c>
       <c r="E18" s="3">
-        <v>-458700</v>
+        <v>-437200</v>
       </c>
       <c r="F18" s="3">
-        <v>-218300</v>
+        <v>-208100</v>
       </c>
       <c r="G18" s="3">
-        <v>-106500</v>
+        <v>-101500</v>
       </c>
       <c r="H18" s="3">
-        <v>-32800</v>
+        <v>-31200</v>
       </c>
       <c r="I18" s="3">
-        <v>-130700</v>
+        <v>-124500</v>
       </c>
       <c r="J18" s="3">
-        <v>-53900</v>
+        <v>-51300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,22 +1123,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13400</v>
+        <v>-12800</v>
       </c>
       <c r="E20" s="3">
-        <v>36300</v>
+        <v>34600</v>
       </c>
       <c r="F20" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="G20" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="H20" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-601600</v>
+        <v>-575600</v>
       </c>
       <c r="E21" s="3">
-        <v>-171300</v>
+        <v>-164800</v>
       </c>
       <c r="F21" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="G21" s="3">
-        <v>15000</v>
+        <v>13700</v>
       </c>
       <c r="H21" s="3">
-        <v>18800</v>
+        <v>17700</v>
       </c>
       <c r="I21" s="3">
-        <v>-109100</v>
+        <v>-104100</v>
       </c>
       <c r="J21" s="3">
-        <v>-48000</v>
+        <v>-45800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22700</v>
+        <v>21600</v>
       </c>
       <c r="E22" s="3">
-        <v>15900</v>
+        <v>15100</v>
       </c>
       <c r="F22" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-980400</v>
+        <v>-934500</v>
       </c>
       <c r="E23" s="3">
-        <v>-438200</v>
+        <v>-417700</v>
       </c>
       <c r="F23" s="3">
-        <v>-185100</v>
+        <v>-176500</v>
       </c>
       <c r="G23" s="3">
-        <v>-78700</v>
+        <v>-75000</v>
       </c>
       <c r="H23" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="I23" s="3">
-        <v>-132600</v>
+        <v>-126400</v>
       </c>
       <c r="J23" s="3">
-        <v>-54200</v>
+        <v>-51700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13900</v>
+        <v>13300</v>
       </c>
       <c r="E24" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="F24" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="H24" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-994300</v>
+        <v>-947800</v>
       </c>
       <c r="E26" s="3">
-        <v>-446000</v>
+        <v>-425100</v>
       </c>
       <c r="F26" s="3">
-        <v>-190400</v>
+        <v>-181500</v>
       </c>
       <c r="G26" s="3">
-        <v>-82500</v>
+        <v>-78700</v>
       </c>
       <c r="H26" s="3">
-        <v>-26800</v>
+        <v>-25600</v>
       </c>
       <c r="I26" s="3">
-        <v>-133100</v>
+        <v>-126900</v>
       </c>
       <c r="J26" s="3">
-        <v>-54500</v>
+        <v>-52000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-991400</v>
+        <v>-945100</v>
       </c>
       <c r="E27" s="3">
-        <v>-439800</v>
+        <v>-419200</v>
       </c>
       <c r="F27" s="3">
-        <v>-188200</v>
+        <v>-179400</v>
       </c>
       <c r="G27" s="3">
-        <v>-90000</v>
+        <v>-85800</v>
       </c>
       <c r="H27" s="3">
-        <v>-83500</v>
+        <v>-79600</v>
       </c>
       <c r="I27" s="3">
-        <v>-173100</v>
+        <v>-165000</v>
       </c>
       <c r="J27" s="3">
-        <v>-83100</v>
+        <v>-79200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="E32" s="3">
-        <v>-36300</v>
+        <v>-34600</v>
       </c>
       <c r="F32" s="3">
-        <v>-40000</v>
+        <v>-38100</v>
       </c>
       <c r="G32" s="3">
-        <v>-27700</v>
+        <v>-26400</v>
       </c>
       <c r="H32" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="I32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-991400</v>
+        <v>-945100</v>
       </c>
       <c r="E33" s="3">
-        <v>-439800</v>
+        <v>-419200</v>
       </c>
       <c r="F33" s="3">
-        <v>-188200</v>
+        <v>-179400</v>
       </c>
       <c r="G33" s="3">
-        <v>-90000</v>
+        <v>-85800</v>
       </c>
       <c r="H33" s="3">
-        <v>-83500</v>
+        <v>-79600</v>
       </c>
       <c r="I33" s="3">
-        <v>-173100</v>
+        <v>-165000</v>
       </c>
       <c r="J33" s="3">
-        <v>-83100</v>
+        <v>-79200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-991400</v>
+        <v>-945100</v>
       </c>
       <c r="E35" s="3">
-        <v>-439800</v>
+        <v>-419200</v>
       </c>
       <c r="F35" s="3">
-        <v>-188200</v>
+        <v>-179400</v>
       </c>
       <c r="G35" s="3">
-        <v>-90000</v>
+        <v>-85800</v>
       </c>
       <c r="H35" s="3">
-        <v>-83500</v>
+        <v>-79600</v>
       </c>
       <c r="I35" s="3">
-        <v>-173100</v>
+        <v>-165000</v>
       </c>
       <c r="J35" s="3">
-        <v>-83100</v>
+        <v>-79200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1098600</v>
+        <v>1047200</v>
       </c>
       <c r="E41" s="3">
-        <v>683100</v>
+        <v>651200</v>
       </c>
       <c r="F41" s="3">
-        <v>724700</v>
+        <v>690800</v>
       </c>
       <c r="G41" s="3">
-        <v>517000</v>
+        <v>492800</v>
       </c>
       <c r="H41" s="3">
-        <v>111400</v>
+        <v>106200</v>
       </c>
       <c r="I41" s="3">
-        <v>56500</v>
+        <v>53900</v>
       </c>
       <c r="J41" s="3">
-        <v>100700</v>
+        <v>96000</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3329400</v>
+        <v>3173700</v>
       </c>
       <c r="E42" s="3">
-        <v>1187100</v>
+        <v>1131500</v>
       </c>
       <c r="F42" s="3">
-        <v>457300</v>
+        <v>435900</v>
       </c>
       <c r="G42" s="3">
-        <v>250500</v>
+        <v>238800</v>
       </c>
       <c r="H42" s="3">
-        <v>73800</v>
+        <v>70300</v>
       </c>
       <c r="I42" s="3">
-        <v>105400</v>
+        <v>100500</v>
       </c>
       <c r="J42" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>511600</v>
+        <v>487700</v>
       </c>
       <c r="E43" s="3">
-        <v>206300</v>
+        <v>196600</v>
       </c>
       <c r="F43" s="3">
-        <v>160400</v>
+        <v>152900</v>
       </c>
       <c r="G43" s="3">
-        <v>63600</v>
+        <v>60600</v>
       </c>
       <c r="H43" s="3">
-        <v>66400</v>
+        <v>63300</v>
       </c>
       <c r="I43" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="J43" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1942,22 +1942,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>66600</v>
+        <v>63400</v>
       </c>
       <c r="E44" s="3">
-        <v>23400</v>
+        <v>22300</v>
       </c>
       <c r="F44" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="G44" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="H44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I44" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>316200</v>
+        <v>301400</v>
       </c>
       <c r="E45" s="3">
-        <v>198600</v>
+        <v>189300</v>
       </c>
       <c r="F45" s="3">
-        <v>155000</v>
+        <v>147800</v>
       </c>
       <c r="G45" s="3">
-        <v>117500</v>
+        <v>112000</v>
       </c>
       <c r="H45" s="3">
-        <v>61300</v>
+        <v>58500</v>
       </c>
       <c r="I45" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="J45" s="3">
-        <v>11300</v>
+        <v>10700</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5322300</v>
+        <v>5073400</v>
       </c>
       <c r="E46" s="3">
-        <v>2298400</v>
+        <v>2190900</v>
       </c>
       <c r="F46" s="3">
-        <v>1507600</v>
+        <v>1437100</v>
       </c>
       <c r="G46" s="3">
-        <v>956500</v>
+        <v>911800</v>
       </c>
       <c r="H46" s="3">
-        <v>314400</v>
+        <v>299700</v>
       </c>
       <c r="I46" s="3">
-        <v>204600</v>
+        <v>195000</v>
       </c>
       <c r="J46" s="3">
-        <v>124500</v>
+        <v>118700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>803500</v>
+        <v>766000</v>
       </c>
       <c r="E47" s="3">
-        <v>326100</v>
+        <v>310800</v>
       </c>
       <c r="F47" s="3">
-        <v>182700</v>
+        <v>174200</v>
       </c>
       <c r="G47" s="3">
-        <v>143100</v>
+        <v>136400</v>
       </c>
       <c r="H47" s="3">
-        <v>92900</v>
+        <v>88500</v>
       </c>
       <c r="I47" s="3">
-        <v>55100</v>
+        <v>52500</v>
       </c>
       <c r="J47" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>197200</v>
+        <v>188000</v>
       </c>
       <c r="E48" s="3">
-        <v>111300</v>
+        <v>106100</v>
       </c>
       <c r="F48" s="3">
-        <v>109800</v>
+        <v>104600</v>
       </c>
       <c r="G48" s="3">
-        <v>57700</v>
+        <v>55000</v>
       </c>
       <c r="H48" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="I48" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="J48" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>901600</v>
+        <v>859400</v>
       </c>
       <c r="E49" s="3">
-        <v>533400</v>
+        <v>508500</v>
       </c>
       <c r="F49" s="3">
-        <v>389800</v>
+        <v>371600</v>
       </c>
       <c r="G49" s="3">
-        <v>344800</v>
+        <v>328600</v>
       </c>
       <c r="H49" s="3">
-        <v>69700</v>
+        <v>66400</v>
       </c>
       <c r="I49" s="3">
-        <v>48700</v>
+        <v>46400</v>
       </c>
       <c r="J49" s="3">
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,19 +2254,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>376700</v>
+        <v>359100</v>
       </c>
       <c r="E52" s="3">
-        <v>215900</v>
+        <v>205800</v>
       </c>
       <c r="F52" s="3">
-        <v>76000</v>
+        <v>72400</v>
       </c>
       <c r="G52" s="3">
-        <v>29800</v>
+        <v>28400</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7601300</v>
+        <v>7245800</v>
       </c>
       <c r="E54" s="3">
-        <v>3485100</v>
+        <v>3322100</v>
       </c>
       <c r="F54" s="3">
-        <v>2265900</v>
+        <v>2159900</v>
       </c>
       <c r="G54" s="3">
-        <v>1531900</v>
+        <v>1460200</v>
       </c>
       <c r="H54" s="3">
-        <v>507200</v>
+        <v>483500</v>
       </c>
       <c r="I54" s="3">
-        <v>316400</v>
+        <v>301600</v>
       </c>
       <c r="J54" s="3">
-        <v>168900</v>
+        <v>161000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>636800</v>
+        <v>607000</v>
       </c>
       <c r="E57" s="3">
-        <v>448900</v>
+        <v>427900</v>
       </c>
       <c r="F57" s="3">
-        <v>278000</v>
+        <v>265000</v>
       </c>
       <c r="G57" s="3">
-        <v>190900</v>
+        <v>182000</v>
       </c>
       <c r="H57" s="3">
-        <v>87100</v>
+        <v>83000</v>
       </c>
       <c r="I57" s="3">
-        <v>46300</v>
+        <v>44100</v>
       </c>
       <c r="J57" s="3">
-        <v>17900</v>
+        <v>17100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2444,10 +2444,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>179900</v>
+        <v>171500</v>
       </c>
       <c r="E58" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>946000</v>
+        <v>901700</v>
       </c>
       <c r="E59" s="3">
-        <v>615800</v>
+        <v>587000</v>
       </c>
       <c r="F59" s="3">
-        <v>345900</v>
+        <v>329700</v>
       </c>
       <c r="G59" s="3">
-        <v>290800</v>
+        <v>277200</v>
       </c>
       <c r="H59" s="3">
-        <v>117000</v>
+        <v>111600</v>
       </c>
       <c r="I59" s="3">
-        <v>45500</v>
+        <v>43300</v>
       </c>
       <c r="J59" s="3">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1762700</v>
+        <v>1680300</v>
       </c>
       <c r="E60" s="3">
-        <v>1079400</v>
+        <v>1028900</v>
       </c>
       <c r="F60" s="3">
-        <v>623900</v>
+        <v>594700</v>
       </c>
       <c r="G60" s="3">
-        <v>481700</v>
+        <v>459200</v>
       </c>
       <c r="H60" s="3">
-        <v>204100</v>
+        <v>194600</v>
       </c>
       <c r="I60" s="3">
-        <v>91700</v>
+        <v>87400</v>
       </c>
       <c r="J60" s="3">
-        <v>45000</v>
+        <v>42900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2597000</v>
+        <v>2475500</v>
       </c>
       <c r="E61" s="3">
-        <v>1218000</v>
+        <v>1161100</v>
       </c>
       <c r="F61" s="3">
-        <v>498600</v>
+        <v>475300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>70400</v>
+        <v>67100</v>
       </c>
       <c r="E62" s="3">
-        <v>51200</v>
+        <v>48900</v>
       </c>
       <c r="F62" s="3">
-        <v>28200</v>
+        <v>26800</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4431900</v>
+        <v>4224600</v>
       </c>
       <c r="E66" s="3">
-        <v>2375200</v>
+        <v>2264100</v>
       </c>
       <c r="F66" s="3">
-        <v>1236000</v>
+        <v>1178200</v>
       </c>
       <c r="G66" s="3">
-        <v>516800</v>
+        <v>492700</v>
       </c>
       <c r="H66" s="3">
-        <v>204100</v>
+        <v>194600</v>
       </c>
       <c r="I66" s="3">
-        <v>91800</v>
+        <v>87500</v>
       </c>
       <c r="J66" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>586300</v>
+        <v>558900</v>
       </c>
       <c r="I70" s="3">
-        <v>417900</v>
+        <v>398300</v>
       </c>
       <c r="J70" s="3">
-        <v>203600</v>
+        <v>194100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2036600</v>
+        <v>-1941400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1045200</v>
+        <v>-996300</v>
       </c>
       <c r="F72" s="3">
-        <v>-603400</v>
+        <v>-575200</v>
       </c>
       <c r="G72" s="3">
-        <v>-414000</v>
+        <v>-394600</v>
       </c>
       <c r="H72" s="3">
-        <v>-324000</v>
+        <v>-308800</v>
       </c>
       <c r="I72" s="3">
-        <v>-259400</v>
+        <v>-247300</v>
       </c>
       <c r="J72" s="3">
-        <v>-95700</v>
+        <v>-91200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3169400</v>
+        <v>3021200</v>
       </c>
       <c r="E76" s="3">
-        <v>1109900</v>
+        <v>1057900</v>
       </c>
       <c r="F76" s="3">
-        <v>1029900</v>
+        <v>981700</v>
       </c>
       <c r="G76" s="3">
-        <v>1015000</v>
+        <v>967600</v>
       </c>
       <c r="H76" s="3">
-        <v>-283200</v>
+        <v>-270000</v>
       </c>
       <c r="I76" s="3">
-        <v>-193300</v>
+        <v>-184200</v>
       </c>
       <c r="J76" s="3">
-        <v>-79400</v>
+        <v>-75700</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-991400</v>
+        <v>-945100</v>
       </c>
       <c r="E81" s="3">
-        <v>-439800</v>
+        <v>-419200</v>
       </c>
       <c r="F81" s="3">
-        <v>-188200</v>
+        <v>-179400</v>
       </c>
       <c r="G81" s="3">
-        <v>-90000</v>
+        <v>-85800</v>
       </c>
       <c r="H81" s="3">
-        <v>-83500</v>
+        <v>-79600</v>
       </c>
       <c r="I81" s="3">
-        <v>-173100</v>
+        <v>-165000</v>
       </c>
       <c r="J81" s="3">
-        <v>-83100</v>
+        <v>-79200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>356600</v>
+        <v>339900</v>
       </c>
       <c r="E83" s="3">
-        <v>251400</v>
+        <v>239700</v>
       </c>
       <c r="F83" s="3">
-        <v>160300</v>
+        <v>152800</v>
       </c>
       <c r="G83" s="3">
-        <v>93800</v>
+        <v>89400</v>
       </c>
       <c r="H83" s="3">
-        <v>44500</v>
+        <v>42400</v>
       </c>
       <c r="I83" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="J83" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-386500</v>
+        <v>-368500</v>
       </c>
       <c r="E89" s="3">
-        <v>110000</v>
+        <v>104800</v>
       </c>
       <c r="F89" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="G89" s="3">
-        <v>107700</v>
+        <v>102600</v>
       </c>
       <c r="H89" s="3">
-        <v>67800</v>
+        <v>64700</v>
       </c>
       <c r="I89" s="3">
-        <v>-29100</v>
+        <v>-27700</v>
       </c>
       <c r="J89" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-141000</v>
+        <v>-134400</v>
       </c>
       <c r="E91" s="3">
-        <v>-87900</v>
+        <v>-83800</v>
       </c>
       <c r="F91" s="3">
-        <v>-43200</v>
+        <v>-41200</v>
       </c>
       <c r="G91" s="3">
-        <v>-42900</v>
+        <v>-40900</v>
       </c>
       <c r="H91" s="3">
-        <v>-21200</v>
+        <v>-20200</v>
       </c>
       <c r="I91" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3589100</v>
+        <v>-3421300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1300700</v>
+        <v>-1239800</v>
       </c>
       <c r="F94" s="3">
-        <v>-578000</v>
+        <v>-551000</v>
       </c>
       <c r="G94" s="3">
-        <v>-466800</v>
+        <v>-444900</v>
       </c>
       <c r="H94" s="3">
-        <v>-104600</v>
+        <v>-99700</v>
       </c>
       <c r="I94" s="3">
-        <v>-173400</v>
+        <v>-165300</v>
       </c>
       <c r="J94" s="3">
-        <v>-53400</v>
+        <v>-50900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4437700</v>
+        <v>4230200</v>
       </c>
       <c r="E100" s="3">
-        <v>1217200</v>
+        <v>1160300</v>
       </c>
       <c r="F100" s="3">
-        <v>741700</v>
+        <v>707000</v>
       </c>
       <c r="G100" s="3">
-        <v>726500</v>
+        <v>692500</v>
       </c>
       <c r="H100" s="3">
-        <v>98600</v>
+        <v>94000</v>
       </c>
       <c r="I100" s="3">
-        <v>149500</v>
+        <v>142600</v>
       </c>
       <c r="J100" s="3">
-        <v>160500</v>
+        <v>153000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-46600</v>
+        <v>-44400</v>
       </c>
       <c r="E101" s="3">
-        <v>-68100</v>
+        <v>-64900</v>
       </c>
       <c r="F101" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="G101" s="3">
-        <v>38200</v>
+        <v>36400</v>
       </c>
       <c r="H101" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="J101" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>415500</v>
+        <v>396000</v>
       </c>
       <c r="E102" s="3">
-        <v>-41600</v>
+        <v>-39600</v>
       </c>
       <c r="F102" s="3">
-        <v>207700</v>
+        <v>198000</v>
       </c>
       <c r="G102" s="3">
-        <v>405500</v>
+        <v>386600</v>
       </c>
       <c r="H102" s="3">
-        <v>54900</v>
+        <v>52300</v>
       </c>
       <c r="I102" s="3">
-        <v>-45600</v>
+        <v>-43500</v>
       </c>
       <c r="J102" s="3">
-        <v>85400</v>
+        <v>81400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,36 +717,39 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2698200</v>
+        <v>3145200</v>
       </c>
       <c r="E8" s="3">
-        <v>1670300</v>
+        <v>2783900</v>
       </c>
       <c r="F8" s="3">
-        <v>943500</v>
+        <v>1723300</v>
       </c>
       <c r="G8" s="3">
-        <v>574700</v>
+        <v>973400</v>
       </c>
       <c r="H8" s="3">
-        <v>343600</v>
+        <v>593000</v>
       </c>
       <c r="I8" s="3">
-        <v>72800</v>
+        <v>354500</v>
       </c>
       <c r="J8" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K8" s="3">
         <v>18200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -756,36 +759,39 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2135400</v>
+        <v>2592300</v>
       </c>
       <c r="E9" s="3">
-        <v>1274900</v>
+        <v>2203200</v>
       </c>
       <c r="F9" s="3">
-        <v>777800</v>
+        <v>1315400</v>
       </c>
       <c r="G9" s="3">
-        <v>455700</v>
+        <v>802500</v>
       </c>
       <c r="H9" s="3">
-        <v>267200</v>
+        <v>470100</v>
       </c>
       <c r="I9" s="3">
-        <v>107600</v>
+        <v>275600</v>
       </c>
       <c r="J9" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K9" s="3">
         <v>42300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,36 +801,39 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>562800</v>
+        <v>552800</v>
       </c>
       <c r="E10" s="3">
-        <v>395400</v>
+        <v>580700</v>
       </c>
       <c r="F10" s="3">
-        <v>165700</v>
+        <v>407900</v>
       </c>
       <c r="G10" s="3">
-        <v>119100</v>
+        <v>170900</v>
       </c>
       <c r="H10" s="3">
-        <v>76400</v>
+        <v>122900</v>
       </c>
       <c r="I10" s="3">
-        <v>-34700</v>
+        <v>78900</v>
       </c>
       <c r="J10" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K10" s="3">
         <v>-24000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,35 +864,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>395300</v>
+        <v>684400</v>
       </c>
       <c r="E12" s="3">
-        <v>210600</v>
+        <v>407900</v>
       </c>
       <c r="F12" s="3">
-        <v>124500</v>
+        <v>217300</v>
       </c>
       <c r="G12" s="3">
-        <v>74800</v>
+        <v>128500</v>
       </c>
       <c r="H12" s="3">
-        <v>39000</v>
+        <v>77200</v>
       </c>
       <c r="I12" s="3">
-        <v>12700</v>
+        <v>40200</v>
       </c>
       <c r="J12" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K12" s="3">
         <v>3500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,17 +945,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>-189400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -956,8 +975,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -968,9 +987,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,35 +1047,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3598300</v>
+        <v>4156100</v>
       </c>
       <c r="E17" s="3">
-        <v>2107500</v>
+        <v>3712600</v>
       </c>
       <c r="F17" s="3">
-        <v>1151600</v>
+        <v>2174400</v>
       </c>
       <c r="G17" s="3">
-        <v>676200</v>
+        <v>1188200</v>
       </c>
       <c r="H17" s="3">
-        <v>374800</v>
+        <v>697700</v>
       </c>
       <c r="I17" s="3">
-        <v>197400</v>
+        <v>386700</v>
       </c>
       <c r="J17" s="3">
+        <v>203700</v>
+      </c>
+      <c r="K17" s="3">
         <v>69600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,36 +1086,39 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-900100</v>
+        <v>-1011000</v>
       </c>
       <c r="E18" s="3">
-        <v>-437200</v>
+        <v>-928700</v>
       </c>
       <c r="F18" s="3">
-        <v>-208100</v>
+        <v>-451100</v>
       </c>
       <c r="G18" s="3">
-        <v>-101500</v>
+        <v>-214700</v>
       </c>
       <c r="H18" s="3">
-        <v>-31200</v>
+        <v>-104700</v>
       </c>
       <c r="I18" s="3">
-        <v>-124500</v>
+        <v>-32200</v>
       </c>
       <c r="J18" s="3">
+        <v>-128500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-51300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1099,9 +1128,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,35 +1149,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12800</v>
+        <v>-16300</v>
       </c>
       <c r="E20" s="3">
-        <v>34600</v>
+        <v>-13200</v>
       </c>
       <c r="F20" s="3">
-        <v>38100</v>
+        <v>35700</v>
       </c>
       <c r="G20" s="3">
-        <v>26400</v>
+        <v>39400</v>
       </c>
       <c r="H20" s="3">
-        <v>6900</v>
+        <v>27300</v>
       </c>
       <c r="I20" s="3">
-        <v>-1900</v>
+        <v>7100</v>
       </c>
       <c r="J20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,36 +1188,39 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-575600</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-164800</v>
+        <v>-590500</v>
       </c>
       <c r="F21" s="3">
-        <v>-18400</v>
+        <v>-167600</v>
       </c>
       <c r="G21" s="3">
-        <v>13700</v>
+        <v>-17500</v>
       </c>
       <c r="H21" s="3">
-        <v>17700</v>
+        <v>15000</v>
       </c>
       <c r="I21" s="3">
-        <v>-104100</v>
+        <v>18700</v>
       </c>
       <c r="J21" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-45800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,23 +1230,26 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21600</v>
+        <v>36000</v>
       </c>
       <c r="E22" s="3">
-        <v>15100</v>
+        <v>22300</v>
       </c>
       <c r="F22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>15600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1227,42 +1266,45 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-934500</v>
+        <v>-1063300</v>
       </c>
       <c r="E23" s="3">
-        <v>-417700</v>
+        <v>-964200</v>
       </c>
       <c r="F23" s="3">
-        <v>-176500</v>
+        <v>-431000</v>
       </c>
       <c r="G23" s="3">
-        <v>-75000</v>
+        <v>-182100</v>
       </c>
       <c r="H23" s="3">
-        <v>-24300</v>
+        <v>-77400</v>
       </c>
       <c r="I23" s="3">
-        <v>-126400</v>
+        <v>-25100</v>
       </c>
       <c r="J23" s="3">
+        <v>-130500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-51700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1272,36 +1314,39 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13300</v>
+        <v>15000</v>
       </c>
       <c r="E24" s="3">
-        <v>7400</v>
+        <v>13700</v>
       </c>
       <c r="F24" s="3">
-        <v>5000</v>
+        <v>7700</v>
       </c>
       <c r="G24" s="3">
-        <v>3600</v>
+        <v>5200</v>
       </c>
       <c r="H24" s="3">
-        <v>1200</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,36 +1398,39 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-947800</v>
+        <v>-1078200</v>
       </c>
       <c r="E26" s="3">
-        <v>-425100</v>
+        <v>-977900</v>
       </c>
       <c r="F26" s="3">
-        <v>-181500</v>
+        <v>-438600</v>
       </c>
       <c r="G26" s="3">
-        <v>-78700</v>
+        <v>-187200</v>
       </c>
       <c r="H26" s="3">
-        <v>-25600</v>
+        <v>-81100</v>
       </c>
       <c r="I26" s="3">
-        <v>-126900</v>
+        <v>-26400</v>
       </c>
       <c r="J26" s="3">
+        <v>-130900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-52000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,36 +1440,39 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-945100</v>
+        <v>-1076700</v>
       </c>
       <c r="E27" s="3">
-        <v>-419200</v>
+        <v>-975100</v>
       </c>
       <c r="F27" s="3">
-        <v>-179400</v>
+        <v>-432500</v>
       </c>
       <c r="G27" s="3">
-        <v>-85800</v>
+        <v>-185100</v>
       </c>
       <c r="H27" s="3">
-        <v>-79600</v>
+        <v>-88500</v>
       </c>
       <c r="I27" s="3">
-        <v>-165000</v>
+        <v>-82100</v>
       </c>
       <c r="J27" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-79200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,9 +1482,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,36 +1650,39 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12800</v>
+        <v>16300</v>
       </c>
       <c r="E32" s="3">
-        <v>-34600</v>
+        <v>13200</v>
       </c>
       <c r="F32" s="3">
-        <v>-38100</v>
+        <v>-35700</v>
       </c>
       <c r="G32" s="3">
-        <v>-26400</v>
+        <v>-39400</v>
       </c>
       <c r="H32" s="3">
-        <v>-6900</v>
+        <v>-27300</v>
       </c>
       <c r="I32" s="3">
-        <v>1900</v>
+        <v>-7100</v>
       </c>
       <c r="J32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1623,36 +1692,39 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-945100</v>
+        <v>-1076700</v>
       </c>
       <c r="E33" s="3">
-        <v>-419200</v>
+        <v>-975100</v>
       </c>
       <c r="F33" s="3">
-        <v>-179400</v>
+        <v>-432500</v>
       </c>
       <c r="G33" s="3">
-        <v>-85800</v>
+        <v>-185100</v>
       </c>
       <c r="H33" s="3">
-        <v>-79600</v>
+        <v>-88500</v>
       </c>
       <c r="I33" s="3">
-        <v>-165000</v>
+        <v>-82100</v>
       </c>
       <c r="J33" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-79200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,9 +1734,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,36 +1776,39 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-945100</v>
+        <v>-1076700</v>
       </c>
       <c r="E35" s="3">
-        <v>-419200</v>
+        <v>-975100</v>
       </c>
       <c r="F35" s="3">
-        <v>-179400</v>
+        <v>-432500</v>
       </c>
       <c r="G35" s="3">
-        <v>-85800</v>
+        <v>-185100</v>
       </c>
       <c r="H35" s="3">
-        <v>-79600</v>
+        <v>-88500</v>
       </c>
       <c r="I35" s="3">
-        <v>-165000</v>
+        <v>-82100</v>
       </c>
       <c r="J35" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-79200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,41 +1818,44 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1784,9 +1865,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,35 +1904,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1047200</v>
+        <v>1461000</v>
       </c>
       <c r="E41" s="3">
-        <v>651200</v>
+        <v>1080500</v>
       </c>
       <c r="F41" s="3">
-        <v>690800</v>
+        <v>671900</v>
       </c>
       <c r="G41" s="3">
-        <v>492800</v>
+        <v>712700</v>
       </c>
       <c r="H41" s="3">
-        <v>106200</v>
+        <v>508400</v>
       </c>
       <c r="I41" s="3">
-        <v>53900</v>
+        <v>109600</v>
       </c>
       <c r="J41" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K41" s="3">
         <v>96000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1857,36 +1943,39 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3173700</v>
+        <v>1348800</v>
       </c>
       <c r="E42" s="3">
-        <v>1131500</v>
+        <v>3274500</v>
       </c>
       <c r="F42" s="3">
-        <v>435900</v>
+        <v>1167500</v>
       </c>
       <c r="G42" s="3">
-        <v>238800</v>
+        <v>449800</v>
       </c>
       <c r="H42" s="3">
-        <v>70300</v>
+        <v>246300</v>
       </c>
       <c r="I42" s="3">
-        <v>100500</v>
+        <v>72600</v>
       </c>
       <c r="J42" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K42" s="3">
         <v>7800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,36 +1985,39 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>487700</v>
+        <v>190800</v>
       </c>
       <c r="E43" s="3">
-        <v>196600</v>
+        <v>503100</v>
       </c>
       <c r="F43" s="3">
-        <v>152900</v>
+        <v>202900</v>
       </c>
       <c r="G43" s="3">
-        <v>60600</v>
+        <v>157700</v>
       </c>
       <c r="H43" s="3">
-        <v>63300</v>
+        <v>62500</v>
       </c>
       <c r="I43" s="3">
-        <v>17900</v>
+        <v>65400</v>
       </c>
       <c r="J43" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,36 +2027,39 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>63400</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>22300</v>
+        <v>65500</v>
       </c>
       <c r="F44" s="3">
-        <v>9700</v>
+        <v>23000</v>
       </c>
       <c r="G44" s="3">
-        <v>7700</v>
+        <v>10000</v>
       </c>
       <c r="H44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I44" s="3">
         <v>1400</v>
       </c>
-      <c r="I44" s="3">
-        <v>900</v>
-      </c>
       <c r="J44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1974,36 +2069,39 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>301400</v>
+        <v>511300</v>
       </c>
       <c r="E45" s="3">
-        <v>189300</v>
+        <v>311000</v>
       </c>
       <c r="F45" s="3">
-        <v>147800</v>
+        <v>195300</v>
       </c>
       <c r="G45" s="3">
-        <v>112000</v>
+        <v>152500</v>
       </c>
       <c r="H45" s="3">
-        <v>58500</v>
+        <v>115500</v>
       </c>
       <c r="I45" s="3">
-        <v>21700</v>
+        <v>60300</v>
       </c>
       <c r="J45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,36 +2111,39 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5073400</v>
+        <v>3511900</v>
       </c>
       <c r="E46" s="3">
-        <v>2190900</v>
+        <v>5234500</v>
       </c>
       <c r="F46" s="3">
-        <v>1437100</v>
+        <v>2260500</v>
       </c>
       <c r="G46" s="3">
-        <v>911800</v>
+        <v>1482700</v>
       </c>
       <c r="H46" s="3">
-        <v>299700</v>
+        <v>940700</v>
       </c>
       <c r="I46" s="3">
-        <v>195000</v>
+        <v>309200</v>
       </c>
       <c r="J46" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K46" s="3">
         <v>118700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,36 +2153,39 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>766000</v>
+        <v>811600</v>
       </c>
       <c r="E47" s="3">
-        <v>310800</v>
+        <v>790300</v>
       </c>
       <c r="F47" s="3">
-        <v>174200</v>
+        <v>320700</v>
       </c>
       <c r="G47" s="3">
-        <v>136400</v>
+        <v>179700</v>
       </c>
       <c r="H47" s="3">
-        <v>88500</v>
+        <v>140700</v>
       </c>
       <c r="I47" s="3">
-        <v>52500</v>
+        <v>91300</v>
       </c>
       <c r="J47" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K47" s="3">
         <v>22400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,36 +2195,39 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>188000</v>
+        <v>176200</v>
       </c>
       <c r="E48" s="3">
-        <v>106100</v>
+        <v>193900</v>
       </c>
       <c r="F48" s="3">
-        <v>104600</v>
+        <v>109400</v>
       </c>
       <c r="G48" s="3">
-        <v>55000</v>
+        <v>108000</v>
       </c>
       <c r="H48" s="3">
-        <v>25900</v>
+        <v>56700</v>
       </c>
       <c r="I48" s="3">
-        <v>7100</v>
+        <v>26800</v>
       </c>
       <c r="J48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,36 +2237,39 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>859400</v>
+        <v>1012800</v>
       </c>
       <c r="E49" s="3">
-        <v>508500</v>
+        <v>886700</v>
       </c>
       <c r="F49" s="3">
-        <v>371600</v>
+        <v>524600</v>
       </c>
       <c r="G49" s="3">
-        <v>328600</v>
+        <v>383400</v>
       </c>
       <c r="H49" s="3">
-        <v>66400</v>
+        <v>339100</v>
       </c>
       <c r="I49" s="3">
-        <v>46400</v>
+        <v>68500</v>
       </c>
       <c r="J49" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K49" s="3">
         <v>15200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,35 +2363,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>359100</v>
+        <v>495100</v>
       </c>
       <c r="E52" s="3">
-        <v>205800</v>
+        <v>370500</v>
       </c>
       <c r="F52" s="3">
-        <v>72400</v>
+        <v>212300</v>
       </c>
       <c r="G52" s="3">
-        <v>28400</v>
+        <v>74700</v>
       </c>
       <c r="H52" s="3">
-        <v>2900</v>
+        <v>29300</v>
       </c>
       <c r="I52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,36 +2447,39 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7245800</v>
+        <v>6007700</v>
       </c>
       <c r="E54" s="3">
-        <v>3322100</v>
+        <v>7475900</v>
       </c>
       <c r="F54" s="3">
-        <v>2159900</v>
+        <v>3427600</v>
       </c>
       <c r="G54" s="3">
-        <v>1460200</v>
+        <v>2228500</v>
       </c>
       <c r="H54" s="3">
-        <v>483500</v>
+        <v>1506600</v>
       </c>
       <c r="I54" s="3">
-        <v>301600</v>
+        <v>498900</v>
       </c>
       <c r="J54" s="3">
+        <v>311200</v>
+      </c>
+      <c r="K54" s="3">
         <v>161000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,35 +2528,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>607000</v>
+        <v>616400</v>
       </c>
       <c r="E57" s="3">
-        <v>427900</v>
+        <v>626300</v>
       </c>
       <c r="F57" s="3">
-        <v>265000</v>
+        <v>441500</v>
       </c>
       <c r="G57" s="3">
-        <v>182000</v>
+        <v>273500</v>
       </c>
       <c r="H57" s="3">
-        <v>83000</v>
+        <v>187800</v>
       </c>
       <c r="I57" s="3">
-        <v>44100</v>
+        <v>85700</v>
       </c>
       <c r="J57" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K57" s="3">
         <v>17100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,36 +2567,39 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>171500</v>
+        <v>951000</v>
       </c>
       <c r="E58" s="3">
-        <v>13900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>177000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>14400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,36 +2609,39 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>901700</v>
+        <v>887600</v>
       </c>
       <c r="E59" s="3">
-        <v>587000</v>
+        <v>930400</v>
       </c>
       <c r="F59" s="3">
-        <v>329700</v>
+        <v>605700</v>
       </c>
       <c r="G59" s="3">
-        <v>277200</v>
+        <v>340200</v>
       </c>
       <c r="H59" s="3">
-        <v>111600</v>
+        <v>286000</v>
       </c>
       <c r="I59" s="3">
-        <v>43300</v>
+        <v>115100</v>
       </c>
       <c r="J59" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K59" s="3">
         <v>24400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2515,36 +2651,39 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1680300</v>
+        <v>2455000</v>
       </c>
       <c r="E60" s="3">
-        <v>1028900</v>
+        <v>1733600</v>
       </c>
       <c r="F60" s="3">
-        <v>594700</v>
+        <v>1061600</v>
       </c>
       <c r="G60" s="3">
-        <v>459200</v>
+        <v>613600</v>
       </c>
       <c r="H60" s="3">
-        <v>194600</v>
+        <v>473800</v>
       </c>
       <c r="I60" s="3">
-        <v>87400</v>
+        <v>200800</v>
       </c>
       <c r="J60" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K60" s="3">
         <v>42900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,23 +2693,26 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2475500</v>
+        <v>1247100</v>
       </c>
       <c r="E61" s="3">
-        <v>1161100</v>
+        <v>2554200</v>
       </c>
       <c r="F61" s="3">
-        <v>475300</v>
+        <v>1197900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>490400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2593,23 +2735,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67100</v>
+        <v>117000</v>
       </c>
       <c r="E62" s="3">
-        <v>48900</v>
+        <v>69200</v>
       </c>
       <c r="F62" s="3">
-        <v>26800</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>50400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>27700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2626,15 +2771,18 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,36 +2903,39 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4224600</v>
+        <v>3819200</v>
       </c>
       <c r="E66" s="3">
-        <v>2264100</v>
+        <v>4358800</v>
       </c>
       <c r="F66" s="3">
-        <v>1178200</v>
+        <v>2336000</v>
       </c>
       <c r="G66" s="3">
-        <v>492700</v>
+        <v>1215600</v>
       </c>
       <c r="H66" s="3">
-        <v>194600</v>
+        <v>508300</v>
       </c>
       <c r="I66" s="3">
-        <v>87500</v>
+        <v>200800</v>
       </c>
       <c r="J66" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K66" s="3">
         <v>42700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2902,17 +3069,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>558900</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>398300</v>
+        <v>576600</v>
       </c>
       <c r="J70" s="3">
+        <v>411000</v>
+      </c>
+      <c r="K70" s="3">
         <v>194100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,36 +3131,39 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-1941400</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-996300</v>
+        <v>-2003000</v>
       </c>
       <c r="F72" s="3">
-        <v>-575200</v>
+        <v>-1028000</v>
       </c>
       <c r="G72" s="3">
-        <v>-394600</v>
+        <v>-593500</v>
       </c>
       <c r="H72" s="3">
-        <v>-308800</v>
+        <v>-407200</v>
       </c>
       <c r="I72" s="3">
-        <v>-247300</v>
+        <v>-318600</v>
       </c>
       <c r="J72" s="3">
+        <v>-255100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-91200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,36 +3299,39 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3021200</v>
+        <v>2188500</v>
       </c>
       <c r="E76" s="3">
-        <v>1057900</v>
+        <v>3117100</v>
       </c>
       <c r="F76" s="3">
-        <v>981700</v>
+        <v>1091500</v>
       </c>
       <c r="G76" s="3">
-        <v>967600</v>
+        <v>1012900</v>
       </c>
       <c r="H76" s="3">
-        <v>-270000</v>
+        <v>998300</v>
       </c>
       <c r="I76" s="3">
-        <v>-184200</v>
+        <v>-278500</v>
       </c>
       <c r="J76" s="3">
+        <v>-190100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-75700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3156,9 +3341,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,41 +3383,44 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3239,36 +3430,39 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-945100</v>
+        <v>-1076700</v>
       </c>
       <c r="E81" s="3">
-        <v>-419200</v>
+        <v>-975100</v>
       </c>
       <c r="F81" s="3">
-        <v>-179400</v>
+        <v>-432500</v>
       </c>
       <c r="G81" s="3">
-        <v>-85800</v>
+        <v>-185100</v>
       </c>
       <c r="H81" s="3">
-        <v>-79600</v>
+        <v>-88500</v>
       </c>
       <c r="I81" s="3">
-        <v>-165000</v>
+        <v>-82100</v>
       </c>
       <c r="J81" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-79200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3472,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,35 +3493,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>339900</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>239700</v>
+        <v>350700</v>
       </c>
       <c r="F83" s="3">
-        <v>152800</v>
+        <v>247300</v>
       </c>
       <c r="G83" s="3">
-        <v>89400</v>
+        <v>157600</v>
       </c>
       <c r="H83" s="3">
-        <v>42400</v>
+        <v>92300</v>
       </c>
       <c r="I83" s="3">
-        <v>22500</v>
+        <v>43700</v>
       </c>
       <c r="J83" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K83" s="3">
         <v>5900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,36 +3742,39 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-368500</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>104800</v>
+        <v>-380200</v>
       </c>
       <c r="F89" s="3">
-        <v>27100</v>
+        <v>108200</v>
       </c>
       <c r="G89" s="3">
-        <v>102600</v>
+        <v>27900</v>
       </c>
       <c r="H89" s="3">
-        <v>64700</v>
+        <v>105900</v>
       </c>
       <c r="I89" s="3">
-        <v>-27700</v>
+        <v>66700</v>
       </c>
       <c r="J89" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-26700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,35 +3805,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-134400</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-83800</v>
+        <v>-138700</v>
       </c>
       <c r="F91" s="3">
-        <v>-41200</v>
+        <v>-86500</v>
       </c>
       <c r="G91" s="3">
-        <v>-40900</v>
+        <v>-42500</v>
       </c>
       <c r="H91" s="3">
-        <v>-20200</v>
+        <v>-42200</v>
       </c>
       <c r="I91" s="3">
-        <v>-5900</v>
+        <v>-20800</v>
       </c>
       <c r="J91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,36 +3928,39 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-3421300</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-1239800</v>
+        <v>-3529900</v>
       </c>
       <c r="F94" s="3">
-        <v>-551000</v>
+        <v>-1279200</v>
       </c>
       <c r="G94" s="3">
-        <v>-444900</v>
+        <v>-568500</v>
       </c>
       <c r="H94" s="3">
-        <v>-99700</v>
+        <v>-459100</v>
       </c>
       <c r="I94" s="3">
-        <v>-165300</v>
+        <v>-102900</v>
       </c>
       <c r="J94" s="3">
+        <v>-170500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-50900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,36 +4156,39 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>4230200</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>1160300</v>
+        <v>4364500</v>
       </c>
       <c r="F100" s="3">
-        <v>707000</v>
+        <v>1197100</v>
       </c>
       <c r="G100" s="3">
-        <v>692500</v>
+        <v>729400</v>
       </c>
       <c r="H100" s="3">
-        <v>94000</v>
+        <v>714500</v>
       </c>
       <c r="I100" s="3">
-        <v>142600</v>
+        <v>97000</v>
       </c>
       <c r="J100" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K100" s="3">
         <v>153000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3953,36 +4198,39 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-44400</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>-64900</v>
+        <v>-45800</v>
       </c>
       <c r="F101" s="3">
-        <v>15000</v>
+        <v>-67000</v>
       </c>
       <c r="G101" s="3">
-        <v>36400</v>
+        <v>15400</v>
       </c>
       <c r="H101" s="3">
-        <v>-6700</v>
+        <v>37500</v>
       </c>
       <c r="I101" s="3">
-        <v>6900</v>
+        <v>-6900</v>
       </c>
       <c r="J101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K101" s="3">
         <v>6000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3992,36 +4240,39 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>396000</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-39600</v>
+        <v>408600</v>
       </c>
       <c r="F102" s="3">
-        <v>198000</v>
+        <v>-40900</v>
       </c>
       <c r="G102" s="3">
-        <v>386600</v>
+        <v>204300</v>
       </c>
       <c r="H102" s="3">
-        <v>52300</v>
+        <v>398900</v>
       </c>
       <c r="I102" s="3">
-        <v>-43500</v>
+        <v>54000</v>
       </c>
       <c r="J102" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="K102" s="3">
         <v>81400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>BILI</t>
   </si>
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3145200</v>
+        <v>3113000</v>
       </c>
       <c r="E8" s="3">
-        <v>2783900</v>
+        <v>2755400</v>
       </c>
       <c r="F8" s="3">
-        <v>1723300</v>
+        <v>1705700</v>
       </c>
       <c r="G8" s="3">
-        <v>973400</v>
+        <v>963500</v>
       </c>
       <c r="H8" s="3">
-        <v>593000</v>
+        <v>586900</v>
       </c>
       <c r="I8" s="3">
-        <v>354500</v>
+        <v>350900</v>
       </c>
       <c r="J8" s="3">
-        <v>75200</v>
+        <v>74400</v>
       </c>
       <c r="K8" s="3">
         <v>18200</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2592300</v>
+        <v>2565800</v>
       </c>
       <c r="E9" s="3">
-        <v>2203200</v>
+        <v>2180700</v>
       </c>
       <c r="F9" s="3">
-        <v>1315400</v>
+        <v>1301900</v>
       </c>
       <c r="G9" s="3">
-        <v>802500</v>
+        <v>794300</v>
       </c>
       <c r="H9" s="3">
-        <v>470100</v>
+        <v>465300</v>
       </c>
       <c r="I9" s="3">
-        <v>275600</v>
+        <v>272800</v>
       </c>
       <c r="J9" s="3">
-        <v>111000</v>
+        <v>109900</v>
       </c>
       <c r="K9" s="3">
         <v>42300</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>552800</v>
+        <v>547200</v>
       </c>
       <c r="E10" s="3">
-        <v>580700</v>
+        <v>574700</v>
       </c>
       <c r="F10" s="3">
-        <v>407900</v>
+        <v>403700</v>
       </c>
       <c r="G10" s="3">
-        <v>170900</v>
+        <v>169200</v>
       </c>
       <c r="H10" s="3">
-        <v>122900</v>
+        <v>121600</v>
       </c>
       <c r="I10" s="3">
-        <v>78900</v>
+        <v>78100</v>
       </c>
       <c r="J10" s="3">
-        <v>-35800</v>
+        <v>-35500</v>
       </c>
       <c r="K10" s="3">
         <v>-24000</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>684400</v>
+        <v>602700</v>
       </c>
       <c r="E12" s="3">
-        <v>407900</v>
+        <v>403700</v>
       </c>
       <c r="F12" s="3">
-        <v>217300</v>
+        <v>215100</v>
       </c>
       <c r="G12" s="3">
-        <v>128500</v>
+        <v>127100</v>
       </c>
       <c r="H12" s="3">
-        <v>77200</v>
+        <v>76400</v>
       </c>
       <c r="I12" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="J12" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="K12" s="3">
         <v>3500</v>
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-189400</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5300</v>
+        <v>-64200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4156100</v>
+        <v>4113600</v>
       </c>
       <c r="E17" s="3">
-        <v>3712600</v>
+        <v>3669300</v>
       </c>
       <c r="F17" s="3">
-        <v>2174400</v>
+        <v>2152100</v>
       </c>
       <c r="G17" s="3">
-        <v>1188200</v>
+        <v>1176000</v>
       </c>
       <c r="H17" s="3">
-        <v>697700</v>
+        <v>690600</v>
       </c>
       <c r="I17" s="3">
-        <v>386700</v>
+        <v>382800</v>
       </c>
       <c r="J17" s="3">
-        <v>203700</v>
+        <v>201600</v>
       </c>
       <c r="K17" s="3">
         <v>69600</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1011000</v>
+        <v>-1000600</v>
       </c>
       <c r="E18" s="3">
-        <v>-928700</v>
+        <v>-913900</v>
       </c>
       <c r="F18" s="3">
-        <v>-451100</v>
+        <v>-446500</v>
       </c>
       <c r="G18" s="3">
-        <v>-214700</v>
+        <v>-212500</v>
       </c>
       <c r="H18" s="3">
-        <v>-104700</v>
+        <v>-103600</v>
       </c>
       <c r="I18" s="3">
-        <v>-32200</v>
+        <v>-31900</v>
       </c>
       <c r="J18" s="3">
-        <v>-128500</v>
+        <v>-127200</v>
       </c>
       <c r="K18" s="3">
         <v>-51300</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16300</v>
+        <v>-16100</v>
       </c>
       <c r="E20" s="3">
-        <v>-13200</v>
+        <v>-18300</v>
       </c>
       <c r="F20" s="3">
-        <v>35700</v>
+        <v>35400</v>
       </c>
       <c r="G20" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="H20" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="I20" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K20" s="3">
         <v>-300</v>
@@ -1197,26 +1197,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-539900</v>
       </c>
       <c r="E21" s="3">
-        <v>-590500</v>
+        <v>-583300</v>
       </c>
       <c r="F21" s="3">
-        <v>-167600</v>
+        <v>-165100</v>
       </c>
       <c r="G21" s="3">
-        <v>-17500</v>
+        <v>-16800</v>
       </c>
       <c r="H21" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="I21" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="J21" s="3">
-        <v>-107200</v>
+        <v>-106000</v>
       </c>
       <c r="K21" s="3">
         <v>-45800</v>
@@ -1240,16 +1240,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36000</v>
+        <v>35700</v>
       </c>
       <c r="E22" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="F22" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="G22" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1063300</v>
+        <v>-1052400</v>
       </c>
       <c r="E23" s="3">
-        <v>-964200</v>
+        <v>-954300</v>
       </c>
       <c r="F23" s="3">
-        <v>-431000</v>
+        <v>-426500</v>
       </c>
       <c r="G23" s="3">
-        <v>-182100</v>
+        <v>-180200</v>
       </c>
       <c r="H23" s="3">
-        <v>-77400</v>
+        <v>-76600</v>
       </c>
       <c r="I23" s="3">
-        <v>-25100</v>
+        <v>-24900</v>
       </c>
       <c r="J23" s="3">
-        <v>-130500</v>
+        <v>-129100</v>
       </c>
       <c r="K23" s="3">
         <v>-51700</v>
@@ -1324,16 +1324,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="E24" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="F24" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G24" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="H24" s="3">
         <v>3700</v>
@@ -1342,7 +1342,7 @@
         <v>1300</v>
       </c>
       <c r="J24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1078200</v>
+        <v>-1067200</v>
       </c>
       <c r="E26" s="3">
-        <v>-977900</v>
+        <v>-967900</v>
       </c>
       <c r="F26" s="3">
-        <v>-438600</v>
+        <v>-434100</v>
       </c>
       <c r="G26" s="3">
-        <v>-187200</v>
+        <v>-185300</v>
       </c>
       <c r="H26" s="3">
-        <v>-81100</v>
+        <v>-80300</v>
       </c>
       <c r="I26" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="J26" s="3">
-        <v>-130900</v>
+        <v>-129600</v>
       </c>
       <c r="K26" s="3">
         <v>-52000</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1076700</v>
+        <v>-1065700</v>
       </c>
       <c r="E27" s="3">
-        <v>-975100</v>
+        <v>-965100</v>
       </c>
       <c r="F27" s="3">
-        <v>-432500</v>
+        <v>-428100</v>
       </c>
       <c r="G27" s="3">
-        <v>-185100</v>
+        <v>-183200</v>
       </c>
       <c r="H27" s="3">
-        <v>-88500</v>
+        <v>-87600</v>
       </c>
       <c r="I27" s="3">
-        <v>-82100</v>
+        <v>-81200</v>
       </c>
       <c r="J27" s="3">
-        <v>-170200</v>
+        <v>-168500</v>
       </c>
       <c r="K27" s="3">
         <v>-79200</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="E32" s="3">
-        <v>13200</v>
+        <v>18300</v>
       </c>
       <c r="F32" s="3">
-        <v>-35700</v>
+        <v>-35400</v>
       </c>
       <c r="G32" s="3">
-        <v>-39400</v>
+        <v>-39000</v>
       </c>
       <c r="H32" s="3">
-        <v>-27300</v>
+        <v>-27000</v>
       </c>
       <c r="I32" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="J32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K32" s="3">
         <v>300</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1076700</v>
+        <v>-1065700</v>
       </c>
       <c r="E33" s="3">
-        <v>-975100</v>
+        <v>-965100</v>
       </c>
       <c r="F33" s="3">
-        <v>-432500</v>
+        <v>-428100</v>
       </c>
       <c r="G33" s="3">
-        <v>-185100</v>
+        <v>-183200</v>
       </c>
       <c r="H33" s="3">
-        <v>-88500</v>
+        <v>-87600</v>
       </c>
       <c r="I33" s="3">
-        <v>-82100</v>
+        <v>-81200</v>
       </c>
       <c r="J33" s="3">
-        <v>-170200</v>
+        <v>-168500</v>
       </c>
       <c r="K33" s="3">
         <v>-79200</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1076700</v>
+        <v>-1065700</v>
       </c>
       <c r="E35" s="3">
-        <v>-975100</v>
+        <v>-965100</v>
       </c>
       <c r="F35" s="3">
-        <v>-432500</v>
+        <v>-428100</v>
       </c>
       <c r="G35" s="3">
-        <v>-185100</v>
+        <v>-183200</v>
       </c>
       <c r="H35" s="3">
-        <v>-88500</v>
+        <v>-87600</v>
       </c>
       <c r="I35" s="3">
-        <v>-82100</v>
+        <v>-81200</v>
       </c>
       <c r="J35" s="3">
-        <v>-170200</v>
+        <v>-168500</v>
       </c>
       <c r="K35" s="3">
         <v>-79200</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1461000</v>
+        <v>1446000</v>
       </c>
       <c r="E41" s="3">
-        <v>1080500</v>
+        <v>1069400</v>
       </c>
       <c r="F41" s="3">
-        <v>671900</v>
+        <v>665000</v>
       </c>
       <c r="G41" s="3">
-        <v>712700</v>
+        <v>705400</v>
       </c>
       <c r="H41" s="3">
-        <v>508400</v>
+        <v>503200</v>
       </c>
       <c r="I41" s="3">
-        <v>109600</v>
+        <v>108400</v>
       </c>
       <c r="J41" s="3">
-        <v>55600</v>
+        <v>55000</v>
       </c>
       <c r="K41" s="3">
         <v>96000</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1348800</v>
+        <v>1339500</v>
       </c>
       <c r="E42" s="3">
-        <v>3274500</v>
+        <v>3241000</v>
       </c>
       <c r="F42" s="3">
-        <v>1167500</v>
+        <v>1155500</v>
       </c>
       <c r="G42" s="3">
-        <v>449800</v>
+        <v>445200</v>
       </c>
       <c r="H42" s="3">
-        <v>246300</v>
+        <v>243800</v>
       </c>
       <c r="I42" s="3">
-        <v>72600</v>
+        <v>71800</v>
       </c>
       <c r="J42" s="3">
-        <v>103700</v>
+        <v>102600</v>
       </c>
       <c r="K42" s="3">
         <v>7800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>190800</v>
+        <v>430500</v>
       </c>
       <c r="E43" s="3">
-        <v>503100</v>
+        <v>498000</v>
       </c>
       <c r="F43" s="3">
-        <v>202900</v>
+        <v>200800</v>
       </c>
       <c r="G43" s="3">
-        <v>157700</v>
+        <v>156100</v>
       </c>
       <c r="H43" s="3">
-        <v>62500</v>
+        <v>61900</v>
       </c>
       <c r="I43" s="3">
-        <v>65400</v>
+        <v>64700</v>
       </c>
       <c r="J43" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="K43" s="3">
         <v>4000</v>
@@ -2036,20 +2036,20 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>62200</v>
       </c>
       <c r="E44" s="3">
-        <v>65500</v>
+        <v>64800</v>
       </c>
       <c r="F44" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="G44" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="H44" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I44" s="3">
         <v>1400</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>511300</v>
+        <v>197800</v>
       </c>
       <c r="E45" s="3">
-        <v>311000</v>
+        <v>307800</v>
       </c>
       <c r="F45" s="3">
-        <v>195300</v>
+        <v>193300</v>
       </c>
       <c r="G45" s="3">
-        <v>152500</v>
+        <v>150900</v>
       </c>
       <c r="H45" s="3">
-        <v>115500</v>
+        <v>114400</v>
       </c>
       <c r="I45" s="3">
-        <v>60300</v>
+        <v>59700</v>
       </c>
       <c r="J45" s="3">
-        <v>22400</v>
+        <v>22200</v>
       </c>
       <c r="K45" s="3">
         <v>10700</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3511900</v>
+        <v>3476000</v>
       </c>
       <c r="E46" s="3">
-        <v>5234500</v>
+        <v>5180900</v>
       </c>
       <c r="F46" s="3">
-        <v>2260500</v>
+        <v>2237400</v>
       </c>
       <c r="G46" s="3">
-        <v>1482700</v>
+        <v>1467600</v>
       </c>
       <c r="H46" s="3">
-        <v>940700</v>
+        <v>931100</v>
       </c>
       <c r="I46" s="3">
-        <v>309200</v>
+        <v>306100</v>
       </c>
       <c r="J46" s="3">
-        <v>201200</v>
+        <v>199100</v>
       </c>
       <c r="K46" s="3">
         <v>118700</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>811600</v>
+        <v>803300</v>
       </c>
       <c r="E47" s="3">
-        <v>790300</v>
+        <v>782200</v>
       </c>
       <c r="F47" s="3">
-        <v>320700</v>
+        <v>317400</v>
       </c>
       <c r="G47" s="3">
-        <v>179700</v>
+        <v>177800</v>
       </c>
       <c r="H47" s="3">
-        <v>140700</v>
+        <v>139300</v>
       </c>
       <c r="I47" s="3">
-        <v>91300</v>
+        <v>90400</v>
       </c>
       <c r="J47" s="3">
-        <v>54100</v>
+        <v>53600</v>
       </c>
       <c r="K47" s="3">
         <v>22400</v>
@@ -2205,22 +2205,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>176200</v>
+        <v>174400</v>
       </c>
       <c r="E48" s="3">
-        <v>193900</v>
+        <v>191900</v>
       </c>
       <c r="F48" s="3">
-        <v>109400</v>
+        <v>108300</v>
       </c>
       <c r="G48" s="3">
-        <v>108000</v>
+        <v>106900</v>
       </c>
       <c r="H48" s="3">
-        <v>56700</v>
+        <v>56100</v>
       </c>
       <c r="I48" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="J48" s="3">
         <v>7300</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1012800</v>
+        <v>1002400</v>
       </c>
       <c r="E49" s="3">
-        <v>886700</v>
+        <v>877600</v>
       </c>
       <c r="F49" s="3">
-        <v>524600</v>
+        <v>519200</v>
       </c>
       <c r="G49" s="3">
-        <v>383400</v>
+        <v>379400</v>
       </c>
       <c r="H49" s="3">
-        <v>339100</v>
+        <v>335600</v>
       </c>
       <c r="I49" s="3">
-        <v>68500</v>
+        <v>67800</v>
       </c>
       <c r="J49" s="3">
-        <v>47900</v>
+        <v>47400</v>
       </c>
       <c r="K49" s="3">
         <v>15200</v>
@@ -2373,19 +2373,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>495100</v>
+        <v>490100</v>
       </c>
       <c r="E52" s="3">
-        <v>370500</v>
+        <v>366700</v>
       </c>
       <c r="F52" s="3">
-        <v>212300</v>
+        <v>210200</v>
       </c>
       <c r="G52" s="3">
-        <v>74700</v>
+        <v>74000</v>
       </c>
       <c r="H52" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="I52" s="3">
         <v>3000</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6007700</v>
+        <v>5946200</v>
       </c>
       <c r="E54" s="3">
-        <v>7475900</v>
+        <v>7399400</v>
       </c>
       <c r="F54" s="3">
-        <v>3427600</v>
+        <v>3392500</v>
       </c>
       <c r="G54" s="3">
-        <v>2228500</v>
+        <v>2205700</v>
       </c>
       <c r="H54" s="3">
-        <v>1506600</v>
+        <v>1491200</v>
       </c>
       <c r="I54" s="3">
-        <v>498900</v>
+        <v>493800</v>
       </c>
       <c r="J54" s="3">
-        <v>311200</v>
+        <v>308000</v>
       </c>
       <c r="K54" s="3">
         <v>161000</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>616400</v>
+        <v>610100</v>
       </c>
       <c r="E57" s="3">
-        <v>626300</v>
+        <v>619900</v>
       </c>
       <c r="F57" s="3">
-        <v>441500</v>
+        <v>437000</v>
       </c>
       <c r="G57" s="3">
-        <v>273500</v>
+        <v>270700</v>
       </c>
       <c r="H57" s="3">
-        <v>187800</v>
+        <v>185900</v>
       </c>
       <c r="I57" s="3">
-        <v>85700</v>
+        <v>84800</v>
       </c>
       <c r="J57" s="3">
-        <v>45500</v>
+        <v>45000</v>
       </c>
       <c r="K57" s="3">
         <v>17100</v>
@@ -2577,13 +2577,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>951000</v>
+        <v>941200</v>
       </c>
       <c r="E58" s="3">
-        <v>177000</v>
+        <v>175100</v>
       </c>
       <c r="F58" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>887600</v>
+        <v>878500</v>
       </c>
       <c r="E59" s="3">
-        <v>930400</v>
+        <v>920800</v>
       </c>
       <c r="F59" s="3">
-        <v>605700</v>
+        <v>599500</v>
       </c>
       <c r="G59" s="3">
-        <v>340200</v>
+        <v>336700</v>
       </c>
       <c r="H59" s="3">
-        <v>286000</v>
+        <v>283100</v>
       </c>
       <c r="I59" s="3">
-        <v>115100</v>
+        <v>113900</v>
       </c>
       <c r="J59" s="3">
-        <v>44700</v>
+        <v>44200</v>
       </c>
       <c r="K59" s="3">
         <v>24400</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2455000</v>
+        <v>2429800</v>
       </c>
       <c r="E60" s="3">
-        <v>1733600</v>
+        <v>1715900</v>
       </c>
       <c r="F60" s="3">
-        <v>1061600</v>
+        <v>1050700</v>
       </c>
       <c r="G60" s="3">
-        <v>613600</v>
+        <v>607300</v>
       </c>
       <c r="H60" s="3">
-        <v>473800</v>
+        <v>468900</v>
       </c>
       <c r="I60" s="3">
-        <v>200800</v>
+        <v>198700</v>
       </c>
       <c r="J60" s="3">
-        <v>90200</v>
+        <v>89300</v>
       </c>
       <c r="K60" s="3">
         <v>42900</v>
@@ -2703,16 +2703,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1247100</v>
+        <v>1234300</v>
       </c>
       <c r="E61" s="3">
-        <v>2554200</v>
+        <v>2528000</v>
       </c>
       <c r="F61" s="3">
-        <v>1197900</v>
+        <v>1185700</v>
       </c>
       <c r="G61" s="3">
-        <v>490400</v>
+        <v>485400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2745,16 +2745,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>117000</v>
+        <v>115800</v>
       </c>
       <c r="E62" s="3">
-        <v>69200</v>
+        <v>68500</v>
       </c>
       <c r="F62" s="3">
-        <v>50400</v>
+        <v>49900</v>
       </c>
       <c r="G62" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3819200</v>
+        <v>3780200</v>
       </c>
       <c r="E66" s="3">
-        <v>4358800</v>
+        <v>4314200</v>
       </c>
       <c r="F66" s="3">
-        <v>2336000</v>
+        <v>2312100</v>
       </c>
       <c r="G66" s="3">
-        <v>1215600</v>
+        <v>1203200</v>
       </c>
       <c r="H66" s="3">
-        <v>508300</v>
+        <v>503100</v>
       </c>
       <c r="I66" s="3">
-        <v>200800</v>
+        <v>198700</v>
       </c>
       <c r="J66" s="3">
-        <v>90300</v>
+        <v>89300</v>
       </c>
       <c r="K66" s="3">
         <v>42700</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>576600</v>
+        <v>570700</v>
       </c>
       <c r="J70" s="3">
-        <v>411000</v>
+        <v>406800</v>
       </c>
       <c r="K70" s="3">
         <v>194100</v>
@@ -3140,26 +3140,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-3048200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2003000</v>
+        <v>-1982500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1028000</v>
+        <v>-1017400</v>
       </c>
       <c r="G72" s="3">
-        <v>-593500</v>
+        <v>-587400</v>
       </c>
       <c r="H72" s="3">
-        <v>-407200</v>
+        <v>-403000</v>
       </c>
       <c r="I72" s="3">
-        <v>-318600</v>
+        <v>-315400</v>
       </c>
       <c r="J72" s="3">
-        <v>-255100</v>
+        <v>-252500</v>
       </c>
       <c r="K72" s="3">
         <v>-91200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2188500</v>
+        <v>2166100</v>
       </c>
       <c r="E76" s="3">
-        <v>3117100</v>
+        <v>3085200</v>
       </c>
       <c r="F76" s="3">
-        <v>1091500</v>
+        <v>1080400</v>
       </c>
       <c r="G76" s="3">
-        <v>1012900</v>
+        <v>1002500</v>
       </c>
       <c r="H76" s="3">
-        <v>998300</v>
+        <v>988100</v>
       </c>
       <c r="I76" s="3">
-        <v>-278500</v>
+        <v>-275700</v>
       </c>
       <c r="J76" s="3">
-        <v>-190100</v>
+        <v>-188100</v>
       </c>
       <c r="K76" s="3">
         <v>-75700</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1076700</v>
+        <v>-1065700</v>
       </c>
       <c r="E81" s="3">
-        <v>-975100</v>
+        <v>-965100</v>
       </c>
       <c r="F81" s="3">
-        <v>-432500</v>
+        <v>-428100</v>
       </c>
       <c r="G81" s="3">
-        <v>-185100</v>
+        <v>-183200</v>
       </c>
       <c r="H81" s="3">
-        <v>-88500</v>
+        <v>-87600</v>
       </c>
       <c r="I81" s="3">
-        <v>-82100</v>
+        <v>-81200</v>
       </c>
       <c r="J81" s="3">
-        <v>-170200</v>
+        <v>-168500</v>
       </c>
       <c r="K81" s="3">
         <v>-79200</v>
@@ -3499,26 +3499,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>474300</v>
       </c>
       <c r="E83" s="3">
-        <v>350700</v>
+        <v>347100</v>
       </c>
       <c r="F83" s="3">
-        <v>247300</v>
+        <v>244700</v>
       </c>
       <c r="G83" s="3">
-        <v>157600</v>
+        <v>156000</v>
       </c>
       <c r="H83" s="3">
-        <v>92300</v>
+        <v>91300</v>
       </c>
       <c r="I83" s="3">
-        <v>43700</v>
+        <v>43300</v>
       </c>
       <c r="J83" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="K83" s="3">
         <v>5900</v>
@@ -3751,26 +3751,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-556000</v>
       </c>
       <c r="E89" s="3">
-        <v>-380200</v>
+        <v>-376300</v>
       </c>
       <c r="F89" s="3">
-        <v>108200</v>
+        <v>107100</v>
       </c>
       <c r="G89" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="H89" s="3">
-        <v>105900</v>
+        <v>104800</v>
       </c>
       <c r="I89" s="3">
-        <v>66700</v>
+        <v>66000</v>
       </c>
       <c r="J89" s="3">
-        <v>-28600</v>
+        <v>-28300</v>
       </c>
       <c r="K89" s="3">
         <v>-26700</v>
@@ -3811,26 +3811,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-108100</v>
       </c>
       <c r="E91" s="3">
-        <v>-138700</v>
+        <v>-137200</v>
       </c>
       <c r="F91" s="3">
-        <v>-86500</v>
+        <v>-85600</v>
       </c>
       <c r="G91" s="3">
-        <v>-42500</v>
+        <v>-42100</v>
       </c>
       <c r="H91" s="3">
-        <v>-42200</v>
+        <v>-41700</v>
       </c>
       <c r="I91" s="3">
-        <v>-20800</v>
+        <v>-20600</v>
       </c>
       <c r="J91" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="K91" s="3">
         <v>-3600</v>
@@ -3937,26 +3937,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>1508100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3529900</v>
+        <v>-3493800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1279200</v>
+        <v>-1266100</v>
       </c>
       <c r="G94" s="3">
-        <v>-568500</v>
+        <v>-562700</v>
       </c>
       <c r="H94" s="3">
-        <v>-459100</v>
+        <v>-454400</v>
       </c>
       <c r="I94" s="3">
-        <v>-102900</v>
+        <v>-101800</v>
       </c>
       <c r="J94" s="3">
-        <v>-170500</v>
+        <v>-168800</v>
       </c>
       <c r="K94" s="3">
         <v>-50900</v>
@@ -4165,26 +4165,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-619100</v>
       </c>
       <c r="E100" s="3">
-        <v>4364500</v>
+        <v>4319800</v>
       </c>
       <c r="F100" s="3">
-        <v>1197100</v>
+        <v>1184900</v>
       </c>
       <c r="G100" s="3">
-        <v>729400</v>
+        <v>722000</v>
       </c>
       <c r="H100" s="3">
-        <v>714500</v>
+        <v>707200</v>
       </c>
       <c r="I100" s="3">
-        <v>97000</v>
+        <v>96000</v>
       </c>
       <c r="J100" s="3">
-        <v>147100</v>
+        <v>145600</v>
       </c>
       <c r="K100" s="3">
         <v>153000</v>
@@ -4207,23 +4207,23 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>45700</v>
       </c>
       <c r="E101" s="3">
-        <v>-45800</v>
+        <v>-45400</v>
       </c>
       <c r="F101" s="3">
-        <v>-67000</v>
+        <v>-66300</v>
       </c>
       <c r="G101" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="H101" s="3">
-        <v>37500</v>
+        <v>37200</v>
       </c>
       <c r="I101" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="J101" s="3">
         <v>7100</v>
@@ -4249,26 +4249,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>378700</v>
       </c>
       <c r="E102" s="3">
-        <v>408600</v>
+        <v>404400</v>
       </c>
       <c r="F102" s="3">
-        <v>-40900</v>
+        <v>-40400</v>
       </c>
       <c r="G102" s="3">
-        <v>204300</v>
+        <v>202200</v>
       </c>
       <c r="H102" s="3">
-        <v>398900</v>
+        <v>394800</v>
       </c>
       <c r="I102" s="3">
-        <v>54000</v>
+        <v>53400</v>
       </c>
       <c r="J102" s="3">
-        <v>-44900</v>
+        <v>-44400</v>
       </c>
       <c r="K102" s="3">
         <v>81400</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3113000</v>
+        <v>3017300</v>
       </c>
       <c r="E8" s="3">
-        <v>2755400</v>
+        <v>2670700</v>
       </c>
       <c r="F8" s="3">
-        <v>1705700</v>
+        <v>1653200</v>
       </c>
       <c r="G8" s="3">
-        <v>963500</v>
+        <v>933900</v>
       </c>
       <c r="H8" s="3">
-        <v>586900</v>
+        <v>568900</v>
       </c>
       <c r="I8" s="3">
-        <v>350900</v>
+        <v>340100</v>
       </c>
       <c r="J8" s="3">
-        <v>74400</v>
+        <v>72100</v>
       </c>
       <c r="K8" s="3">
         <v>18200</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2565800</v>
+        <v>2486900</v>
       </c>
       <c r="E9" s="3">
-        <v>2180700</v>
+        <v>2113600</v>
       </c>
       <c r="F9" s="3">
-        <v>1301900</v>
+        <v>1261900</v>
       </c>
       <c r="G9" s="3">
-        <v>794300</v>
+        <v>769900</v>
       </c>
       <c r="H9" s="3">
-        <v>465300</v>
+        <v>451000</v>
       </c>
       <c r="I9" s="3">
-        <v>272800</v>
+        <v>264400</v>
       </c>
       <c r="J9" s="3">
-        <v>109900</v>
+        <v>106500</v>
       </c>
       <c r="K9" s="3">
         <v>42300</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>547200</v>
+        <v>530400</v>
       </c>
       <c r="E10" s="3">
-        <v>574700</v>
+        <v>557100</v>
       </c>
       <c r="F10" s="3">
-        <v>403700</v>
+        <v>391300</v>
       </c>
       <c r="G10" s="3">
-        <v>169200</v>
+        <v>164000</v>
       </c>
       <c r="H10" s="3">
-        <v>121600</v>
+        <v>117900</v>
       </c>
       <c r="I10" s="3">
-        <v>78100</v>
+        <v>75700</v>
       </c>
       <c r="J10" s="3">
-        <v>-35500</v>
+        <v>-34400</v>
       </c>
       <c r="K10" s="3">
         <v>-24000</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>602700</v>
+        <v>584100</v>
       </c>
       <c r="E12" s="3">
-        <v>403700</v>
+        <v>391300</v>
       </c>
       <c r="F12" s="3">
-        <v>215100</v>
+        <v>208500</v>
       </c>
       <c r="G12" s="3">
-        <v>127100</v>
+        <v>123200</v>
       </c>
       <c r="H12" s="3">
-        <v>76400</v>
+        <v>74100</v>
       </c>
       <c r="I12" s="3">
-        <v>39800</v>
+        <v>38600</v>
       </c>
       <c r="J12" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="K12" s="3">
         <v>3500</v>
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-64200</v>
+        <v>-62200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4113600</v>
+        <v>3987100</v>
       </c>
       <c r="E17" s="3">
-        <v>3669300</v>
+        <v>3556500</v>
       </c>
       <c r="F17" s="3">
-        <v>2152100</v>
+        <v>2086000</v>
       </c>
       <c r="G17" s="3">
-        <v>1176000</v>
+        <v>1139900</v>
       </c>
       <c r="H17" s="3">
-        <v>690600</v>
+        <v>669300</v>
       </c>
       <c r="I17" s="3">
-        <v>382800</v>
+        <v>371000</v>
       </c>
       <c r="J17" s="3">
-        <v>201600</v>
+        <v>195400</v>
       </c>
       <c r="K17" s="3">
         <v>69600</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1000600</v>
+        <v>-969900</v>
       </c>
       <c r="E18" s="3">
-        <v>-913900</v>
+        <v>-885800</v>
       </c>
       <c r="F18" s="3">
-        <v>-446500</v>
+        <v>-432800</v>
       </c>
       <c r="G18" s="3">
-        <v>-212500</v>
+        <v>-206000</v>
       </c>
       <c r="H18" s="3">
-        <v>-103600</v>
+        <v>-100400</v>
       </c>
       <c r="I18" s="3">
-        <v>-31900</v>
+        <v>-30900</v>
       </c>
       <c r="J18" s="3">
-        <v>-127200</v>
+        <v>-123300</v>
       </c>
       <c r="K18" s="3">
         <v>-51300</v>
@@ -1156,22 +1156,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16100</v>
+        <v>-15600</v>
       </c>
       <c r="E20" s="3">
-        <v>-18300</v>
+        <v>-17800</v>
       </c>
       <c r="F20" s="3">
-        <v>35400</v>
+        <v>34300</v>
       </c>
       <c r="G20" s="3">
-        <v>39000</v>
+        <v>37800</v>
       </c>
       <c r="H20" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="I20" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="J20" s="3">
         <v>-1900</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-539900</v>
+        <v>-525700</v>
       </c>
       <c r="E21" s="3">
-        <v>-583300</v>
+        <v>-567100</v>
       </c>
       <c r="F21" s="3">
-        <v>-165100</v>
+        <v>-161300</v>
       </c>
       <c r="G21" s="3">
-        <v>-16800</v>
+        <v>-17100</v>
       </c>
       <c r="H21" s="3">
-        <v>15200</v>
+        <v>14200</v>
       </c>
       <c r="I21" s="3">
-        <v>18600</v>
+        <v>17800</v>
       </c>
       <c r="J21" s="3">
-        <v>-106000</v>
+        <v>-102900</v>
       </c>
       <c r="K21" s="3">
         <v>-45800</v>
@@ -1240,16 +1240,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35700</v>
+        <v>34600</v>
       </c>
       <c r="E22" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="F22" s="3">
-        <v>15400</v>
+        <v>15000</v>
       </c>
       <c r="G22" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1052400</v>
+        <v>-1020100</v>
       </c>
       <c r="E23" s="3">
-        <v>-954300</v>
+        <v>-925000</v>
       </c>
       <c r="F23" s="3">
-        <v>-426500</v>
+        <v>-413400</v>
       </c>
       <c r="G23" s="3">
-        <v>-180200</v>
+        <v>-174700</v>
       </c>
       <c r="H23" s="3">
-        <v>-76600</v>
+        <v>-74300</v>
       </c>
       <c r="I23" s="3">
-        <v>-24900</v>
+        <v>-24100</v>
       </c>
       <c r="J23" s="3">
-        <v>-129100</v>
+        <v>-125200</v>
       </c>
       <c r="K23" s="3">
         <v>-51700</v>
@@ -1324,22 +1324,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="E24" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="F24" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="G24" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1067200</v>
+        <v>-1034400</v>
       </c>
       <c r="E26" s="3">
-        <v>-967900</v>
+        <v>-938100</v>
       </c>
       <c r="F26" s="3">
-        <v>-434100</v>
+        <v>-420800</v>
       </c>
       <c r="G26" s="3">
-        <v>-185300</v>
+        <v>-179600</v>
       </c>
       <c r="H26" s="3">
-        <v>-80300</v>
+        <v>-77800</v>
       </c>
       <c r="I26" s="3">
-        <v>-26100</v>
+        <v>-25300</v>
       </c>
       <c r="J26" s="3">
-        <v>-129600</v>
+        <v>-125600</v>
       </c>
       <c r="K26" s="3">
         <v>-52000</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1065700</v>
+        <v>-1032900</v>
       </c>
       <c r="E27" s="3">
-        <v>-965100</v>
+        <v>-935400</v>
       </c>
       <c r="F27" s="3">
-        <v>-428100</v>
+        <v>-415000</v>
       </c>
       <c r="G27" s="3">
-        <v>-183200</v>
+        <v>-177600</v>
       </c>
       <c r="H27" s="3">
-        <v>-87600</v>
+        <v>-84900</v>
       </c>
       <c r="I27" s="3">
-        <v>-81200</v>
+        <v>-78700</v>
       </c>
       <c r="J27" s="3">
-        <v>-168500</v>
+        <v>-163300</v>
       </c>
       <c r="K27" s="3">
         <v>-79200</v>
@@ -1660,22 +1660,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="E32" s="3">
-        <v>18300</v>
+        <v>17800</v>
       </c>
       <c r="F32" s="3">
-        <v>-35400</v>
+        <v>-34300</v>
       </c>
       <c r="G32" s="3">
-        <v>-39000</v>
+        <v>-37800</v>
       </c>
       <c r="H32" s="3">
-        <v>-27000</v>
+        <v>-26200</v>
       </c>
       <c r="I32" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="J32" s="3">
         <v>1900</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1065700</v>
+        <v>-1032900</v>
       </c>
       <c r="E33" s="3">
-        <v>-965100</v>
+        <v>-935400</v>
       </c>
       <c r="F33" s="3">
-        <v>-428100</v>
+        <v>-415000</v>
       </c>
       <c r="G33" s="3">
-        <v>-183200</v>
+        <v>-177600</v>
       </c>
       <c r="H33" s="3">
-        <v>-87600</v>
+        <v>-84900</v>
       </c>
       <c r="I33" s="3">
-        <v>-81200</v>
+        <v>-78700</v>
       </c>
       <c r="J33" s="3">
-        <v>-168500</v>
+        <v>-163300</v>
       </c>
       <c r="K33" s="3">
         <v>-79200</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1065700</v>
+        <v>-1032900</v>
       </c>
       <c r="E35" s="3">
-        <v>-965100</v>
+        <v>-935400</v>
       </c>
       <c r="F35" s="3">
-        <v>-428100</v>
+        <v>-415000</v>
       </c>
       <c r="G35" s="3">
-        <v>-183200</v>
+        <v>-177600</v>
       </c>
       <c r="H35" s="3">
-        <v>-87600</v>
+        <v>-84900</v>
       </c>
       <c r="I35" s="3">
-        <v>-81200</v>
+        <v>-78700</v>
       </c>
       <c r="J35" s="3">
-        <v>-168500</v>
+        <v>-163300</v>
       </c>
       <c r="K35" s="3">
         <v>-79200</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1446000</v>
+        <v>1401600</v>
       </c>
       <c r="E41" s="3">
-        <v>1069400</v>
+        <v>1036500</v>
       </c>
       <c r="F41" s="3">
-        <v>665000</v>
+        <v>644500</v>
       </c>
       <c r="G41" s="3">
-        <v>705400</v>
+        <v>683800</v>
       </c>
       <c r="H41" s="3">
-        <v>503200</v>
+        <v>487700</v>
       </c>
       <c r="I41" s="3">
-        <v>108400</v>
+        <v>105100</v>
       </c>
       <c r="J41" s="3">
-        <v>55000</v>
+        <v>53300</v>
       </c>
       <c r="K41" s="3">
         <v>96000</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1339500</v>
+        <v>1298300</v>
       </c>
       <c r="E42" s="3">
-        <v>3241000</v>
+        <v>3141300</v>
       </c>
       <c r="F42" s="3">
-        <v>1155500</v>
+        <v>1120000</v>
       </c>
       <c r="G42" s="3">
-        <v>445200</v>
+        <v>431500</v>
       </c>
       <c r="H42" s="3">
-        <v>243800</v>
+        <v>236300</v>
       </c>
       <c r="I42" s="3">
-        <v>71800</v>
+        <v>69600</v>
       </c>
       <c r="J42" s="3">
-        <v>102600</v>
+        <v>99500</v>
       </c>
       <c r="K42" s="3">
         <v>7800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>430500</v>
+        <v>417300</v>
       </c>
       <c r="E43" s="3">
-        <v>498000</v>
+        <v>482700</v>
       </c>
       <c r="F43" s="3">
-        <v>200800</v>
+        <v>194600</v>
       </c>
       <c r="G43" s="3">
-        <v>156100</v>
+        <v>151300</v>
       </c>
       <c r="H43" s="3">
-        <v>61900</v>
+        <v>60000</v>
       </c>
       <c r="I43" s="3">
-        <v>64700</v>
+        <v>62700</v>
       </c>
       <c r="J43" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="K43" s="3">
         <v>4000</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62200</v>
+        <v>60300</v>
       </c>
       <c r="E44" s="3">
-        <v>64800</v>
+        <v>62800</v>
       </c>
       <c r="F44" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="G44" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="H44" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="I44" s="3">
         <v>1400</v>
       </c>
       <c r="J44" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>197800</v>
+        <v>191700</v>
       </c>
       <c r="E45" s="3">
-        <v>307800</v>
+        <v>298300</v>
       </c>
       <c r="F45" s="3">
-        <v>193300</v>
+        <v>187400</v>
       </c>
       <c r="G45" s="3">
-        <v>150900</v>
+        <v>146300</v>
       </c>
       <c r="H45" s="3">
-        <v>114400</v>
+        <v>110800</v>
       </c>
       <c r="I45" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="J45" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="K45" s="3">
         <v>10700</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3476000</v>
+        <v>3369100</v>
       </c>
       <c r="E46" s="3">
-        <v>5180900</v>
+        <v>5021600</v>
       </c>
       <c r="F46" s="3">
-        <v>2237400</v>
+        <v>2168600</v>
       </c>
       <c r="G46" s="3">
-        <v>1467600</v>
+        <v>1422400</v>
       </c>
       <c r="H46" s="3">
-        <v>931100</v>
+        <v>902500</v>
       </c>
       <c r="I46" s="3">
-        <v>306100</v>
+        <v>296700</v>
       </c>
       <c r="J46" s="3">
-        <v>199100</v>
+        <v>193000</v>
       </c>
       <c r="K46" s="3">
         <v>118700</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>803300</v>
+        <v>778600</v>
       </c>
       <c r="E47" s="3">
-        <v>782200</v>
+        <v>758100</v>
       </c>
       <c r="F47" s="3">
-        <v>317400</v>
+        <v>307700</v>
       </c>
       <c r="G47" s="3">
-        <v>177800</v>
+        <v>172400</v>
       </c>
       <c r="H47" s="3">
-        <v>139300</v>
+        <v>135000</v>
       </c>
       <c r="I47" s="3">
-        <v>90400</v>
+        <v>87600</v>
       </c>
       <c r="J47" s="3">
-        <v>53600</v>
+        <v>51900</v>
       </c>
       <c r="K47" s="3">
         <v>22400</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>174400</v>
+        <v>169100</v>
       </c>
       <c r="E48" s="3">
-        <v>191900</v>
+        <v>186000</v>
       </c>
       <c r="F48" s="3">
-        <v>108300</v>
+        <v>105000</v>
       </c>
       <c r="G48" s="3">
-        <v>106900</v>
+        <v>103600</v>
       </c>
       <c r="H48" s="3">
-        <v>56100</v>
+        <v>54400</v>
       </c>
       <c r="I48" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="J48" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K48" s="3">
         <v>4800</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1002400</v>
+        <v>971600</v>
       </c>
       <c r="E49" s="3">
-        <v>877600</v>
+        <v>850600</v>
       </c>
       <c r="F49" s="3">
-        <v>519200</v>
+        <v>503300</v>
       </c>
       <c r="G49" s="3">
-        <v>379400</v>
+        <v>367800</v>
       </c>
       <c r="H49" s="3">
-        <v>335600</v>
+        <v>325300</v>
       </c>
       <c r="I49" s="3">
-        <v>67800</v>
+        <v>65800</v>
       </c>
       <c r="J49" s="3">
-        <v>47400</v>
+        <v>45900</v>
       </c>
       <c r="K49" s="3">
         <v>15200</v>
@@ -2373,22 +2373,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>490100</v>
+        <v>475000</v>
       </c>
       <c r="E52" s="3">
-        <v>366700</v>
+        <v>355400</v>
       </c>
       <c r="F52" s="3">
-        <v>210200</v>
+        <v>203700</v>
       </c>
       <c r="G52" s="3">
-        <v>74000</v>
+        <v>71700</v>
       </c>
       <c r="H52" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="I52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5946200</v>
+        <v>5763400</v>
       </c>
       <c r="E54" s="3">
-        <v>7399400</v>
+        <v>7171900</v>
       </c>
       <c r="F54" s="3">
-        <v>3392500</v>
+        <v>3288200</v>
       </c>
       <c r="G54" s="3">
-        <v>2205700</v>
+        <v>2137900</v>
       </c>
       <c r="H54" s="3">
-        <v>1491200</v>
+        <v>1445300</v>
       </c>
       <c r="I54" s="3">
-        <v>493800</v>
+        <v>478600</v>
       </c>
       <c r="J54" s="3">
-        <v>308000</v>
+        <v>298500</v>
       </c>
       <c r="K54" s="3">
         <v>161000</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>610100</v>
+        <v>591300</v>
       </c>
       <c r="E57" s="3">
-        <v>619900</v>
+        <v>600800</v>
       </c>
       <c r="F57" s="3">
-        <v>437000</v>
+        <v>423600</v>
       </c>
       <c r="G57" s="3">
-        <v>270700</v>
+        <v>262300</v>
       </c>
       <c r="H57" s="3">
-        <v>185900</v>
+        <v>180200</v>
       </c>
       <c r="I57" s="3">
-        <v>84800</v>
+        <v>82200</v>
       </c>
       <c r="J57" s="3">
-        <v>45000</v>
+        <v>43700</v>
       </c>
       <c r="K57" s="3">
         <v>17100</v>
@@ -2577,13 +2577,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>941200</v>
+        <v>912300</v>
       </c>
       <c r="E58" s="3">
-        <v>175100</v>
+        <v>169800</v>
       </c>
       <c r="F58" s="3">
-        <v>14200</v>
+        <v>13800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>878500</v>
+        <v>851500</v>
       </c>
       <c r="E59" s="3">
-        <v>920800</v>
+        <v>892500</v>
       </c>
       <c r="F59" s="3">
-        <v>599500</v>
+        <v>581100</v>
       </c>
       <c r="G59" s="3">
-        <v>336700</v>
+        <v>326300</v>
       </c>
       <c r="H59" s="3">
-        <v>283100</v>
+        <v>274400</v>
       </c>
       <c r="I59" s="3">
-        <v>113900</v>
+        <v>110400</v>
       </c>
       <c r="J59" s="3">
-        <v>44200</v>
+        <v>42900</v>
       </c>
       <c r="K59" s="3">
         <v>24400</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2429800</v>
+        <v>2355100</v>
       </c>
       <c r="E60" s="3">
-        <v>1715900</v>
+        <v>1663100</v>
       </c>
       <c r="F60" s="3">
-        <v>1050700</v>
+        <v>1018400</v>
       </c>
       <c r="G60" s="3">
-        <v>607300</v>
+        <v>588700</v>
       </c>
       <c r="H60" s="3">
-        <v>468900</v>
+        <v>454500</v>
       </c>
       <c r="I60" s="3">
-        <v>198700</v>
+        <v>192600</v>
       </c>
       <c r="J60" s="3">
-        <v>89300</v>
+        <v>86500</v>
       </c>
       <c r="K60" s="3">
         <v>42900</v>
@@ -2703,16 +2703,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1234300</v>
+        <v>1196400</v>
       </c>
       <c r="E61" s="3">
-        <v>2528000</v>
+        <v>2450300</v>
       </c>
       <c r="F61" s="3">
-        <v>1185700</v>
+        <v>1149200</v>
       </c>
       <c r="G61" s="3">
-        <v>485400</v>
+        <v>470500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2745,16 +2745,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115800</v>
+        <v>112200</v>
       </c>
       <c r="E62" s="3">
-        <v>68500</v>
+        <v>66400</v>
       </c>
       <c r="F62" s="3">
-        <v>49900</v>
+        <v>48400</v>
       </c>
       <c r="G62" s="3">
-        <v>27400</v>
+        <v>26600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3780200</v>
+        <v>3663900</v>
       </c>
       <c r="E66" s="3">
-        <v>4314200</v>
+        <v>4181600</v>
       </c>
       <c r="F66" s="3">
-        <v>2312100</v>
+        <v>2241000</v>
       </c>
       <c r="G66" s="3">
-        <v>1203200</v>
+        <v>1166200</v>
       </c>
       <c r="H66" s="3">
-        <v>503100</v>
+        <v>487600</v>
       </c>
       <c r="I66" s="3">
-        <v>198700</v>
+        <v>192600</v>
       </c>
       <c r="J66" s="3">
-        <v>89300</v>
+        <v>86600</v>
       </c>
       <c r="K66" s="3">
         <v>42700</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>570700</v>
+        <v>553200</v>
       </c>
       <c r="J70" s="3">
-        <v>406800</v>
+        <v>394300</v>
       </c>
       <c r="K70" s="3">
         <v>194100</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3048200</v>
+        <v>-2954500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1982500</v>
+        <v>-1921600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1017400</v>
+        <v>-986200</v>
       </c>
       <c r="G72" s="3">
-        <v>-587400</v>
+        <v>-569300</v>
       </c>
       <c r="H72" s="3">
-        <v>-403000</v>
+        <v>-390600</v>
       </c>
       <c r="I72" s="3">
-        <v>-315400</v>
+        <v>-305700</v>
       </c>
       <c r="J72" s="3">
-        <v>-252500</v>
+        <v>-244800</v>
       </c>
       <c r="K72" s="3">
         <v>-91200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2166100</v>
+        <v>2099500</v>
       </c>
       <c r="E76" s="3">
-        <v>3085200</v>
+        <v>2990300</v>
       </c>
       <c r="F76" s="3">
-        <v>1080400</v>
+        <v>1047200</v>
       </c>
       <c r="G76" s="3">
-        <v>1002500</v>
+        <v>971700</v>
       </c>
       <c r="H76" s="3">
-        <v>988100</v>
+        <v>957700</v>
       </c>
       <c r="I76" s="3">
-        <v>-275700</v>
+        <v>-267200</v>
       </c>
       <c r="J76" s="3">
-        <v>-188100</v>
+        <v>-182400</v>
       </c>
       <c r="K76" s="3">
         <v>-75700</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1065700</v>
+        <v>-1032900</v>
       </c>
       <c r="E81" s="3">
-        <v>-965100</v>
+        <v>-935400</v>
       </c>
       <c r="F81" s="3">
-        <v>-428100</v>
+        <v>-415000</v>
       </c>
       <c r="G81" s="3">
-        <v>-183200</v>
+        <v>-177600</v>
       </c>
       <c r="H81" s="3">
-        <v>-87600</v>
+        <v>-84900</v>
       </c>
       <c r="I81" s="3">
-        <v>-81200</v>
+        <v>-78700</v>
       </c>
       <c r="J81" s="3">
-        <v>-168500</v>
+        <v>-163300</v>
       </c>
       <c r="K81" s="3">
         <v>-79200</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>474300</v>
+        <v>459700</v>
       </c>
       <c r="E83" s="3">
-        <v>347100</v>
+        <v>336400</v>
       </c>
       <c r="F83" s="3">
-        <v>244700</v>
+        <v>237200</v>
       </c>
       <c r="G83" s="3">
-        <v>156000</v>
+        <v>151200</v>
       </c>
       <c r="H83" s="3">
-        <v>91300</v>
+        <v>88500</v>
       </c>
       <c r="I83" s="3">
-        <v>43300</v>
+        <v>41900</v>
       </c>
       <c r="J83" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="K83" s="3">
         <v>5900</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-556000</v>
+        <v>-538900</v>
       </c>
       <c r="E89" s="3">
-        <v>-376300</v>
+        <v>-364700</v>
       </c>
       <c r="F89" s="3">
-        <v>107100</v>
+        <v>103800</v>
       </c>
       <c r="G89" s="3">
-        <v>27700</v>
+        <v>26800</v>
       </c>
       <c r="H89" s="3">
-        <v>104800</v>
+        <v>101600</v>
       </c>
       <c r="I89" s="3">
-        <v>66000</v>
+        <v>64000</v>
       </c>
       <c r="J89" s="3">
-        <v>-28300</v>
+        <v>-27400</v>
       </c>
       <c r="K89" s="3">
         <v>-26700</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-108100</v>
+        <v>-104800</v>
       </c>
       <c r="E91" s="3">
-        <v>-137200</v>
+        <v>-133000</v>
       </c>
       <c r="F91" s="3">
-        <v>-85600</v>
+        <v>-83000</v>
       </c>
       <c r="G91" s="3">
-        <v>-42100</v>
+        <v>-40800</v>
       </c>
       <c r="H91" s="3">
-        <v>-41700</v>
+        <v>-40400</v>
       </c>
       <c r="I91" s="3">
-        <v>-20600</v>
+        <v>-20000</v>
       </c>
       <c r="J91" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="K91" s="3">
         <v>-3600</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1508100</v>
+        <v>1461700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3493800</v>
+        <v>-3386400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1266100</v>
+        <v>-1227200</v>
       </c>
       <c r="G94" s="3">
-        <v>-562700</v>
+        <v>-545400</v>
       </c>
       <c r="H94" s="3">
-        <v>-454400</v>
+        <v>-440400</v>
       </c>
       <c r="I94" s="3">
-        <v>-101800</v>
+        <v>-98700</v>
       </c>
       <c r="J94" s="3">
-        <v>-168800</v>
+        <v>-163600</v>
       </c>
       <c r="K94" s="3">
         <v>-50900</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-619100</v>
+        <v>-600000</v>
       </c>
       <c r="E100" s="3">
-        <v>4319800</v>
+        <v>4187000</v>
       </c>
       <c r="F100" s="3">
-        <v>1184900</v>
+        <v>1148500</v>
       </c>
       <c r="G100" s="3">
-        <v>722000</v>
+        <v>699800</v>
       </c>
       <c r="H100" s="3">
-        <v>707200</v>
+        <v>685400</v>
       </c>
       <c r="I100" s="3">
-        <v>96000</v>
+        <v>93100</v>
       </c>
       <c r="J100" s="3">
-        <v>145600</v>
+        <v>141100</v>
       </c>
       <c r="K100" s="3">
         <v>153000</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>45700</v>
+        <v>44300</v>
       </c>
       <c r="E101" s="3">
-        <v>-45400</v>
+        <v>-44000</v>
       </c>
       <c r="F101" s="3">
-        <v>-66300</v>
+        <v>-64200</v>
       </c>
       <c r="G101" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="H101" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="I101" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="J101" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="K101" s="3">
         <v>6000</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>378700</v>
+        <v>367100</v>
       </c>
       <c r="E102" s="3">
-        <v>404400</v>
+        <v>392000</v>
       </c>
       <c r="F102" s="3">
-        <v>-40400</v>
+        <v>-39200</v>
       </c>
       <c r="G102" s="3">
-        <v>202200</v>
+        <v>196000</v>
       </c>
       <c r="H102" s="3">
-        <v>394800</v>
+        <v>382600</v>
       </c>
       <c r="I102" s="3">
-        <v>53400</v>
+        <v>51800</v>
       </c>
       <c r="J102" s="3">
-        <v>-44400</v>
+        <v>-43100</v>
       </c>
       <c r="K102" s="3">
         <v>81400</v>

--- a/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BILI_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3017300</v>
+        <v>3023800</v>
       </c>
       <c r="E8" s="3">
-        <v>2670700</v>
+        <v>2676500</v>
       </c>
       <c r="F8" s="3">
-        <v>1653200</v>
+        <v>1656800</v>
       </c>
       <c r="G8" s="3">
-        <v>933900</v>
+        <v>935900</v>
       </c>
       <c r="H8" s="3">
-        <v>568900</v>
+        <v>570100</v>
       </c>
       <c r="I8" s="3">
-        <v>340100</v>
+        <v>340800</v>
       </c>
       <c r="J8" s="3">
-        <v>72100</v>
+        <v>72300</v>
       </c>
       <c r="K8" s="3">
         <v>18200</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2486900</v>
+        <v>2492300</v>
       </c>
       <c r="E9" s="3">
-        <v>2113600</v>
+        <v>2118200</v>
       </c>
       <c r="F9" s="3">
-        <v>1261900</v>
+        <v>1264600</v>
       </c>
       <c r="G9" s="3">
-        <v>769900</v>
+        <v>771500</v>
       </c>
       <c r="H9" s="3">
-        <v>451000</v>
+        <v>452000</v>
       </c>
       <c r="I9" s="3">
-        <v>264400</v>
+        <v>265000</v>
       </c>
       <c r="J9" s="3">
-        <v>106500</v>
+        <v>106700</v>
       </c>
       <c r="K9" s="3">
         <v>42300</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>530400</v>
+        <v>531500</v>
       </c>
       <c r="E10" s="3">
-        <v>557100</v>
+        <v>558300</v>
       </c>
       <c r="F10" s="3">
-        <v>391300</v>
+        <v>392200</v>
       </c>
       <c r="G10" s="3">
-        <v>164000</v>
+        <v>164300</v>
       </c>
       <c r="H10" s="3">
-        <v>117900</v>
+        <v>118100</v>
       </c>
       <c r="I10" s="3">
-        <v>75700</v>
+        <v>75800</v>
       </c>
       <c r="J10" s="3">
-        <v>-34400</v>
+        <v>-34500</v>
       </c>
       <c r="K10" s="3">
         <v>-24000</v>
@@ -871,22 +871,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>584100</v>
+        <v>585400</v>
       </c>
       <c r="E12" s="3">
-        <v>391300</v>
+        <v>392100</v>
       </c>
       <c r="F12" s="3">
-        <v>208500</v>
+        <v>208900</v>
       </c>
       <c r="G12" s="3">
-        <v>123200</v>
+        <v>123500</v>
       </c>
       <c r="H12" s="3">
-        <v>74100</v>
+        <v>74200</v>
       </c>
       <c r="I12" s="3">
-        <v>38600</v>
+        <v>38700</v>
       </c>
       <c r="J12" s="3">
         <v>12600</v>
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-62200</v>
+        <v>-62300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3987100</v>
+        <v>3995800</v>
       </c>
       <c r="E17" s="3">
-        <v>3556500</v>
+        <v>3564200</v>
       </c>
       <c r="F17" s="3">
-        <v>2086000</v>
+        <v>2090500</v>
       </c>
       <c r="G17" s="3">
-        <v>1139900</v>
+        <v>1142300</v>
       </c>
       <c r="H17" s="3">
-        <v>669300</v>
+        <v>670800</v>
       </c>
       <c r="I17" s="3">
-        <v>371000</v>
+        <v>371800</v>
       </c>
       <c r="J17" s="3">
-        <v>195400</v>
+        <v>195800</v>
       </c>
       <c r="K17" s="3">
         <v>69600</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-969900</v>
+        <v>-972000</v>
       </c>
       <c r="E18" s="3">
-        <v>-885800</v>
+        <v>-887700</v>
       </c>
       <c r="F18" s="3">
-        <v>-432800</v>
+        <v>-433700</v>
       </c>
       <c r="G18" s="3">
-        <v>-206000</v>
+        <v>-206500</v>
       </c>
       <c r="H18" s="3">
-        <v>-100400</v>
+        <v>-100700</v>
       </c>
       <c r="I18" s="3">
-        <v>-30900</v>
+        <v>-31000</v>
       </c>
       <c r="J18" s="3">
-        <v>-123300</v>
+        <v>-123500</v>
       </c>
       <c r="K18" s="3">
         <v>-51300</v>
@@ -1162,7 +1162,7 @@
         <v>-17800</v>
       </c>
       <c r="F20" s="3">
-        <v>34300</v>
+        <v>34400</v>
       </c>
       <c r="G20" s="3">
         <v>37800</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-525700</v>
+        <v>-527200</v>
       </c>
       <c r="E21" s="3">
-        <v>-567100</v>
+        <v>-568600</v>
       </c>
       <c r="F21" s="3">
-        <v>-161300</v>
+        <v>-161800</v>
       </c>
       <c r="G21" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="H21" s="3">
         <v>14200</v>
       </c>
       <c r="I21" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="J21" s="3">
-        <v>-102900</v>
+        <v>-103100</v>
       </c>
       <c r="K21" s="3">
         <v>-45800</v>
@@ -1243,7 +1243,7 @@
         <v>34600</v>
       </c>
       <c r="E22" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="F22" s="3">
         <v>15000</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1020100</v>
+        <v>-1022300</v>
       </c>
       <c r="E23" s="3">
-        <v>-925000</v>
+        <v>-927000</v>
       </c>
       <c r="F23" s="3">
-        <v>-413400</v>
+        <v>-414300</v>
       </c>
       <c r="G23" s="3">
-        <v>-174700</v>
+        <v>-175000</v>
       </c>
       <c r="H23" s="3">
-        <v>-74300</v>
+        <v>-74400</v>
       </c>
       <c r="I23" s="3">
         <v>-24100</v>
       </c>
       <c r="J23" s="3">
-        <v>-125200</v>
+        <v>-125400</v>
       </c>
       <c r="K23" s="3">
         <v>-51700</v>
@@ -1324,16 +1324,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="E24" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="F24" s="3">
         <v>7400</v>
       </c>
       <c r="G24" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="3">
         <v>3600</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1034400</v>
+        <v>-1036700</v>
       </c>
       <c r="E26" s="3">
-        <v>-938100</v>
+        <v>-940200</v>
       </c>
       <c r="F26" s="3">
-        <v>-420800</v>
+        <v>-421700</v>
       </c>
       <c r="G26" s="3">
-        <v>-179600</v>
+        <v>-180000</v>
       </c>
       <c r="H26" s="3">
-        <v>-77800</v>
+        <v>-78000</v>
       </c>
       <c r="I26" s="3">
-        <v>-25300</v>
+        <v>-25400</v>
       </c>
       <c r="J26" s="3">
-        <v>-125600</v>
+        <v>-125900</v>
       </c>
       <c r="K26" s="3">
         <v>-52000</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1032900</v>
+        <v>-1035200</v>
       </c>
       <c r="E27" s="3">
-        <v>-935400</v>
+        <v>-937500</v>
       </c>
       <c r="F27" s="3">
-        <v>-415000</v>
+        <v>-415900</v>
       </c>
       <c r="G27" s="3">
-        <v>-177600</v>
+        <v>-178000</v>
       </c>
       <c r="H27" s="3">
-        <v>-84900</v>
+        <v>-85100</v>
       </c>
       <c r="I27" s="3">
-        <v>-78700</v>
+        <v>-78900</v>
       </c>
       <c r="J27" s="3">
-        <v>-163300</v>
+        <v>-163600</v>
       </c>
       <c r="K27" s="3">
         <v>-79200</v>
@@ -1666,7 +1666,7 @@
         <v>17800</v>
       </c>
       <c r="F32" s="3">
-        <v>-34300</v>
+        <v>-34400</v>
       </c>
       <c r="G32" s="3">
         <v>-37800</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1032900</v>
+        <v>-1035200</v>
       </c>
       <c r="E33" s="3">
-        <v>-935400</v>
+        <v>-937500</v>
       </c>
       <c r="F33" s="3">
-        <v>-415000</v>
+        <v>-415900</v>
       </c>
       <c r="G33" s="3">
-        <v>-177600</v>
+        <v>-178000</v>
       </c>
       <c r="H33" s="3">
-        <v>-84900</v>
+        <v>-85100</v>
       </c>
       <c r="I33" s="3">
-        <v>-78700</v>
+        <v>-78900</v>
       </c>
       <c r="J33" s="3">
-        <v>-163300</v>
+        <v>-163600</v>
       </c>
       <c r="K33" s="3">
         <v>-79200</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1032900</v>
+        <v>-1035200</v>
       </c>
       <c r="E35" s="3">
-        <v>-935400</v>
+        <v>-937500</v>
       </c>
       <c r="F35" s="3">
-        <v>-415000</v>
+        <v>-415900</v>
       </c>
       <c r="G35" s="3">
-        <v>-177600</v>
+        <v>-178000</v>
       </c>
       <c r="H35" s="3">
-        <v>-84900</v>
+        <v>-85100</v>
       </c>
       <c r="I35" s="3">
-        <v>-78700</v>
+        <v>-78900</v>
       </c>
       <c r="J35" s="3">
-        <v>-163300</v>
+        <v>-163600</v>
       </c>
       <c r="K35" s="3">
         <v>-79200</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1401600</v>
+        <v>1404600</v>
       </c>
       <c r="E41" s="3">
-        <v>1036500</v>
+        <v>1038800</v>
       </c>
       <c r="F41" s="3">
-        <v>644500</v>
+        <v>646000</v>
       </c>
       <c r="G41" s="3">
-        <v>683800</v>
+        <v>685200</v>
       </c>
       <c r="H41" s="3">
-        <v>487700</v>
+        <v>488800</v>
       </c>
       <c r="I41" s="3">
-        <v>105100</v>
+        <v>105300</v>
       </c>
       <c r="J41" s="3">
-        <v>53300</v>
+        <v>53500</v>
       </c>
       <c r="K41" s="3">
         <v>96000</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1298300</v>
+        <v>1301100</v>
       </c>
       <c r="E42" s="3">
-        <v>3141300</v>
+        <v>3148200</v>
       </c>
       <c r="F42" s="3">
-        <v>1120000</v>
+        <v>1122400</v>
       </c>
       <c r="G42" s="3">
-        <v>431500</v>
+        <v>432400</v>
       </c>
       <c r="H42" s="3">
-        <v>236300</v>
+        <v>236800</v>
       </c>
       <c r="I42" s="3">
-        <v>69600</v>
+        <v>69800</v>
       </c>
       <c r="J42" s="3">
-        <v>99500</v>
+        <v>99700</v>
       </c>
       <c r="K42" s="3">
         <v>7800</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>417300</v>
+        <v>418200</v>
       </c>
       <c r="E43" s="3">
-        <v>482700</v>
+        <v>483700</v>
       </c>
       <c r="F43" s="3">
-        <v>194600</v>
+        <v>195000</v>
       </c>
       <c r="G43" s="3">
-        <v>151300</v>
+        <v>151700</v>
       </c>
       <c r="H43" s="3">
-        <v>60000</v>
+        <v>60100</v>
       </c>
       <c r="I43" s="3">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="J43" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="K43" s="3">
         <v>4000</v>
@@ -2037,16 +2037,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60300</v>
+        <v>60400</v>
       </c>
       <c r="E44" s="3">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="F44" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="G44" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="H44" s="3">
         <v>7600</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>191700</v>
+        <v>192100</v>
       </c>
       <c r="E45" s="3">
-        <v>298300</v>
+        <v>299000</v>
       </c>
       <c r="F45" s="3">
-        <v>187400</v>
+        <v>187800</v>
       </c>
       <c r="G45" s="3">
-        <v>146300</v>
+        <v>146600</v>
       </c>
       <c r="H45" s="3">
-        <v>110800</v>
+        <v>111100</v>
       </c>
       <c r="I45" s="3">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="J45" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="K45" s="3">
         <v>10700</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3369100</v>
+        <v>3376500</v>
       </c>
       <c r="E46" s="3">
-        <v>5021600</v>
+        <v>5032600</v>
       </c>
       <c r="F46" s="3">
-        <v>2168600</v>
+        <v>2173300</v>
       </c>
       <c r="G46" s="3">
-        <v>1422400</v>
+        <v>1425500</v>
       </c>
       <c r="H46" s="3">
-        <v>902500</v>
+        <v>904400</v>
       </c>
       <c r="I46" s="3">
-        <v>296700</v>
+        <v>297300</v>
       </c>
       <c r="J46" s="3">
-        <v>193000</v>
+        <v>193400</v>
       </c>
       <c r="K46" s="3">
         <v>118700</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>778600</v>
+        <v>780300</v>
       </c>
       <c r="E47" s="3">
-        <v>758100</v>
+        <v>759800</v>
       </c>
       <c r="F47" s="3">
-        <v>307700</v>
+        <v>308300</v>
       </c>
       <c r="G47" s="3">
-        <v>172400</v>
+        <v>172800</v>
       </c>
       <c r="H47" s="3">
-        <v>135000</v>
+        <v>135300</v>
       </c>
       <c r="I47" s="3">
-        <v>87600</v>
+        <v>87800</v>
       </c>
       <c r="J47" s="3">
-        <v>51900</v>
+        <v>52100</v>
       </c>
       <c r="K47" s="3">
         <v>22400</v>
@@ -2205,19 +2205,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>169100</v>
+        <v>169400</v>
       </c>
       <c r="E48" s="3">
-        <v>186000</v>
+        <v>186400</v>
       </c>
       <c r="F48" s="3">
-        <v>105000</v>
+        <v>105200</v>
       </c>
       <c r="G48" s="3">
-        <v>103600</v>
+        <v>103800</v>
       </c>
       <c r="H48" s="3">
-        <v>54400</v>
+        <v>54500</v>
       </c>
       <c r="I48" s="3">
         <v>25700</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>971600</v>
+        <v>973700</v>
       </c>
       <c r="E49" s="3">
-        <v>850600</v>
+        <v>852500</v>
       </c>
       <c r="F49" s="3">
-        <v>503300</v>
+        <v>504400</v>
       </c>
       <c r="G49" s="3">
-        <v>367800</v>
+        <v>368600</v>
       </c>
       <c r="H49" s="3">
-        <v>325300</v>
+        <v>326000</v>
       </c>
       <c r="I49" s="3">
-        <v>65800</v>
+        <v>65900</v>
       </c>
       <c r="J49" s="3">
-        <v>45900</v>
+        <v>46000</v>
       </c>
       <c r="K49" s="3">
         <v>15200</v>
@@ -2373,19 +2373,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>475000</v>
+        <v>476000</v>
       </c>
       <c r="E52" s="3">
-        <v>355400</v>
+        <v>356200</v>
       </c>
       <c r="F52" s="3">
-        <v>203700</v>
+        <v>204100</v>
       </c>
       <c r="G52" s="3">
-        <v>71700</v>
+        <v>71800</v>
       </c>
       <c r="H52" s="3">
-        <v>28100</v>
+        <v>28200</v>
       </c>
       <c r="I52" s="3">
         <v>2900</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5763400</v>
+        <v>5776000</v>
       </c>
       <c r="E54" s="3">
-        <v>7171900</v>
+        <v>7187500</v>
       </c>
       <c r="F54" s="3">
-        <v>3288200</v>
+        <v>3295400</v>
       </c>
       <c r="G54" s="3">
-        <v>2137900</v>
+        <v>2142500</v>
       </c>
       <c r="H54" s="3">
-        <v>1445300</v>
+        <v>1448500</v>
       </c>
       <c r="I54" s="3">
-        <v>478600</v>
+        <v>479600</v>
       </c>
       <c r="J54" s="3">
-        <v>298500</v>
+        <v>299200</v>
       </c>
       <c r="K54" s="3">
         <v>161000</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>591300</v>
+        <v>592600</v>
       </c>
       <c r="E57" s="3">
-        <v>600800</v>
+        <v>602200</v>
       </c>
       <c r="F57" s="3">
-        <v>423600</v>
+        <v>424500</v>
       </c>
       <c r="G57" s="3">
-        <v>262300</v>
+        <v>262900</v>
       </c>
       <c r="H57" s="3">
-        <v>180200</v>
+        <v>180600</v>
       </c>
       <c r="I57" s="3">
-        <v>82200</v>
+        <v>82400</v>
       </c>
       <c r="J57" s="3">
-        <v>43700</v>
+        <v>43800</v>
       </c>
       <c r="K57" s="3">
         <v>17100</v>
@@ -2577,10 +2577,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>912300</v>
+        <v>914300</v>
       </c>
       <c r="E58" s="3">
-        <v>169800</v>
+        <v>170100</v>
       </c>
       <c r="F58" s="3">
         <v>13800</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>851500</v>
+        <v>853400</v>
       </c>
       <c r="E59" s="3">
-        <v>892500</v>
+        <v>894500</v>
       </c>
       <c r="F59" s="3">
-        <v>581100</v>
+        <v>582300</v>
       </c>
       <c r="G59" s="3">
-        <v>326300</v>
+        <v>327100</v>
       </c>
       <c r="H59" s="3">
-        <v>274400</v>
+        <v>274900</v>
       </c>
       <c r="I59" s="3">
-        <v>110400</v>
+        <v>110700</v>
       </c>
       <c r="J59" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="K59" s="3">
         <v>24400</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2355100</v>
+        <v>2360300</v>
       </c>
       <c r="E60" s="3">
-        <v>1663100</v>
+        <v>1666800</v>
       </c>
       <c r="F60" s="3">
-        <v>1018400</v>
+        <v>1020600</v>
       </c>
       <c r="G60" s="3">
-        <v>588700</v>
+        <v>590000</v>
       </c>
       <c r="H60" s="3">
-        <v>454500</v>
+        <v>455500</v>
       </c>
       <c r="I60" s="3">
-        <v>192600</v>
+        <v>193000</v>
       </c>
       <c r="J60" s="3">
-        <v>86500</v>
+        <v>86700</v>
       </c>
       <c r="K60" s="3">
         <v>42900</v>
@@ -2703,16 +2703,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1196400</v>
+        <v>1199000</v>
       </c>
       <c r="E61" s="3">
-        <v>2450300</v>
+        <v>2455600</v>
       </c>
       <c r="F61" s="3">
-        <v>1149200</v>
+        <v>1151700</v>
       </c>
       <c r="G61" s="3">
-        <v>470500</v>
+        <v>471500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2745,13 +2745,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>112200</v>
+        <v>112500</v>
       </c>
       <c r="E62" s="3">
-        <v>66400</v>
+        <v>66600</v>
       </c>
       <c r="F62" s="3">
-        <v>48400</v>
+        <v>48500</v>
       </c>
       <c r="G62" s="3">
         <v>26600</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3663900</v>
+        <v>3671900</v>
       </c>
       <c r="E66" s="3">
-        <v>4181600</v>
+        <v>4190700</v>
       </c>
       <c r="F66" s="3">
-        <v>2241000</v>
+        <v>2245900</v>
       </c>
       <c r="G66" s="3">
-        <v>1166200</v>
+        <v>1168700</v>
       </c>
       <c r="H66" s="3">
-        <v>487600</v>
+        <v>488700</v>
       </c>
       <c r="I66" s="3">
-        <v>192600</v>
+        <v>193000</v>
       </c>
       <c r="J66" s="3">
-        <v>86600</v>
+        <v>86800</v>
       </c>
       <c r="K66" s="3">
         <v>42700</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>553200</v>
+        <v>554400</v>
       </c>
       <c r="J70" s="3">
-        <v>394300</v>
+        <v>395100</v>
       </c>
       <c r="K70" s="3">
         <v>194100</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2954500</v>
+        <v>-2960900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1921600</v>
+        <v>-1925800</v>
       </c>
       <c r="F72" s="3">
-        <v>-986200</v>
+        <v>-988300</v>
       </c>
       <c r="G72" s="3">
-        <v>-569300</v>
+        <v>-570600</v>
       </c>
       <c r="H72" s="3">
-        <v>-390600</v>
+        <v>-391500</v>
       </c>
       <c r="I72" s="3">
-        <v>-305700</v>
+        <v>-306400</v>
       </c>
       <c r="J72" s="3">
-        <v>-244800</v>
+        <v>-245300</v>
       </c>
       <c r="K72" s="3">
         <v>-91200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2099500</v>
+        <v>2104000</v>
       </c>
       <c r="E76" s="3">
-        <v>2990300</v>
+        <v>2996800</v>
       </c>
       <c r="F76" s="3">
-        <v>1047200</v>
+        <v>1049400</v>
       </c>
       <c r="G76" s="3">
-        <v>971700</v>
+        <v>973800</v>
       </c>
       <c r="H76" s="3">
-        <v>957700</v>
+        <v>959800</v>
       </c>
       <c r="I76" s="3">
-        <v>-267200</v>
+        <v>-267800</v>
       </c>
       <c r="J76" s="3">
-        <v>-182400</v>
+        <v>-182700</v>
       </c>
       <c r="K76" s="3">
         <v>-75700</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1032900</v>
+        <v>-1035200</v>
       </c>
       <c r="E81" s="3">
-        <v>-935400</v>
+        <v>-937500</v>
       </c>
       <c r="F81" s="3">
-        <v>-415000</v>
+        <v>-415900</v>
       </c>
       <c r="G81" s="3">
-        <v>-177600</v>
+        <v>-178000</v>
       </c>
       <c r="H81" s="3">
-        <v>-84900</v>
+        <v>-85100</v>
       </c>
       <c r="I81" s="3">
-        <v>-78700</v>
+        <v>-78900</v>
       </c>
       <c r="J81" s="3">
-        <v>-163300</v>
+        <v>-163600</v>
       </c>
       <c r="K81" s="3">
         <v>-79200</v>
@@ -3500,22 +3500,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>459700</v>
+        <v>460700</v>
       </c>
       <c r="E83" s="3">
-        <v>336400</v>
+        <v>337200</v>
       </c>
       <c r="F83" s="3">
-        <v>237200</v>
+        <v>237700</v>
       </c>
       <c r="G83" s="3">
-        <v>151200</v>
+        <v>151500</v>
       </c>
       <c r="H83" s="3">
-        <v>88500</v>
+        <v>88700</v>
       </c>
       <c r="I83" s="3">
-        <v>41900</v>
+        <v>42000</v>
       </c>
       <c r="J83" s="3">
         <v>22300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-538900</v>
+        <v>-540100</v>
       </c>
       <c r="E89" s="3">
-        <v>-364700</v>
+        <v>-365500</v>
       </c>
       <c r="F89" s="3">
-        <v>103800</v>
+        <v>104000</v>
       </c>
       <c r="G89" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="H89" s="3">
-        <v>101600</v>
+        <v>101800</v>
       </c>
       <c r="I89" s="3">
-        <v>64000</v>
+        <v>64100</v>
       </c>
       <c r="J89" s="3">
-        <v>-27400</v>
+        <v>-27500</v>
       </c>
       <c r="K89" s="3">
         <v>-26700</v>
@@ -3812,19 +3812,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-104800</v>
+        <v>-105000</v>
       </c>
       <c r="E91" s="3">
-        <v>-133000</v>
+        <v>-133300</v>
       </c>
       <c r="F91" s="3">
-        <v>-83000</v>
+        <v>-83100</v>
       </c>
       <c r="G91" s="3">
-        <v>-40800</v>
+        <v>-40900</v>
       </c>
       <c r="H91" s="3">
-        <v>-40400</v>
+        <v>-40500</v>
       </c>
       <c r="I91" s="3">
         <v>-20000</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1461700</v>
+        <v>1464900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3386400</v>
+        <v>-3393700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1227200</v>
+        <v>-1229900</v>
       </c>
       <c r="G94" s="3">
-        <v>-545400</v>
+        <v>-546600</v>
       </c>
       <c r="H94" s="3">
-        <v>-440400</v>
+        <v>-441400</v>
       </c>
       <c r="I94" s="3">
-        <v>-98700</v>
+        <v>-98900</v>
       </c>
       <c r="J94" s="3">
-        <v>-163600</v>
+        <v>-163900</v>
       </c>
       <c r="K94" s="3">
         <v>-50900</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-600000</v>
+        <v>-601300</v>
       </c>
       <c r="E100" s="3">
-        <v>4187000</v>
+        <v>4196100</v>
       </c>
       <c r="F100" s="3">
-        <v>1148500</v>
+        <v>1151000</v>
       </c>
       <c r="G100" s="3">
-        <v>699800</v>
+        <v>701300</v>
       </c>
       <c r="H100" s="3">
-        <v>685400</v>
+        <v>686900</v>
       </c>
       <c r="I100" s="3">
-        <v>93100</v>
+        <v>93300</v>
       </c>
       <c r="J100" s="3">
-        <v>141100</v>
+        <v>141400</v>
       </c>
       <c r="K100" s="3">
         <v>153000</v>
@@ -4208,19 +4208,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="E101" s="3">
-        <v>-44000</v>
+        <v>-44100</v>
       </c>
       <c r="F101" s="3">
-        <v>-64200</v>
+        <v>-64400</v>
       </c>
       <c r="G101" s="3">
         <v>14800</v>
       </c>
       <c r="H101" s="3">
-        <v>36000</v>
+        <v>36100</v>
       </c>
       <c r="I101" s="3">
         <v>-6600</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>367100</v>
+        <v>367900</v>
       </c>
       <c r="E102" s="3">
-        <v>392000</v>
+        <v>392800</v>
       </c>
       <c r="F102" s="3">
-        <v>-39200</v>
+        <v>-39300</v>
       </c>
       <c r="G102" s="3">
-        <v>196000</v>
+        <v>196400</v>
       </c>
       <c r="H102" s="3">
-        <v>382600</v>
+        <v>383500</v>
       </c>
       <c r="I102" s="3">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="J102" s="3">
-        <v>-43100</v>
+        <v>-43200</v>
       </c>
       <c r="K102" s="3">
         <v>81400</v>
